--- a/Global_M2/TVDataFeed/FinalData/M2_Data/United Kingdom_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/United Kingdom_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G436"/>
+  <dimension ref="A1:G439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11351,6 +11351,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="437">
+      <c r="A437" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>ECONOMICS:GBM2</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>3074346000000</v>
+      </c>
+      <c r="D437" t="n">
+        <v>3074346000000</v>
+      </c>
+      <c r="E437" t="n">
+        <v>3074346000000</v>
+      </c>
+      <c r="F437" t="n">
+        <v>3074346000000</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>ECONOMICS:GBM2</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>3060169000000</v>
+      </c>
+      <c r="D438" t="n">
+        <v>3060169000000</v>
+      </c>
+      <c r="E438" t="n">
+        <v>3060169000000</v>
+      </c>
+      <c r="F438" t="n">
+        <v>3060169000000</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>ECONOMICS:GBM2</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>3061343000000</v>
+      </c>
+      <c r="D439" t="n">
+        <v>3061343000000</v>
+      </c>
+      <c r="E439" t="n">
+        <v>3061343000000</v>
+      </c>
+      <c r="F439" t="n">
+        <v>3061343000000</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/United Kingdom_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/United Kingdom_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G439"/>
+  <dimension ref="A1:G440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>167346000000</v>
+        <v>167337000000</v>
       </c>
       <c r="D2" t="n">
-        <v>167346000000</v>
+        <v>167337000000</v>
       </c>
       <c r="E2" t="n">
-        <v>167346000000</v>
+        <v>167337000000</v>
       </c>
       <c r="F2" t="n">
-        <v>167346000000</v>
+        <v>167337000000</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>256387000000</v>
+        <v>256330000000</v>
       </c>
       <c r="D3" t="n">
-        <v>256387000000</v>
+        <v>256330000000</v>
       </c>
       <c r="E3" t="n">
-        <v>256387000000</v>
+        <v>256330000000</v>
       </c>
       <c r="F3" t="n">
-        <v>256387000000</v>
+        <v>256330000000</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -536,16 +536,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>259227000000</v>
+        <v>259350000000</v>
       </c>
       <c r="D4" t="n">
-        <v>259227000000</v>
+        <v>259350000000</v>
       </c>
       <c r="E4" t="n">
-        <v>259227000000</v>
+        <v>259350000000</v>
       </c>
       <c r="F4" t="n">
-        <v>259227000000</v>
+        <v>259350000000</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -561,16 +561,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>263558000000</v>
+        <v>263525000000</v>
       </c>
       <c r="D5" t="n">
-        <v>263558000000</v>
+        <v>263525000000</v>
       </c>
       <c r="E5" t="n">
-        <v>263558000000</v>
+        <v>263525000000</v>
       </c>
       <c r="F5" t="n">
-        <v>263558000000</v>
+        <v>263525000000</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>31868.41666666667</v>
+        <v>31868.45833333333</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -586,16 +586,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>267827000000</v>
+        <v>267778000000</v>
       </c>
       <c r="D6" t="n">
-        <v>267827000000</v>
+        <v>267778000000</v>
       </c>
       <c r="E6" t="n">
-        <v>267827000000</v>
+        <v>267778000000</v>
       </c>
       <c r="F6" t="n">
-        <v>267827000000</v>
+        <v>267778000000</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -611,16 +611,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>270696000000</v>
+        <v>270680000000</v>
       </c>
       <c r="D7" t="n">
-        <v>270696000000</v>
+        <v>270680000000</v>
       </c>
       <c r="E7" t="n">
-        <v>270696000000</v>
+        <v>270680000000</v>
       </c>
       <c r="F7" t="n">
-        <v>270696000000</v>
+        <v>270680000000</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -636,16 +636,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>272706000000</v>
+        <v>272668000000</v>
       </c>
       <c r="D8" t="n">
-        <v>272706000000</v>
+        <v>272668000000</v>
       </c>
       <c r="E8" t="n">
-        <v>272706000000</v>
+        <v>272668000000</v>
       </c>
       <c r="F8" t="n">
-        <v>272706000000</v>
+        <v>272668000000</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -661,16 +661,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>277426000000</v>
+        <v>277412000000</v>
       </c>
       <c r="D9" t="n">
-        <v>277426000000</v>
+        <v>277412000000</v>
       </c>
       <c r="E9" t="n">
-        <v>277426000000</v>
+        <v>277412000000</v>
       </c>
       <c r="F9" t="n">
-        <v>277426000000</v>
+        <v>277412000000</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -686,16 +686,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>280137000000</v>
+        <v>280135000000</v>
       </c>
       <c r="D10" t="n">
-        <v>280137000000</v>
+        <v>280135000000</v>
       </c>
       <c r="E10" t="n">
-        <v>280137000000</v>
+        <v>280135000000</v>
       </c>
       <c r="F10" t="n">
-        <v>280137000000</v>
+        <v>280135000000</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -711,16 +711,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>281239000000</v>
+        <v>281174000000</v>
       </c>
       <c r="D11" t="n">
-        <v>281239000000</v>
+        <v>281174000000</v>
       </c>
       <c r="E11" t="n">
-        <v>281239000000</v>
+        <v>281174000000</v>
       </c>
       <c r="F11" t="n">
-        <v>281239000000</v>
+        <v>281174000000</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -736,16 +736,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>286877000000</v>
+        <v>287018000000</v>
       </c>
       <c r="D12" t="n">
-        <v>286877000000</v>
+        <v>287018000000</v>
       </c>
       <c r="E12" t="n">
-        <v>286877000000</v>
+        <v>287018000000</v>
       </c>
       <c r="F12" t="n">
-        <v>286877000000</v>
+        <v>287018000000</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -761,16 +761,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>289336000000</v>
+        <v>289312000000</v>
       </c>
       <c r="D13" t="n">
-        <v>289336000000</v>
+        <v>289312000000</v>
       </c>
       <c r="E13" t="n">
-        <v>289336000000</v>
+        <v>289312000000</v>
       </c>
       <c r="F13" t="n">
-        <v>289336000000</v>
+        <v>289312000000</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>291584000000</v>
+        <v>291620000000</v>
       </c>
       <c r="D14" t="n">
-        <v>291584000000</v>
+        <v>291620000000</v>
       </c>
       <c r="E14" t="n">
-        <v>291584000000</v>
+        <v>291620000000</v>
       </c>
       <c r="F14" t="n">
-        <v>291584000000</v>
+        <v>291620000000</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -811,16 +811,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>295153000000</v>
+        <v>295118000000</v>
       </c>
       <c r="D15" t="n">
-        <v>295153000000</v>
+        <v>295118000000</v>
       </c>
       <c r="E15" t="n">
-        <v>295153000000</v>
+        <v>295118000000</v>
       </c>
       <c r="F15" t="n">
-        <v>295153000000</v>
+        <v>295118000000</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>297480000000</v>
+        <v>297648000000</v>
       </c>
       <c r="D16" t="n">
-        <v>297480000000</v>
+        <v>297648000000</v>
       </c>
       <c r="E16" t="n">
-        <v>297480000000</v>
+        <v>297648000000</v>
       </c>
       <c r="F16" t="n">
-        <v>297480000000</v>
+        <v>297648000000</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>302560000000</v>
+        <v>302568000000</v>
       </c>
       <c r="D17" t="n">
-        <v>302560000000</v>
+        <v>302568000000</v>
       </c>
       <c r="E17" t="n">
-        <v>302560000000</v>
+        <v>302568000000</v>
       </c>
       <c r="F17" t="n">
-        <v>302560000000</v>
+        <v>302568000000</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>32234.41666666667</v>
+        <v>32234.45833333333</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -886,16 +886,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>305045000000</v>
+        <v>304944000000</v>
       </c>
       <c r="D18" t="n">
-        <v>305045000000</v>
+        <v>304944000000</v>
       </c>
       <c r="E18" t="n">
-        <v>305045000000</v>
+        <v>304944000000</v>
       </c>
       <c r="F18" t="n">
-        <v>305045000000</v>
+        <v>304944000000</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>307415000000</v>
+        <v>307352000000</v>
       </c>
       <c r="D19" t="n">
-        <v>307415000000</v>
+        <v>307352000000</v>
       </c>
       <c r="E19" t="n">
-        <v>307415000000</v>
+        <v>307352000000</v>
       </c>
       <c r="F19" t="n">
-        <v>307415000000</v>
+        <v>307352000000</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -936,16 +936,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>313692000000</v>
+        <v>313693000000</v>
       </c>
       <c r="D20" t="n">
-        <v>313692000000</v>
+        <v>313693000000</v>
       </c>
       <c r="E20" t="n">
-        <v>313692000000</v>
+        <v>313693000000</v>
       </c>
       <c r="F20" t="n">
-        <v>313692000000</v>
+        <v>313693000000</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>319146000000</v>
+        <v>319150000000</v>
       </c>
       <c r="D21" t="n">
-        <v>319146000000</v>
+        <v>319150000000</v>
       </c>
       <c r="E21" t="n">
-        <v>319146000000</v>
+        <v>319150000000</v>
       </c>
       <c r="F21" t="n">
-        <v>319146000000</v>
+        <v>319150000000</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>323042000000</v>
+        <v>322998000000</v>
       </c>
       <c r="D22" t="n">
-        <v>323042000000</v>
+        <v>322998000000</v>
       </c>
       <c r="E22" t="n">
-        <v>323042000000</v>
+        <v>322998000000</v>
       </c>
       <c r="F22" t="n">
-        <v>323042000000</v>
+        <v>322998000000</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1011,16 +1011,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>327821000000</v>
+        <v>327792000000</v>
       </c>
       <c r="D23" t="n">
-        <v>327821000000</v>
+        <v>327792000000</v>
       </c>
       <c r="E23" t="n">
-        <v>327821000000</v>
+        <v>327792000000</v>
       </c>
       <c r="F23" t="n">
-        <v>327821000000</v>
+        <v>327792000000</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1036,16 +1036,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>331767000000</v>
+        <v>331929000000</v>
       </c>
       <c r="D24" t="n">
-        <v>331767000000</v>
+        <v>331929000000</v>
       </c>
       <c r="E24" t="n">
-        <v>331767000000</v>
+        <v>331929000000</v>
       </c>
       <c r="F24" t="n">
-        <v>331767000000</v>
+        <v>331929000000</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>333365000000</v>
+        <v>333292000000</v>
       </c>
       <c r="D25" t="n">
-        <v>333365000000</v>
+        <v>333292000000</v>
       </c>
       <c r="E25" t="n">
-        <v>333365000000</v>
+        <v>333292000000</v>
       </c>
       <c r="F25" t="n">
-        <v>333365000000</v>
+        <v>333292000000</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1086,16 +1086,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>339273000000</v>
+        <v>339315000000</v>
       </c>
       <c r="D26" t="n">
-        <v>339273000000</v>
+        <v>339315000000</v>
       </c>
       <c r="E26" t="n">
-        <v>339273000000</v>
+        <v>339315000000</v>
       </c>
       <c r="F26" t="n">
-        <v>339273000000</v>
+        <v>339315000000</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>343548000000</v>
+        <v>343458000000</v>
       </c>
       <c r="D27" t="n">
-        <v>343548000000</v>
+        <v>343458000000</v>
       </c>
       <c r="E27" t="n">
-        <v>343548000000</v>
+        <v>343458000000</v>
       </c>
       <c r="F27" t="n">
-        <v>343548000000</v>
+        <v>343458000000</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>349624000000</v>
+        <v>349706000000</v>
       </c>
       <c r="D28" t="n">
-        <v>349624000000</v>
+        <v>349706000000</v>
       </c>
       <c r="E28" t="n">
-        <v>349624000000</v>
+        <v>349706000000</v>
       </c>
       <c r="F28" t="n">
-        <v>349624000000</v>
+        <v>349706000000</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1161,16 +1161,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>353708000000</v>
+        <v>353731000000</v>
       </c>
       <c r="D29" t="n">
-        <v>353708000000</v>
+        <v>353731000000</v>
       </c>
       <c r="E29" t="n">
-        <v>353708000000</v>
+        <v>353731000000</v>
       </c>
       <c r="F29" t="n">
-        <v>353708000000</v>
+        <v>353731000000</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>32599.41666666667</v>
+        <v>32599.45833333333</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1186,16 +1186,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>357496000000</v>
+        <v>357398000000</v>
       </c>
       <c r="D30" t="n">
-        <v>357496000000</v>
+        <v>357398000000</v>
       </c>
       <c r="E30" t="n">
-        <v>357496000000</v>
+        <v>357398000000</v>
       </c>
       <c r="F30" t="n">
-        <v>357496000000</v>
+        <v>357398000000</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>363871000000</v>
+        <v>363831000000</v>
       </c>
       <c r="D31" t="n">
-        <v>363871000000</v>
+        <v>363831000000</v>
       </c>
       <c r="E31" t="n">
-        <v>363871000000</v>
+        <v>363831000000</v>
       </c>
       <c r="F31" t="n">
-        <v>363871000000</v>
+        <v>363831000000</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1236,16 +1236,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>375179000000</v>
+        <v>375182000000</v>
       </c>
       <c r="D32" t="n">
-        <v>375179000000</v>
+        <v>375182000000</v>
       </c>
       <c r="E32" t="n">
-        <v>375179000000</v>
+        <v>375182000000</v>
       </c>
       <c r="F32" t="n">
-        <v>375179000000</v>
+        <v>375182000000</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1261,16 +1261,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>377375000000</v>
+        <v>377388000000</v>
       </c>
       <c r="D33" t="n">
-        <v>377375000000</v>
+        <v>377388000000</v>
       </c>
       <c r="E33" t="n">
-        <v>377375000000</v>
+        <v>377388000000</v>
       </c>
       <c r="F33" t="n">
-        <v>377375000000</v>
+        <v>377388000000</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>384845000000</v>
+        <v>384841000000</v>
       </c>
       <c r="D34" t="n">
-        <v>384845000000</v>
+        <v>384841000000</v>
       </c>
       <c r="E34" t="n">
-        <v>384845000000</v>
+        <v>384841000000</v>
       </c>
       <c r="F34" t="n">
-        <v>384845000000</v>
+        <v>384841000000</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1311,16 +1311,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>389532000000</v>
+        <v>389500000000</v>
       </c>
       <c r="D35" t="n">
-        <v>389532000000</v>
+        <v>389500000000</v>
       </c>
       <c r="E35" t="n">
-        <v>389532000000</v>
+        <v>389500000000</v>
       </c>
       <c r="F35" t="n">
-        <v>389532000000</v>
+        <v>389500000000</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>32782.41666666666</v>
+        <v>32782.45833333334</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1336,16 +1336,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>396177000000</v>
+        <v>396239000000</v>
       </c>
       <c r="D36" t="n">
-        <v>396177000000</v>
+        <v>396239000000</v>
       </c>
       <c r="E36" t="n">
-        <v>396177000000</v>
+        <v>396239000000</v>
       </c>
       <c r="F36" t="n">
-        <v>396177000000</v>
+        <v>396239000000</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1361,16 +1361,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>398365000000</v>
+        <v>398328000000</v>
       </c>
       <c r="D37" t="n">
-        <v>398365000000</v>
+        <v>398328000000</v>
       </c>
       <c r="E37" t="n">
-        <v>398365000000</v>
+        <v>398328000000</v>
       </c>
       <c r="F37" t="n">
-        <v>398365000000</v>
+        <v>398328000000</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1386,16 +1386,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>406096000000</v>
+        <v>406221000000</v>
       </c>
       <c r="D38" t="n">
-        <v>406096000000</v>
+        <v>406221000000</v>
       </c>
       <c r="E38" t="n">
-        <v>406096000000</v>
+        <v>406221000000</v>
       </c>
       <c r="F38" t="n">
-        <v>406096000000</v>
+        <v>406221000000</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1411,16 +1411,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>411078000000</v>
+        <v>410998000000</v>
       </c>
       <c r="D39" t="n">
-        <v>411078000000</v>
+        <v>410998000000</v>
       </c>
       <c r="E39" t="n">
-        <v>411078000000</v>
+        <v>410998000000</v>
       </c>
       <c r="F39" t="n">
-        <v>411078000000</v>
+        <v>410998000000</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1436,16 +1436,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>414389000000</v>
+        <v>414453000000</v>
       </c>
       <c r="D40" t="n">
-        <v>414389000000</v>
+        <v>414453000000</v>
       </c>
       <c r="E40" t="n">
-        <v>414389000000</v>
+        <v>414453000000</v>
       </c>
       <c r="F40" t="n">
-        <v>414389000000</v>
+        <v>414453000000</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1461,16 +1461,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>420831000000</v>
+        <v>420826000000</v>
       </c>
       <c r="D41" t="n">
-        <v>420831000000</v>
+        <v>420826000000</v>
       </c>
       <c r="E41" t="n">
-        <v>420831000000</v>
+        <v>420826000000</v>
       </c>
       <c r="F41" t="n">
-        <v>420831000000</v>
+        <v>420826000000</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1486,16 +1486,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>424488000000</v>
+        <v>424388000000</v>
       </c>
       <c r="D42" t="n">
-        <v>424488000000</v>
+        <v>424388000000</v>
       </c>
       <c r="E42" t="n">
-        <v>424488000000</v>
+        <v>424388000000</v>
       </c>
       <c r="F42" t="n">
-        <v>424488000000</v>
+        <v>424388000000</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1511,16 +1511,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>427456000000</v>
+        <v>427459000000</v>
       </c>
       <c r="D43" t="n">
-        <v>427456000000</v>
+        <v>427459000000</v>
       </c>
       <c r="E43" t="n">
-        <v>427456000000</v>
+        <v>427459000000</v>
       </c>
       <c r="F43" t="n">
-        <v>427456000000</v>
+        <v>427459000000</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>431401000000</v>
+        <v>431386000000</v>
       </c>
       <c r="D44" t="n">
-        <v>431401000000</v>
+        <v>431386000000</v>
       </c>
       <c r="E44" t="n">
-        <v>431401000000</v>
+        <v>431386000000</v>
       </c>
       <c r="F44" t="n">
-        <v>431401000000</v>
+        <v>431386000000</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1561,16 +1561,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>432318000000</v>
+        <v>432274000000</v>
       </c>
       <c r="D45" t="n">
-        <v>432318000000</v>
+        <v>432274000000</v>
       </c>
       <c r="E45" t="n">
-        <v>432318000000</v>
+        <v>432274000000</v>
       </c>
       <c r="F45" t="n">
-        <v>432318000000</v>
+        <v>432274000000</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1586,16 +1586,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>435026000000</v>
+        <v>435024000000</v>
       </c>
       <c r="D46" t="n">
-        <v>435026000000</v>
+        <v>435024000000</v>
       </c>
       <c r="E46" t="n">
-        <v>435026000000</v>
+        <v>435024000000</v>
       </c>
       <c r="F46" t="n">
-        <v>435026000000</v>
+        <v>435024000000</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1611,16 +1611,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>439553000000</v>
+        <v>439582000000</v>
       </c>
       <c r="D47" t="n">
-        <v>439553000000</v>
+        <v>439582000000</v>
       </c>
       <c r="E47" t="n">
-        <v>439553000000</v>
+        <v>439582000000</v>
       </c>
       <c r="F47" t="n">
-        <v>439553000000</v>
+        <v>439582000000</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1636,16 +1636,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>441296000000</v>
+        <v>441307000000</v>
       </c>
       <c r="D48" t="n">
-        <v>441296000000</v>
+        <v>441307000000</v>
       </c>
       <c r="E48" t="n">
-        <v>441296000000</v>
+        <v>441307000000</v>
       </c>
       <c r="F48" t="n">
-        <v>441296000000</v>
+        <v>441307000000</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1661,16 +1661,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>446453000000</v>
+        <v>446449000000</v>
       </c>
       <c r="D49" t="n">
-        <v>446453000000</v>
+        <v>446449000000</v>
       </c>
       <c r="E49" t="n">
-        <v>446453000000</v>
+        <v>446449000000</v>
       </c>
       <c r="F49" t="n">
-        <v>446453000000</v>
+        <v>446449000000</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1686,16 +1686,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>448038000000</v>
+        <v>448146000000</v>
       </c>
       <c r="D50" t="n">
-        <v>448038000000</v>
+        <v>448146000000</v>
       </c>
       <c r="E50" t="n">
-        <v>448038000000</v>
+        <v>448146000000</v>
       </c>
       <c r="F50" t="n">
-        <v>448038000000</v>
+        <v>448146000000</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>449369000000</v>
+        <v>449344000000</v>
       </c>
       <c r="D51" t="n">
-        <v>449369000000</v>
+        <v>449344000000</v>
       </c>
       <c r="E51" t="n">
-        <v>449369000000</v>
+        <v>449344000000</v>
       </c>
       <c r="F51" t="n">
-        <v>449369000000</v>
+        <v>449344000000</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1736,16 +1736,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>450805000000</v>
+        <v>450873000000</v>
       </c>
       <c r="D52" t="n">
-        <v>450805000000</v>
+        <v>450873000000</v>
       </c>
       <c r="E52" t="n">
-        <v>450805000000</v>
+        <v>450873000000</v>
       </c>
       <c r="F52" t="n">
-        <v>450805000000</v>
+        <v>450873000000</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1761,16 +1761,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>452892000000</v>
+        <v>452937000000</v>
       </c>
       <c r="D53" t="n">
-        <v>452892000000</v>
+        <v>452937000000</v>
       </c>
       <c r="E53" t="n">
-        <v>452892000000</v>
+        <v>452937000000</v>
       </c>
       <c r="F53" t="n">
-        <v>452892000000</v>
+        <v>452937000000</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>33329.41666666666</v>
+        <v>33329.45833333334</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1786,16 +1786,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>454708000000</v>
+        <v>454555000000</v>
       </c>
       <c r="D54" t="n">
-        <v>454708000000</v>
+        <v>454555000000</v>
       </c>
       <c r="E54" t="n">
-        <v>454708000000</v>
+        <v>454555000000</v>
       </c>
       <c r="F54" t="n">
-        <v>454708000000</v>
+        <v>454555000000</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1811,16 +1811,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>457271000000</v>
+        <v>457272000000</v>
       </c>
       <c r="D55" t="n">
-        <v>457271000000</v>
+        <v>457272000000</v>
       </c>
       <c r="E55" t="n">
-        <v>457271000000</v>
+        <v>457272000000</v>
       </c>
       <c r="F55" t="n">
-        <v>457271000000</v>
+        <v>457272000000</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1836,16 +1836,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>458100000000</v>
+        <v>458137000000</v>
       </c>
       <c r="D56" t="n">
-        <v>458100000000</v>
+        <v>458137000000</v>
       </c>
       <c r="E56" t="n">
-        <v>458100000000</v>
+        <v>458137000000</v>
       </c>
       <c r="F56" t="n">
-        <v>458100000000</v>
+        <v>458137000000</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1861,16 +1861,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>457943000000</v>
+        <v>457924000000</v>
       </c>
       <c r="D57" t="n">
-        <v>457943000000</v>
+        <v>457924000000</v>
       </c>
       <c r="E57" t="n">
-        <v>457943000000</v>
+        <v>457924000000</v>
       </c>
       <c r="F57" t="n">
-        <v>457943000000</v>
+        <v>457924000000</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>459644000000</v>
+        <v>459621000000</v>
       </c>
       <c r="D58" t="n">
-        <v>459644000000</v>
+        <v>459621000000</v>
       </c>
       <c r="E58" t="n">
-        <v>459644000000</v>
+        <v>459621000000</v>
       </c>
       <c r="F58" t="n">
-        <v>459644000000</v>
+        <v>459621000000</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>461653000000</v>
+        <v>461685000000</v>
       </c>
       <c r="D59" t="n">
-        <v>461653000000</v>
+        <v>461685000000</v>
       </c>
       <c r="E59" t="n">
-        <v>461653000000</v>
+        <v>461685000000</v>
       </c>
       <c r="F59" t="n">
-        <v>461653000000</v>
+        <v>461685000000</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1936,16 +1936,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>460828000000</v>
+        <v>460857000000</v>
       </c>
       <c r="D60" t="n">
-        <v>460828000000</v>
+        <v>460857000000</v>
       </c>
       <c r="E60" t="n">
-        <v>460828000000</v>
+        <v>460857000000</v>
       </c>
       <c r="F60" t="n">
-        <v>460828000000</v>
+        <v>460857000000</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1961,16 +1961,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>461197000000</v>
+        <v>461192000000</v>
       </c>
       <c r="D61" t="n">
-        <v>461197000000</v>
+        <v>461192000000</v>
       </c>
       <c r="E61" t="n">
-        <v>461197000000</v>
+        <v>461192000000</v>
       </c>
       <c r="F61" t="n">
-        <v>461197000000</v>
+        <v>461192000000</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1986,16 +1986,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>462476000000</v>
+        <v>462474000000</v>
       </c>
       <c r="D62" t="n">
-        <v>462476000000</v>
+        <v>462474000000</v>
       </c>
       <c r="E62" t="n">
-        <v>462476000000</v>
+        <v>462474000000</v>
       </c>
       <c r="F62" t="n">
-        <v>462476000000</v>
+        <v>462474000000</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>466076000000</v>
+        <v>466039000000</v>
       </c>
       <c r="D63" t="n">
-        <v>466076000000</v>
+        <v>466039000000</v>
       </c>
       <c r="E63" t="n">
-        <v>466076000000</v>
+        <v>466039000000</v>
       </c>
       <c r="F63" t="n">
-        <v>466076000000</v>
+        <v>466039000000</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2036,16 +2036,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>467471000000</v>
+        <v>467522000000</v>
       </c>
       <c r="D64" t="n">
-        <v>467471000000</v>
+        <v>467522000000</v>
       </c>
       <c r="E64" t="n">
-        <v>467471000000</v>
+        <v>467522000000</v>
       </c>
       <c r="F64" t="n">
-        <v>467471000000</v>
+        <v>467522000000</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>33664.41666666666</v>
+        <v>33664.45833333334</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2061,16 +2061,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>468718000000</v>
+        <v>468671000000</v>
       </c>
       <c r="D65" t="n">
-        <v>468718000000</v>
+        <v>468671000000</v>
       </c>
       <c r="E65" t="n">
-        <v>468718000000</v>
+        <v>468671000000</v>
       </c>
       <c r="F65" t="n">
-        <v>468718000000</v>
+        <v>468671000000</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>33695.41666666666</v>
+        <v>33695.45833333334</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2086,16 +2086,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>472082000000</v>
+        <v>472022000000</v>
       </c>
       <c r="D66" t="n">
-        <v>472082000000</v>
+        <v>472022000000</v>
       </c>
       <c r="E66" t="n">
-        <v>472082000000</v>
+        <v>472022000000</v>
       </c>
       <c r="F66" t="n">
-        <v>472082000000</v>
+        <v>472022000000</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2111,16 +2111,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>469296000000</v>
+        <v>469326000000</v>
       </c>
       <c r="D67" t="n">
-        <v>469296000000</v>
+        <v>469326000000</v>
       </c>
       <c r="E67" t="n">
-        <v>469296000000</v>
+        <v>469326000000</v>
       </c>
       <c r="F67" t="n">
-        <v>469296000000</v>
+        <v>469326000000</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2136,16 +2136,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>471863000000</v>
+        <v>471818000000</v>
       </c>
       <c r="D68" t="n">
-        <v>471863000000</v>
+        <v>471818000000</v>
       </c>
       <c r="E68" t="n">
-        <v>471863000000</v>
+        <v>471818000000</v>
       </c>
       <c r="F68" t="n">
-        <v>471863000000</v>
+        <v>471818000000</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2161,16 +2161,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>473181000000</v>
+        <v>473207000000</v>
       </c>
       <c r="D69" t="n">
-        <v>473181000000</v>
+        <v>473207000000</v>
       </c>
       <c r="E69" t="n">
-        <v>473181000000</v>
+        <v>473207000000</v>
       </c>
       <c r="F69" t="n">
-        <v>473181000000</v>
+        <v>473207000000</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2186,16 +2186,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>472137000000</v>
+        <v>472158000000</v>
       </c>
       <c r="D70" t="n">
-        <v>472137000000</v>
+        <v>472158000000</v>
       </c>
       <c r="E70" t="n">
-        <v>472137000000</v>
+        <v>472158000000</v>
       </c>
       <c r="F70" t="n">
-        <v>472137000000</v>
+        <v>472158000000</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2211,16 +2211,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>478052000000</v>
+        <v>478016000000</v>
       </c>
       <c r="D71" t="n">
-        <v>478052000000</v>
+        <v>478016000000</v>
       </c>
       <c r="E71" t="n">
-        <v>478052000000</v>
+        <v>478016000000</v>
       </c>
       <c r="F71" t="n">
-        <v>478052000000</v>
+        <v>478016000000</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>484454000000</v>
+        <v>484458000000</v>
       </c>
       <c r="D72" t="n">
-        <v>484454000000</v>
+        <v>484458000000</v>
       </c>
       <c r="E72" t="n">
-        <v>484454000000</v>
+        <v>484458000000</v>
       </c>
       <c r="F72" t="n">
-        <v>484454000000</v>
+        <v>484458000000</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2261,16 +2261,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>483020000000</v>
+        <v>483067000000</v>
       </c>
       <c r="D73" t="n">
-        <v>483020000000</v>
+        <v>483067000000</v>
       </c>
       <c r="E73" t="n">
-        <v>483020000000</v>
+        <v>483067000000</v>
       </c>
       <c r="F73" t="n">
-        <v>483020000000</v>
+        <v>483067000000</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>481568000000</v>
+        <v>481596000000</v>
       </c>
       <c r="D74" t="n">
-        <v>481568000000</v>
+        <v>481596000000</v>
       </c>
       <c r="E74" t="n">
-        <v>481568000000</v>
+        <v>481596000000</v>
       </c>
       <c r="F74" t="n">
-        <v>481568000000</v>
+        <v>481596000000</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2311,16 +2311,16 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>481936000000</v>
+        <v>481917000000</v>
       </c>
       <c r="D75" t="n">
-        <v>481936000000</v>
+        <v>481917000000</v>
       </c>
       <c r="E75" t="n">
-        <v>481936000000</v>
+        <v>481917000000</v>
       </c>
       <c r="F75" t="n">
-        <v>481936000000</v>
+        <v>481917000000</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2336,16 +2336,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>483932000000</v>
+        <v>484041000000</v>
       </c>
       <c r="D76" t="n">
-        <v>483932000000</v>
+        <v>484041000000</v>
       </c>
       <c r="E76" t="n">
-        <v>483932000000</v>
+        <v>484041000000</v>
       </c>
       <c r="F76" t="n">
-        <v>483932000000</v>
+        <v>484041000000</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2361,16 +2361,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>484453000000</v>
+        <v>484433000000</v>
       </c>
       <c r="D77" t="n">
-        <v>484453000000</v>
+        <v>484433000000</v>
       </c>
       <c r="E77" t="n">
-        <v>484453000000</v>
+        <v>484433000000</v>
       </c>
       <c r="F77" t="n">
-        <v>484453000000</v>
+        <v>484433000000</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>34060.41666666666</v>
+        <v>34060.45833333334</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2386,16 +2386,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>486535000000</v>
+        <v>486469000000</v>
       </c>
       <c r="D78" t="n">
-        <v>486535000000</v>
+        <v>486469000000</v>
       </c>
       <c r="E78" t="n">
-        <v>486535000000</v>
+        <v>486469000000</v>
       </c>
       <c r="F78" t="n">
-        <v>486535000000</v>
+        <v>486469000000</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2411,16 +2411,16 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>487020000000</v>
+        <v>487062000000</v>
       </c>
       <c r="D79" t="n">
-        <v>487020000000</v>
+        <v>487062000000</v>
       </c>
       <c r="E79" t="n">
-        <v>487020000000</v>
+        <v>487062000000</v>
       </c>
       <c r="F79" t="n">
-        <v>487020000000</v>
+        <v>487062000000</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2436,16 +2436,16 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>490095000000</v>
+        <v>490077000000</v>
       </c>
       <c r="D80" t="n">
-        <v>490095000000</v>
+        <v>490077000000</v>
       </c>
       <c r="E80" t="n">
-        <v>490095000000</v>
+        <v>490077000000</v>
       </c>
       <c r="F80" t="n">
-        <v>490095000000</v>
+        <v>490077000000</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2461,16 +2461,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>493315000000</v>
+        <v>493309000000</v>
       </c>
       <c r="D81" t="n">
-        <v>493315000000</v>
+        <v>493309000000</v>
       </c>
       <c r="E81" t="n">
-        <v>493315000000</v>
+        <v>493309000000</v>
       </c>
       <c r="F81" t="n">
-        <v>493315000000</v>
+        <v>493309000000</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2486,16 +2486,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>495794000000</v>
+        <v>495733000000</v>
       </c>
       <c r="D82" t="n">
-        <v>495794000000</v>
+        <v>495733000000</v>
       </c>
       <c r="E82" t="n">
-        <v>495794000000</v>
+        <v>495733000000</v>
       </c>
       <c r="F82" t="n">
-        <v>495794000000</v>
+        <v>495733000000</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2511,16 +2511,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>497197000000</v>
+        <v>497207000000</v>
       </c>
       <c r="D83" t="n">
-        <v>497197000000</v>
+        <v>497207000000</v>
       </c>
       <c r="E83" t="n">
-        <v>497197000000</v>
+        <v>497207000000</v>
       </c>
       <c r="F83" t="n">
-        <v>497197000000</v>
+        <v>497207000000</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2536,16 +2536,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>500895000000</v>
+        <v>500927000000</v>
       </c>
       <c r="D84" t="n">
-        <v>500895000000</v>
+        <v>500927000000</v>
       </c>
       <c r="E84" t="n">
-        <v>500895000000</v>
+        <v>500927000000</v>
       </c>
       <c r="F84" t="n">
-        <v>500895000000</v>
+        <v>500927000000</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>503932000000</v>
+        <v>503892000000</v>
       </c>
       <c r="D85" t="n">
-        <v>503932000000</v>
+        <v>503892000000</v>
       </c>
       <c r="E85" t="n">
-        <v>503932000000</v>
+        <v>503892000000</v>
       </c>
       <c r="F85" t="n">
-        <v>503932000000</v>
+        <v>503892000000</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2586,16 +2586,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>509187000000</v>
+        <v>509210000000</v>
       </c>
       <c r="D86" t="n">
-        <v>509187000000</v>
+        <v>509210000000</v>
       </c>
       <c r="E86" t="n">
-        <v>509187000000</v>
+        <v>509210000000</v>
       </c>
       <c r="F86" t="n">
-        <v>509187000000</v>
+        <v>509210000000</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>510055000000</v>
+        <v>510037000000</v>
       </c>
       <c r="D87" t="n">
-        <v>510055000000</v>
+        <v>510037000000</v>
       </c>
       <c r="E87" t="n">
-        <v>510055000000</v>
+        <v>510037000000</v>
       </c>
       <c r="F87" t="n">
-        <v>510055000000</v>
+        <v>510037000000</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2636,16 +2636,16 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>514151000000</v>
+        <v>514263000000</v>
       </c>
       <c r="D88" t="n">
-        <v>514151000000</v>
+        <v>514263000000</v>
       </c>
       <c r="E88" t="n">
-        <v>514151000000</v>
+        <v>514263000000</v>
       </c>
       <c r="F88" t="n">
-        <v>514151000000</v>
+        <v>514263000000</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>515832000000</v>
+        <v>515860000000</v>
       </c>
       <c r="D89" t="n">
-        <v>515832000000</v>
+        <v>515860000000</v>
       </c>
       <c r="E89" t="n">
-        <v>515832000000</v>
+        <v>515860000000</v>
       </c>
       <c r="F89" t="n">
-        <v>515832000000</v>
+        <v>515860000000</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>34425.41666666666</v>
+        <v>34425.45833333334</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2686,16 +2686,16 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>514532000000</v>
+        <v>514461000000</v>
       </c>
       <c r="D90" t="n">
-        <v>514532000000</v>
+        <v>514461000000</v>
       </c>
       <c r="E90" t="n">
-        <v>514532000000</v>
+        <v>514461000000</v>
       </c>
       <c r="F90" t="n">
-        <v>514532000000</v>
+        <v>514461000000</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2711,16 +2711,16 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>517754000000</v>
+        <v>517715000000</v>
       </c>
       <c r="D91" t="n">
-        <v>517754000000</v>
+        <v>517715000000</v>
       </c>
       <c r="E91" t="n">
-        <v>517754000000</v>
+        <v>517715000000</v>
       </c>
       <c r="F91" t="n">
-        <v>517754000000</v>
+        <v>517715000000</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -2736,16 +2736,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>517107000000</v>
+        <v>517126000000</v>
       </c>
       <c r="D92" t="n">
-        <v>517107000000</v>
+        <v>517126000000</v>
       </c>
       <c r="E92" t="n">
-        <v>517107000000</v>
+        <v>517126000000</v>
       </c>
       <c r="F92" t="n">
-        <v>517107000000</v>
+        <v>517126000000</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>516586000000</v>
+        <v>516622000000</v>
       </c>
       <c r="D93" t="n">
-        <v>516586000000</v>
+        <v>516622000000</v>
       </c>
       <c r="E93" t="n">
-        <v>516586000000</v>
+        <v>516622000000</v>
       </c>
       <c r="F93" t="n">
-        <v>516586000000</v>
+        <v>516622000000</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2786,16 +2786,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>518463000000</v>
+        <v>518433000000</v>
       </c>
       <c r="D94" t="n">
-        <v>518463000000</v>
+        <v>518433000000</v>
       </c>
       <c r="E94" t="n">
-        <v>518463000000</v>
+        <v>518433000000</v>
       </c>
       <c r="F94" t="n">
-        <v>518463000000</v>
+        <v>518433000000</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -2811,16 +2811,16 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>521869000000</v>
+        <v>521855000000</v>
       </c>
       <c r="D95" t="n">
-        <v>521869000000</v>
+        <v>521855000000</v>
       </c>
       <c r="E95" t="n">
-        <v>521869000000</v>
+        <v>521855000000</v>
       </c>
       <c r="F95" t="n">
-        <v>521869000000</v>
+        <v>521855000000</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>521360000000</v>
+        <v>521392000000</v>
       </c>
       <c r="D96" t="n">
-        <v>521360000000</v>
+        <v>521392000000</v>
       </c>
       <c r="E96" t="n">
-        <v>521360000000</v>
+        <v>521392000000</v>
       </c>
       <c r="F96" t="n">
-        <v>521360000000</v>
+        <v>521392000000</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -2861,16 +2861,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>524815000000</v>
+        <v>524793000000</v>
       </c>
       <c r="D97" t="n">
-        <v>524815000000</v>
+        <v>524793000000</v>
       </c>
       <c r="E97" t="n">
-        <v>524815000000</v>
+        <v>524793000000</v>
       </c>
       <c r="F97" t="n">
-        <v>524815000000</v>
+        <v>524793000000</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -2886,16 +2886,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>527178000000</v>
+        <v>527181000000</v>
       </c>
       <c r="D98" t="n">
-        <v>527178000000</v>
+        <v>527181000000</v>
       </c>
       <c r="E98" t="n">
-        <v>527178000000</v>
+        <v>527181000000</v>
       </c>
       <c r="F98" t="n">
-        <v>527178000000</v>
+        <v>527181000000</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -2911,16 +2911,16 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>529805000000</v>
+        <v>529705000000</v>
       </c>
       <c r="D99" t="n">
-        <v>529805000000</v>
+        <v>529705000000</v>
       </c>
       <c r="E99" t="n">
-        <v>529805000000</v>
+        <v>529705000000</v>
       </c>
       <c r="F99" t="n">
-        <v>529805000000</v>
+        <v>529705000000</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -2936,16 +2936,16 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>533740000000</v>
+        <v>533748000000</v>
       </c>
       <c r="D100" t="n">
-        <v>533740000000</v>
+        <v>533748000000</v>
       </c>
       <c r="E100" t="n">
-        <v>533740000000</v>
+        <v>533748000000</v>
       </c>
       <c r="F100" t="n">
-        <v>533740000000</v>
+        <v>533748000000</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>542845000000</v>
+        <v>542868000000</v>
       </c>
       <c r="D101" t="n">
-        <v>542845000000</v>
+        <v>542868000000</v>
       </c>
       <c r="E101" t="n">
-        <v>542845000000</v>
+        <v>542868000000</v>
       </c>
       <c r="F101" t="n">
-        <v>542845000000</v>
+        <v>542868000000</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>34790.41666666666</v>
+        <v>34790.45833333334</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2986,16 +2986,16 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>542972000000</v>
+        <v>542961000000</v>
       </c>
       <c r="D102" t="n">
-        <v>542972000000</v>
+        <v>542961000000</v>
       </c>
       <c r="E102" t="n">
-        <v>542972000000</v>
+        <v>542961000000</v>
       </c>
       <c r="F102" t="n">
-        <v>542972000000</v>
+        <v>542961000000</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -3011,16 +3011,16 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>546596000000</v>
+        <v>546565000000</v>
       </c>
       <c r="D103" t="n">
-        <v>546596000000</v>
+        <v>546565000000</v>
       </c>
       <c r="E103" t="n">
-        <v>546596000000</v>
+        <v>546565000000</v>
       </c>
       <c r="F103" t="n">
-        <v>546596000000</v>
+        <v>546565000000</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -3036,16 +3036,16 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>550517000000</v>
+        <v>550525000000</v>
       </c>
       <c r="D104" t="n">
-        <v>550517000000</v>
+        <v>550525000000</v>
       </c>
       <c r="E104" t="n">
-        <v>550517000000</v>
+        <v>550525000000</v>
       </c>
       <c r="F104" t="n">
-        <v>550517000000</v>
+        <v>550525000000</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -3061,16 +3061,16 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>558132000000</v>
+        <v>558179000000</v>
       </c>
       <c r="D105" t="n">
-        <v>558132000000</v>
+        <v>558179000000</v>
       </c>
       <c r="E105" t="n">
-        <v>558132000000</v>
+        <v>558179000000</v>
       </c>
       <c r="F105" t="n">
-        <v>558132000000</v>
+        <v>558179000000</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>564063000000</v>
+        <v>564095000000</v>
       </c>
       <c r="D106" t="n">
-        <v>564063000000</v>
+        <v>564095000000</v>
       </c>
       <c r="E106" t="n">
-        <v>564063000000</v>
+        <v>564095000000</v>
       </c>
       <c r="F106" t="n">
-        <v>564063000000</v>
+        <v>564095000000</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -3111,16 +3111,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>568088000000</v>
+        <v>568034000000</v>
       </c>
       <c r="D107" t="n">
-        <v>568088000000</v>
+        <v>568034000000</v>
       </c>
       <c r="E107" t="n">
-        <v>568088000000</v>
+        <v>568034000000</v>
       </c>
       <c r="F107" t="n">
-        <v>568088000000</v>
+        <v>568034000000</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>34973.41666666666</v>
+        <v>34973.45833333334</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3136,16 +3136,16 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>573759000000</v>
+        <v>573708000000</v>
       </c>
       <c r="D108" t="n">
-        <v>573759000000</v>
+        <v>573708000000</v>
       </c>
       <c r="E108" t="n">
-        <v>573759000000</v>
+        <v>573708000000</v>
       </c>
       <c r="F108" t="n">
-        <v>573759000000</v>
+        <v>573708000000</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -3161,16 +3161,16 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>577784000000</v>
+        <v>577801000000</v>
       </c>
       <c r="D109" t="n">
-        <v>577784000000</v>
+        <v>577801000000</v>
       </c>
       <c r="E109" t="n">
-        <v>577784000000</v>
+        <v>577801000000</v>
       </c>
       <c r="F109" t="n">
-        <v>577784000000</v>
+        <v>577801000000</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>580773000000</v>
+        <v>580830000000</v>
       </c>
       <c r="D110" t="n">
-        <v>580773000000</v>
+        <v>580830000000</v>
       </c>
       <c r="E110" t="n">
-        <v>580773000000</v>
+        <v>580830000000</v>
       </c>
       <c r="F110" t="n">
-        <v>580773000000</v>
+        <v>580830000000</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -3211,16 +3211,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>588717000000</v>
+        <v>588649000000</v>
       </c>
       <c r="D111" t="n">
-        <v>588717000000</v>
+        <v>588649000000</v>
       </c>
       <c r="E111" t="n">
-        <v>588717000000</v>
+        <v>588649000000</v>
       </c>
       <c r="F111" t="n">
-        <v>588717000000</v>
+        <v>588649000000</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -3236,16 +3236,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>591420000000</v>
+        <v>591470000000</v>
       </c>
       <c r="D112" t="n">
-        <v>591420000000</v>
+        <v>591470000000</v>
       </c>
       <c r="E112" t="n">
-        <v>591420000000</v>
+        <v>591470000000</v>
       </c>
       <c r="F112" t="n">
-        <v>591420000000</v>
+        <v>591470000000</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -3261,16 +3261,16 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>595989000000</v>
+        <v>596040000000</v>
       </c>
       <c r="D113" t="n">
-        <v>595989000000</v>
+        <v>596040000000</v>
       </c>
       <c r="E113" t="n">
-        <v>595989000000</v>
+        <v>596040000000</v>
       </c>
       <c r="F113" t="n">
-        <v>595989000000</v>
+        <v>596040000000</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3286,16 +3286,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>601125000000</v>
+        <v>601041000000</v>
       </c>
       <c r="D114" t="n">
-        <v>601125000000</v>
+        <v>601041000000</v>
       </c>
       <c r="E114" t="n">
-        <v>601125000000</v>
+        <v>601041000000</v>
       </c>
       <c r="F114" t="n">
-        <v>601125000000</v>
+        <v>601041000000</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -3311,16 +3311,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>601642000000</v>
+        <v>601655000000</v>
       </c>
       <c r="D115" t="n">
-        <v>601642000000</v>
+        <v>601655000000</v>
       </c>
       <c r="E115" t="n">
-        <v>601642000000</v>
+        <v>601655000000</v>
       </c>
       <c r="F115" t="n">
-        <v>601642000000</v>
+        <v>601655000000</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>610805000000</v>
+        <v>610828000000</v>
       </c>
       <c r="D116" t="n">
-        <v>610805000000</v>
+        <v>610828000000</v>
       </c>
       <c r="E116" t="n">
-        <v>610805000000</v>
+        <v>610828000000</v>
       </c>
       <c r="F116" t="n">
-        <v>610805000000</v>
+        <v>610828000000</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -3361,16 +3361,16 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>613639000000</v>
+        <v>613606000000</v>
       </c>
       <c r="D117" t="n">
-        <v>613639000000</v>
+        <v>613606000000</v>
       </c>
       <c r="E117" t="n">
-        <v>613639000000</v>
+        <v>613606000000</v>
       </c>
       <c r="F117" t="n">
-        <v>613639000000</v>
+        <v>613606000000</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -3386,16 +3386,16 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>617692000000</v>
+        <v>617724000000</v>
       </c>
       <c r="D118" t="n">
-        <v>617692000000</v>
+        <v>617724000000</v>
       </c>
       <c r="E118" t="n">
-        <v>617692000000</v>
+        <v>617724000000</v>
       </c>
       <c r="F118" t="n">
-        <v>617692000000</v>
+        <v>617724000000</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -3411,16 +3411,16 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>627444000000</v>
+        <v>627413000000</v>
       </c>
       <c r="D119" t="n">
-        <v>627444000000</v>
+        <v>627413000000</v>
       </c>
       <c r="E119" t="n">
-        <v>627444000000</v>
+        <v>627413000000</v>
       </c>
       <c r="F119" t="n">
-        <v>627444000000</v>
+        <v>627413000000</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -3436,16 +3436,16 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>627153000000</v>
+        <v>627188000000</v>
       </c>
       <c r="D120" t="n">
-        <v>627153000000</v>
+        <v>627188000000</v>
       </c>
       <c r="E120" t="n">
-        <v>627153000000</v>
+        <v>627188000000</v>
       </c>
       <c r="F120" t="n">
-        <v>627153000000</v>
+        <v>627188000000</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -3461,16 +3461,16 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>633342000000</v>
+        <v>633338000000</v>
       </c>
       <c r="D121" t="n">
-        <v>633342000000</v>
+        <v>633338000000</v>
       </c>
       <c r="E121" t="n">
-        <v>633342000000</v>
+        <v>633338000000</v>
       </c>
       <c r="F121" t="n">
-        <v>633342000000</v>
+        <v>633338000000</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -3486,16 +3486,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>638019000000</v>
+        <v>637978000000</v>
       </c>
       <c r="D122" t="n">
-        <v>638019000000</v>
+        <v>637978000000</v>
       </c>
       <c r="E122" t="n">
-        <v>638019000000</v>
+        <v>637978000000</v>
       </c>
       <c r="F122" t="n">
-        <v>638019000000</v>
+        <v>637978000000</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>648709000000</v>
+        <v>648710000000</v>
       </c>
       <c r="D123" t="n">
-        <v>648709000000</v>
+        <v>648710000000</v>
       </c>
       <c r="E123" t="n">
-        <v>648709000000</v>
+        <v>648710000000</v>
       </c>
       <c r="F123" t="n">
-        <v>648709000000</v>
+        <v>648710000000</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -3536,16 +3536,16 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>654750000000</v>
+        <v>654773000000</v>
       </c>
       <c r="D124" t="n">
-        <v>654750000000</v>
+        <v>654773000000</v>
       </c>
       <c r="E124" t="n">
-        <v>654750000000</v>
+        <v>654773000000</v>
       </c>
       <c r="F124" t="n">
-        <v>654750000000</v>
+        <v>654773000000</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -3561,16 +3561,16 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>659709000000</v>
+        <v>659765000000</v>
       </c>
       <c r="D125" t="n">
-        <v>659709000000</v>
+        <v>659765000000</v>
       </c>
       <c r="E125" t="n">
-        <v>659709000000</v>
+        <v>659765000000</v>
       </c>
       <c r="F125" t="n">
-        <v>659709000000</v>
+        <v>659765000000</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3586,16 +3586,16 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>663306000000</v>
+        <v>663261000000</v>
       </c>
       <c r="D126" t="n">
-        <v>663306000000</v>
+        <v>663261000000</v>
       </c>
       <c r="E126" t="n">
-        <v>663306000000</v>
+        <v>663261000000</v>
       </c>
       <c r="F126" t="n">
-        <v>663306000000</v>
+        <v>663261000000</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -3611,16 +3611,16 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>669269000000</v>
+        <v>669271000000</v>
       </c>
       <c r="D127" t="n">
-        <v>669269000000</v>
+        <v>669271000000</v>
       </c>
       <c r="E127" t="n">
-        <v>669269000000</v>
+        <v>669271000000</v>
       </c>
       <c r="F127" t="n">
-        <v>669269000000</v>
+        <v>669271000000</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -3636,16 +3636,16 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>691845000000</v>
+        <v>691887000000</v>
       </c>
       <c r="D128" t="n">
-        <v>691845000000</v>
+        <v>691887000000</v>
       </c>
       <c r="E128" t="n">
-        <v>691845000000</v>
+        <v>691887000000</v>
       </c>
       <c r="F128" t="n">
-        <v>691845000000</v>
+        <v>691887000000</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -3661,16 +3661,16 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>697606000000</v>
+        <v>697613000000</v>
       </c>
       <c r="D129" t="n">
-        <v>697606000000</v>
+        <v>697613000000</v>
       </c>
       <c r="E129" t="n">
-        <v>697606000000</v>
+        <v>697613000000</v>
       </c>
       <c r="F129" t="n">
-        <v>697606000000</v>
+        <v>697613000000</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -3686,16 +3686,16 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>700496000000</v>
+        <v>700574000000</v>
       </c>
       <c r="D130" t="n">
-        <v>700496000000</v>
+        <v>700574000000</v>
       </c>
       <c r="E130" t="n">
-        <v>700496000000</v>
+        <v>700574000000</v>
       </c>
       <c r="F130" t="n">
-        <v>700496000000</v>
+        <v>700574000000</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>660642000000</v>
+        <v>660511000000</v>
       </c>
       <c r="D131" t="n">
-        <v>660642000000</v>
+        <v>660511000000</v>
       </c>
       <c r="E131" t="n">
-        <v>660642000000</v>
+        <v>660511000000</v>
       </c>
       <c r="F131" t="n">
-        <v>660642000000</v>
+        <v>660511000000</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -3736,16 +3736,16 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>680538000000</v>
+        <v>680557000000</v>
       </c>
       <c r="D132" t="n">
-        <v>680538000000</v>
+        <v>680557000000</v>
       </c>
       <c r="E132" t="n">
-        <v>680538000000</v>
+        <v>680557000000</v>
       </c>
       <c r="F132" t="n">
-        <v>680538000000</v>
+        <v>680557000000</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -3761,16 +3761,16 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>684616000000</v>
+        <v>684652000000</v>
       </c>
       <c r="D133" t="n">
-        <v>684616000000</v>
+        <v>684652000000</v>
       </c>
       <c r="E133" t="n">
-        <v>684616000000</v>
+        <v>684652000000</v>
       </c>
       <c r="F133" t="n">
-        <v>684616000000</v>
+        <v>684652000000</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -3786,16 +3786,16 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>691552000000</v>
+        <v>691536000000</v>
       </c>
       <c r="D134" t="n">
-        <v>691552000000</v>
+        <v>691536000000</v>
       </c>
       <c r="E134" t="n">
-        <v>691552000000</v>
+        <v>691536000000</v>
       </c>
       <c r="F134" t="n">
-        <v>691552000000</v>
+        <v>691536000000</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -3811,16 +3811,16 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>693281000000</v>
+        <v>693275000000</v>
       </c>
       <c r="D135" t="n">
-        <v>693281000000</v>
+        <v>693275000000</v>
       </c>
       <c r="E135" t="n">
-        <v>693281000000</v>
+        <v>693275000000</v>
       </c>
       <c r="F135" t="n">
-        <v>693281000000</v>
+        <v>693275000000</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -3836,16 +3836,16 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>696643000000</v>
+        <v>696661000000</v>
       </c>
       <c r="D136" t="n">
-        <v>696643000000</v>
+        <v>696661000000</v>
       </c>
       <c r="E136" t="n">
-        <v>696643000000</v>
+        <v>696661000000</v>
       </c>
       <c r="F136" t="n">
-        <v>696643000000</v>
+        <v>696661000000</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -3861,16 +3861,16 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>700815000000</v>
+        <v>700760000000</v>
       </c>
       <c r="D137" t="n">
-        <v>700815000000</v>
+        <v>700760000000</v>
       </c>
       <c r="E137" t="n">
-        <v>700815000000</v>
+        <v>700760000000</v>
       </c>
       <c r="F137" t="n">
-        <v>700815000000</v>
+        <v>700760000000</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3886,16 +3886,16 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>703314000000</v>
+        <v>703334000000</v>
       </c>
       <c r="D138" t="n">
-        <v>703314000000</v>
+        <v>703334000000</v>
       </c>
       <c r="E138" t="n">
-        <v>703314000000</v>
+        <v>703334000000</v>
       </c>
       <c r="F138" t="n">
-        <v>703314000000</v>
+        <v>703334000000</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -3911,16 +3911,16 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>706425000000</v>
+        <v>706460000000</v>
       </c>
       <c r="D139" t="n">
-        <v>706425000000</v>
+        <v>706460000000</v>
       </c>
       <c r="E139" t="n">
-        <v>706425000000</v>
+        <v>706460000000</v>
       </c>
       <c r="F139" t="n">
-        <v>706425000000</v>
+        <v>706460000000</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -3936,16 +3936,16 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>708353000000</v>
+        <v>708285000000</v>
       </c>
       <c r="D140" t="n">
-        <v>708353000000</v>
+        <v>708285000000</v>
       </c>
       <c r="E140" t="n">
-        <v>708353000000</v>
+        <v>708285000000</v>
       </c>
       <c r="F140" t="n">
-        <v>708353000000</v>
+        <v>708285000000</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -3961,16 +3961,16 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>713928000000</v>
+        <v>713910000000</v>
       </c>
       <c r="D141" t="n">
-        <v>713928000000</v>
+        <v>713910000000</v>
       </c>
       <c r="E141" t="n">
-        <v>713928000000</v>
+        <v>713910000000</v>
       </c>
       <c r="F141" t="n">
-        <v>713928000000</v>
+        <v>713910000000</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -3986,16 +3986,16 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>716561000000</v>
+        <v>716631000000</v>
       </c>
       <c r="D142" t="n">
-        <v>716561000000</v>
+        <v>716631000000</v>
       </c>
       <c r="E142" t="n">
-        <v>716561000000</v>
+        <v>716631000000</v>
       </c>
       <c r="F142" t="n">
-        <v>716561000000</v>
+        <v>716631000000</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -4011,16 +4011,16 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>722399000000</v>
+        <v>722282000000</v>
       </c>
       <c r="D143" t="n">
-        <v>722399000000</v>
+        <v>722282000000</v>
       </c>
       <c r="E143" t="n">
-        <v>722399000000</v>
+        <v>722282000000</v>
       </c>
       <c r="F143" t="n">
-        <v>722399000000</v>
+        <v>722282000000</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>726082000000</v>
+        <v>726110000000</v>
       </c>
       <c r="D144" t="n">
-        <v>726082000000</v>
+        <v>726110000000</v>
       </c>
       <c r="E144" t="n">
-        <v>726082000000</v>
+        <v>726110000000</v>
       </c>
       <c r="F144" t="n">
-        <v>726082000000</v>
+        <v>726110000000</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -4061,16 +4061,16 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>728959000000</v>
+        <v>729033000000</v>
       </c>
       <c r="D145" t="n">
-        <v>728959000000</v>
+        <v>729033000000</v>
       </c>
       <c r="E145" t="n">
-        <v>728959000000</v>
+        <v>729033000000</v>
       </c>
       <c r="F145" t="n">
-        <v>728959000000</v>
+        <v>729033000000</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -4086,16 +4086,16 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>732227000000</v>
+        <v>732269000000</v>
       </c>
       <c r="D146" t="n">
-        <v>732227000000</v>
+        <v>732269000000</v>
       </c>
       <c r="E146" t="n">
-        <v>732227000000</v>
+        <v>732269000000</v>
       </c>
       <c r="F146" t="n">
-        <v>732227000000</v>
+        <v>732269000000</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -4111,16 +4111,16 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>728221000000</v>
+        <v>728216000000</v>
       </c>
       <c r="D147" t="n">
-        <v>728221000000</v>
+        <v>728216000000</v>
       </c>
       <c r="E147" t="n">
-        <v>728221000000</v>
+        <v>728216000000</v>
       </c>
       <c r="F147" t="n">
-        <v>728221000000</v>
+        <v>728216000000</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
@@ -4136,16 +4136,16 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>730690000000</v>
+        <v>730714000000</v>
       </c>
       <c r="D148" t="n">
-        <v>730690000000</v>
+        <v>730714000000</v>
       </c>
       <c r="E148" t="n">
-        <v>730690000000</v>
+        <v>730714000000</v>
       </c>
       <c r="F148" t="n">
-        <v>730690000000</v>
+        <v>730714000000</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -4161,16 +4161,16 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>728509000000</v>
+        <v>728468000000</v>
       </c>
       <c r="D149" t="n">
-        <v>728509000000</v>
+        <v>728468000000</v>
       </c>
       <c r="E149" t="n">
-        <v>728509000000</v>
+        <v>728468000000</v>
       </c>
       <c r="F149" t="n">
-        <v>728509000000</v>
+        <v>728468000000</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4186,16 +4186,16 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>734269000000</v>
+        <v>734284000000</v>
       </c>
       <c r="D150" t="n">
-        <v>734269000000</v>
+        <v>734284000000</v>
       </c>
       <c r="E150" t="n">
-        <v>734269000000</v>
+        <v>734284000000</v>
       </c>
       <c r="F150" t="n">
-        <v>734269000000</v>
+        <v>734284000000</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -4211,16 +4211,16 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>738227000000</v>
+        <v>738281000000</v>
       </c>
       <c r="D151" t="n">
-        <v>738227000000</v>
+        <v>738281000000</v>
       </c>
       <c r="E151" t="n">
-        <v>738227000000</v>
+        <v>738281000000</v>
       </c>
       <c r="F151" t="n">
-        <v>738227000000</v>
+        <v>738281000000</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -4236,16 +4236,16 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>742236000000</v>
+        <v>742206000000</v>
       </c>
       <c r="D152" t="n">
-        <v>742236000000</v>
+        <v>742206000000</v>
       </c>
       <c r="E152" t="n">
-        <v>742236000000</v>
+        <v>742206000000</v>
       </c>
       <c r="F152" t="n">
-        <v>742236000000</v>
+        <v>742206000000</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -4261,16 +4261,16 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>742970000000</v>
+        <v>742956000000</v>
       </c>
       <c r="D153" t="n">
-        <v>742970000000</v>
+        <v>742956000000</v>
       </c>
       <c r="E153" t="n">
-        <v>742970000000</v>
+        <v>742956000000</v>
       </c>
       <c r="F153" t="n">
-        <v>742970000000</v>
+        <v>742956000000</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -4286,16 +4286,16 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>743994000000</v>
+        <v>743936000000</v>
       </c>
       <c r="D154" t="n">
-        <v>743994000000</v>
+        <v>743936000000</v>
       </c>
       <c r="E154" t="n">
-        <v>743994000000</v>
+        <v>743936000000</v>
       </c>
       <c r="F154" t="n">
-        <v>743994000000</v>
+        <v>743936000000</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -4311,16 +4311,16 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>738215000000</v>
+        <v>738153000000</v>
       </c>
       <c r="D155" t="n">
-        <v>738215000000</v>
+        <v>738153000000</v>
       </c>
       <c r="E155" t="n">
-        <v>738215000000</v>
+        <v>738153000000</v>
       </c>
       <c r="F155" t="n">
-        <v>738215000000</v>
+        <v>738153000000</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -4336,16 +4336,16 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>741828000000</v>
+        <v>741867000000</v>
       </c>
       <c r="D156" t="n">
-        <v>741828000000</v>
+        <v>741867000000</v>
       </c>
       <c r="E156" t="n">
-        <v>741828000000</v>
+        <v>741867000000</v>
       </c>
       <c r="F156" t="n">
-        <v>741828000000</v>
+        <v>741867000000</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -4361,16 +4361,16 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>748145000000</v>
+        <v>748108000000</v>
       </c>
       <c r="D157" t="n">
-        <v>748145000000</v>
+        <v>748108000000</v>
       </c>
       <c r="E157" t="n">
-        <v>748145000000</v>
+        <v>748108000000</v>
       </c>
       <c r="F157" t="n">
-        <v>748145000000</v>
+        <v>748108000000</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -4386,16 +4386,16 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>754848000000</v>
+        <v>754881000000</v>
       </c>
       <c r="D158" t="n">
-        <v>754848000000</v>
+        <v>754881000000</v>
       </c>
       <c r="E158" t="n">
-        <v>754848000000</v>
+        <v>754881000000</v>
       </c>
       <c r="F158" t="n">
-        <v>754848000000</v>
+        <v>754881000000</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -4411,16 +4411,16 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>754955000000</v>
+        <v>754976000000</v>
       </c>
       <c r="D159" t="n">
-        <v>754955000000</v>
+        <v>754976000000</v>
       </c>
       <c r="E159" t="n">
-        <v>754955000000</v>
+        <v>754976000000</v>
       </c>
       <c r="F159" t="n">
-        <v>754955000000</v>
+        <v>754976000000</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -4436,16 +4436,16 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>762648000000</v>
+        <v>762560000000</v>
       </c>
       <c r="D160" t="n">
-        <v>762648000000</v>
+        <v>762560000000</v>
       </c>
       <c r="E160" t="n">
-        <v>762648000000</v>
+        <v>762560000000</v>
       </c>
       <c r="F160" t="n">
-        <v>762648000000</v>
+        <v>762560000000</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>765260000000</v>
+        <v>765278000000</v>
       </c>
       <c r="D161" t="n">
-        <v>765260000000</v>
+        <v>765278000000</v>
       </c>
       <c r="E161" t="n">
-        <v>765260000000</v>
+        <v>765278000000</v>
       </c>
       <c r="F161" t="n">
-        <v>765260000000</v>
+        <v>765278000000</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -4486,16 +4486,16 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>775440000000</v>
+        <v>775478000000</v>
       </c>
       <c r="D162" t="n">
-        <v>775440000000</v>
+        <v>775478000000</v>
       </c>
       <c r="E162" t="n">
-        <v>775440000000</v>
+        <v>775478000000</v>
       </c>
       <c r="F162" t="n">
-        <v>775440000000</v>
+        <v>775478000000</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -4511,16 +4511,16 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>786485000000</v>
+        <v>786464000000</v>
       </c>
       <c r="D163" t="n">
-        <v>786485000000</v>
+        <v>786464000000</v>
       </c>
       <c r="E163" t="n">
-        <v>786485000000</v>
+        <v>786464000000</v>
       </c>
       <c r="F163" t="n">
-        <v>786485000000</v>
+        <v>786464000000</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -4536,16 +4536,16 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>792246000000</v>
+        <v>792285000000</v>
       </c>
       <c r="D164" t="n">
-        <v>792246000000</v>
+        <v>792285000000</v>
       </c>
       <c r="E164" t="n">
-        <v>792246000000</v>
+        <v>792285000000</v>
       </c>
       <c r="F164" t="n">
-        <v>792246000000</v>
+        <v>792285000000</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -4561,16 +4561,16 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>793545000000</v>
+        <v>793560000000</v>
       </c>
       <c r="D165" t="n">
-        <v>793545000000</v>
+        <v>793560000000</v>
       </c>
       <c r="E165" t="n">
-        <v>793545000000</v>
+        <v>793560000000</v>
       </c>
       <c r="F165" t="n">
-        <v>793545000000</v>
+        <v>793560000000</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -4586,16 +4586,16 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>801161000000</v>
+        <v>801124000000</v>
       </c>
       <c r="D166" t="n">
-        <v>801161000000</v>
+        <v>801124000000</v>
       </c>
       <c r="E166" t="n">
-        <v>801161000000</v>
+        <v>801124000000</v>
       </c>
       <c r="F166" t="n">
-        <v>801161000000</v>
+        <v>801124000000</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4611,16 +4611,16 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>804824000000</v>
+        <v>804801000000</v>
       </c>
       <c r="D167" t="n">
-        <v>804824000000</v>
+        <v>804801000000</v>
       </c>
       <c r="E167" t="n">
-        <v>804824000000</v>
+        <v>804801000000</v>
       </c>
       <c r="F167" t="n">
-        <v>804824000000</v>
+        <v>804801000000</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -4636,16 +4636,16 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>812493000000</v>
+        <v>812457000000</v>
       </c>
       <c r="D168" t="n">
-        <v>812493000000</v>
+        <v>812457000000</v>
       </c>
       <c r="E168" t="n">
-        <v>812493000000</v>
+        <v>812457000000</v>
       </c>
       <c r="F168" t="n">
-        <v>812493000000</v>
+        <v>812457000000</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
@@ -4661,16 +4661,16 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>816921000000</v>
+        <v>816938000000</v>
       </c>
       <c r="D169" t="n">
-        <v>816921000000</v>
+        <v>816938000000</v>
       </c>
       <c r="E169" t="n">
-        <v>816921000000</v>
+        <v>816938000000</v>
       </c>
       <c r="F169" t="n">
-        <v>816921000000</v>
+        <v>816938000000</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -4686,16 +4686,16 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>825869000000</v>
+        <v>825923000000</v>
       </c>
       <c r="D170" t="n">
-        <v>825869000000</v>
+        <v>825923000000</v>
       </c>
       <c r="E170" t="n">
-        <v>825869000000</v>
+        <v>825923000000</v>
       </c>
       <c r="F170" t="n">
-        <v>825869000000</v>
+        <v>825923000000</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -4711,16 +4711,16 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>834842000000</v>
+        <v>834764000000</v>
       </c>
       <c r="D171" t="n">
-        <v>834842000000</v>
+        <v>834764000000</v>
       </c>
       <c r="E171" t="n">
-        <v>834842000000</v>
+        <v>834764000000</v>
       </c>
       <c r="F171" t="n">
-        <v>834842000000</v>
+        <v>834764000000</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -4736,16 +4736,16 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>833897000000</v>
+        <v>833802000000</v>
       </c>
       <c r="D172" t="n">
-        <v>833897000000</v>
+        <v>833802000000</v>
       </c>
       <c r="E172" t="n">
-        <v>833897000000</v>
+        <v>833802000000</v>
       </c>
       <c r="F172" t="n">
-        <v>833897000000</v>
+        <v>833802000000</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -4761,16 +4761,16 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>848383000000</v>
+        <v>848447000000</v>
       </c>
       <c r="D173" t="n">
-        <v>848383000000</v>
+        <v>848447000000</v>
       </c>
       <c r="E173" t="n">
-        <v>848383000000</v>
+        <v>848447000000</v>
       </c>
       <c r="F173" t="n">
-        <v>848383000000</v>
+        <v>848447000000</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -4786,16 +4786,16 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>849541000000</v>
+        <v>849640000000</v>
       </c>
       <c r="D174" t="n">
-        <v>849541000000</v>
+        <v>849640000000</v>
       </c>
       <c r="E174" t="n">
-        <v>849541000000</v>
+        <v>849640000000</v>
       </c>
       <c r="F174" t="n">
-        <v>849541000000</v>
+        <v>849640000000</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -4811,16 +4811,16 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>850868000000</v>
+        <v>850900000000</v>
       </c>
       <c r="D175" t="n">
-        <v>850868000000</v>
+        <v>850900000000</v>
       </c>
       <c r="E175" t="n">
-        <v>850868000000</v>
+        <v>850900000000</v>
       </c>
       <c r="F175" t="n">
-        <v>850868000000</v>
+        <v>850900000000</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>852866000000</v>
+        <v>852964000000</v>
       </c>
       <c r="D176" t="n">
-        <v>852866000000</v>
+        <v>852964000000</v>
       </c>
       <c r="E176" t="n">
-        <v>852866000000</v>
+        <v>852964000000</v>
       </c>
       <c r="F176" t="n">
-        <v>852866000000</v>
+        <v>852964000000</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -4861,16 +4861,16 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>865203000000</v>
+        <v>865098000000</v>
       </c>
       <c r="D177" t="n">
-        <v>865203000000</v>
+        <v>865098000000</v>
       </c>
       <c r="E177" t="n">
-        <v>865203000000</v>
+        <v>865098000000</v>
       </c>
       <c r="F177" t="n">
-        <v>865203000000</v>
+        <v>865098000000</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -4886,16 +4886,16 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>867454000000</v>
+        <v>867380000000</v>
       </c>
       <c r="D178" t="n">
-        <v>867454000000</v>
+        <v>867380000000</v>
       </c>
       <c r="E178" t="n">
-        <v>867454000000</v>
+        <v>867380000000</v>
       </c>
       <c r="F178" t="n">
-        <v>867454000000</v>
+        <v>867380000000</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
@@ -4911,16 +4911,16 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>879987000000</v>
+        <v>879928000000</v>
       </c>
       <c r="D179" t="n">
-        <v>879987000000</v>
+        <v>879928000000</v>
       </c>
       <c r="E179" t="n">
-        <v>879987000000</v>
+        <v>879928000000</v>
       </c>
       <c r="F179" t="n">
-        <v>879987000000</v>
+        <v>879928000000</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>886072000000</v>
+        <v>886058000000</v>
       </c>
       <c r="D180" t="n">
-        <v>886072000000</v>
+        <v>886058000000</v>
       </c>
       <c r="E180" t="n">
-        <v>886072000000</v>
+        <v>886058000000</v>
       </c>
       <c r="F180" t="n">
-        <v>886072000000</v>
+        <v>886058000000</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -4961,16 +4961,16 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>887278000000</v>
+        <v>887299000000</v>
       </c>
       <c r="D181" t="n">
-        <v>887278000000</v>
+        <v>887299000000</v>
       </c>
       <c r="E181" t="n">
-        <v>887278000000</v>
+        <v>887299000000</v>
       </c>
       <c r="F181" t="n">
-        <v>887278000000</v>
+        <v>887299000000</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -4986,16 +4986,16 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>891991000000</v>
+        <v>892092000000</v>
       </c>
       <c r="D182" t="n">
-        <v>891991000000</v>
+        <v>892092000000</v>
       </c>
       <c r="E182" t="n">
-        <v>891991000000</v>
+        <v>892092000000</v>
       </c>
       <c r="F182" t="n">
-        <v>891991000000</v>
+        <v>892092000000</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -5011,16 +5011,16 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>885687000000</v>
+        <v>885660000000</v>
       </c>
       <c r="D183" t="n">
-        <v>885687000000</v>
+        <v>885660000000</v>
       </c>
       <c r="E183" t="n">
-        <v>885687000000</v>
+        <v>885660000000</v>
       </c>
       <c r="F183" t="n">
-        <v>885687000000</v>
+        <v>885660000000</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -5036,16 +5036,16 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>887743000000</v>
+        <v>887715000000</v>
       </c>
       <c r="D184" t="n">
-        <v>887743000000</v>
+        <v>887715000000</v>
       </c>
       <c r="E184" t="n">
-        <v>887743000000</v>
+        <v>887715000000</v>
       </c>
       <c r="F184" t="n">
-        <v>887743000000</v>
+        <v>887715000000</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -5061,16 +5061,16 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>892226000000</v>
+        <v>892250000000</v>
       </c>
       <c r="D185" t="n">
-        <v>892226000000</v>
+        <v>892250000000</v>
       </c>
       <c r="E185" t="n">
-        <v>892226000000</v>
+        <v>892250000000</v>
       </c>
       <c r="F185" t="n">
-        <v>892226000000</v>
+        <v>892250000000</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -5086,16 +5086,16 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>894471000000</v>
+        <v>894430000000</v>
       </c>
       <c r="D186" t="n">
-        <v>894471000000</v>
+        <v>894430000000</v>
       </c>
       <c r="E186" t="n">
-        <v>894471000000</v>
+        <v>894430000000</v>
       </c>
       <c r="F186" t="n">
-        <v>894471000000</v>
+        <v>894430000000</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
@@ -5111,16 +5111,16 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>899930000000</v>
+        <v>899945000000</v>
       </c>
       <c r="D187" t="n">
-        <v>899930000000</v>
+        <v>899945000000</v>
       </c>
       <c r="E187" t="n">
-        <v>899930000000</v>
+        <v>899945000000</v>
       </c>
       <c r="F187" t="n">
-        <v>899930000000</v>
+        <v>899945000000</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>903027000000</v>
+        <v>903077000000</v>
       </c>
       <c r="D188" t="n">
-        <v>903027000000</v>
+        <v>903077000000</v>
       </c>
       <c r="E188" t="n">
-        <v>903027000000</v>
+        <v>903077000000</v>
       </c>
       <c r="F188" t="n">
-        <v>903027000000</v>
+        <v>903077000000</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
@@ -5161,16 +5161,16 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>909293000000</v>
+        <v>909219000000</v>
       </c>
       <c r="D189" t="n">
-        <v>909293000000</v>
+        <v>909219000000</v>
       </c>
       <c r="E189" t="n">
-        <v>909293000000</v>
+        <v>909219000000</v>
       </c>
       <c r="F189" t="n">
-        <v>909293000000</v>
+        <v>909219000000</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
@@ -5186,16 +5186,16 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>917621000000</v>
+        <v>917594000000</v>
       </c>
       <c r="D190" t="n">
-        <v>917621000000</v>
+        <v>917594000000</v>
       </c>
       <c r="E190" t="n">
-        <v>917621000000</v>
+        <v>917594000000</v>
       </c>
       <c r="F190" t="n">
-        <v>917621000000</v>
+        <v>917594000000</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
@@ -5211,16 +5211,16 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>917388000000</v>
+        <v>917418000000</v>
       </c>
       <c r="D191" t="n">
-        <v>917388000000</v>
+        <v>917418000000</v>
       </c>
       <c r="E191" t="n">
-        <v>917388000000</v>
+        <v>917418000000</v>
       </c>
       <c r="F191" t="n">
-        <v>917388000000</v>
+        <v>917418000000</v>
       </c>
       <c r="G191" t="n">
         <v>0</v>
@@ -5236,16 +5236,16 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>927082000000</v>
+        <v>927127000000</v>
       </c>
       <c r="D192" t="n">
-        <v>927082000000</v>
+        <v>927127000000</v>
       </c>
       <c r="E192" t="n">
-        <v>927082000000</v>
+        <v>927127000000</v>
       </c>
       <c r="F192" t="n">
-        <v>927082000000</v>
+        <v>927127000000</v>
       </c>
       <c r="G192" t="n">
         <v>0</v>
@@ -5261,16 +5261,16 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>930517000000</v>
+        <v>930599000000</v>
       </c>
       <c r="D193" t="n">
-        <v>930517000000</v>
+        <v>930599000000</v>
       </c>
       <c r="E193" t="n">
-        <v>930517000000</v>
+        <v>930599000000</v>
       </c>
       <c r="F193" t="n">
-        <v>930517000000</v>
+        <v>930599000000</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -5286,16 +5286,16 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>932657000000</v>
+        <v>932613000000</v>
       </c>
       <c r="D194" t="n">
-        <v>932657000000</v>
+        <v>932613000000</v>
       </c>
       <c r="E194" t="n">
-        <v>932657000000</v>
+        <v>932613000000</v>
       </c>
       <c r="F194" t="n">
-        <v>932657000000</v>
+        <v>932613000000</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
@@ -5311,16 +5311,16 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>932003000000</v>
+        <v>931975000000</v>
       </c>
       <c r="D195" t="n">
-        <v>932003000000</v>
+        <v>931975000000</v>
       </c>
       <c r="E195" t="n">
-        <v>932003000000</v>
+        <v>931975000000</v>
       </c>
       <c r="F195" t="n">
-        <v>932003000000</v>
+        <v>931975000000</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
@@ -5336,16 +5336,16 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>943614000000</v>
+        <v>943601000000</v>
       </c>
       <c r="D196" t="n">
-        <v>943614000000</v>
+        <v>943601000000</v>
       </c>
       <c r="E196" t="n">
-        <v>943614000000</v>
+        <v>943601000000</v>
       </c>
       <c r="F196" t="n">
-        <v>943614000000</v>
+        <v>943601000000</v>
       </c>
       <c r="G196" t="n">
         <v>0</v>
@@ -5361,16 +5361,16 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>940236000000</v>
+        <v>940321000000</v>
       </c>
       <c r="D197" t="n">
-        <v>940236000000</v>
+        <v>940321000000</v>
       </c>
       <c r="E197" t="n">
-        <v>940236000000</v>
+        <v>940321000000</v>
       </c>
       <c r="F197" t="n">
-        <v>940236000000</v>
+        <v>940321000000</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -5386,16 +5386,16 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>947408000000</v>
+        <v>947364000000</v>
       </c>
       <c r="D198" t="n">
-        <v>947408000000</v>
+        <v>947364000000</v>
       </c>
       <c r="E198" t="n">
-        <v>947408000000</v>
+        <v>947364000000</v>
       </c>
       <c r="F198" t="n">
-        <v>947408000000</v>
+        <v>947364000000</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
@@ -5411,16 +5411,16 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>950798000000</v>
+        <v>950862000000</v>
       </c>
       <c r="D199" t="n">
-        <v>950798000000</v>
+        <v>950862000000</v>
       </c>
       <c r="E199" t="n">
-        <v>950798000000</v>
+        <v>950862000000</v>
       </c>
       <c r="F199" t="n">
-        <v>950798000000</v>
+        <v>950862000000</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
@@ -5436,16 +5436,16 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>958714000000</v>
+        <v>958829000000</v>
       </c>
       <c r="D200" t="n">
-        <v>958714000000</v>
+        <v>958829000000</v>
       </c>
       <c r="E200" t="n">
-        <v>958714000000</v>
+        <v>958829000000</v>
       </c>
       <c r="F200" t="n">
-        <v>958714000000</v>
+        <v>958829000000</v>
       </c>
       <c r="G200" t="n">
         <v>0</v>
@@ -5461,16 +5461,16 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>963666000000</v>
+        <v>963655000000</v>
       </c>
       <c r="D201" t="n">
-        <v>963666000000</v>
+        <v>963655000000</v>
       </c>
       <c r="E201" t="n">
-        <v>963666000000</v>
+        <v>963655000000</v>
       </c>
       <c r="F201" t="n">
-        <v>963666000000</v>
+        <v>963655000000</v>
       </c>
       <c r="G201" t="n">
         <v>0</v>
@@ -5486,16 +5486,16 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>968885000000</v>
+        <v>968813000000</v>
       </c>
       <c r="D202" t="n">
-        <v>968885000000</v>
+        <v>968813000000</v>
       </c>
       <c r="E202" t="n">
-        <v>968885000000</v>
+        <v>968813000000</v>
       </c>
       <c r="F202" t="n">
-        <v>968885000000</v>
+        <v>968813000000</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
@@ -5511,16 +5511,16 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>971903000000</v>
+        <v>971827000000</v>
       </c>
       <c r="D203" t="n">
-        <v>971903000000</v>
+        <v>971827000000</v>
       </c>
       <c r="E203" t="n">
-        <v>971903000000</v>
+        <v>971827000000</v>
       </c>
       <c r="F203" t="n">
-        <v>971903000000</v>
+        <v>971827000000</v>
       </c>
       <c r="G203" t="n">
         <v>0</v>
@@ -5536,16 +5536,16 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>978266000000</v>
+        <v>978301000000</v>
       </c>
       <c r="D204" t="n">
-        <v>978266000000</v>
+        <v>978301000000</v>
       </c>
       <c r="E204" t="n">
-        <v>978266000000</v>
+        <v>978301000000</v>
       </c>
       <c r="F204" t="n">
-        <v>978266000000</v>
+        <v>978301000000</v>
       </c>
       <c r="G204" t="n">
         <v>0</v>
@@ -5561,16 +5561,16 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>988316000000</v>
+        <v>988357000000</v>
       </c>
       <c r="D205" t="n">
-        <v>988316000000</v>
+        <v>988357000000</v>
       </c>
       <c r="E205" t="n">
-        <v>988316000000</v>
+        <v>988357000000</v>
       </c>
       <c r="F205" t="n">
-        <v>988316000000</v>
+        <v>988357000000</v>
       </c>
       <c r="G205" t="n">
         <v>0</v>
@@ -5586,16 +5586,16 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>997912000000</v>
+        <v>997851000000</v>
       </c>
       <c r="D206" t="n">
-        <v>997912000000</v>
+        <v>997851000000</v>
       </c>
       <c r="E206" t="n">
-        <v>997912000000</v>
+        <v>997851000000</v>
       </c>
       <c r="F206" t="n">
-        <v>997912000000</v>
+        <v>997851000000</v>
       </c>
       <c r="G206" t="n">
         <v>0</v>
@@ -5611,16 +5611,16 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1006962000000</v>
+        <v>1006978000000</v>
       </c>
       <c r="D207" t="n">
-        <v>1006962000000</v>
+        <v>1006978000000</v>
       </c>
       <c r="E207" t="n">
-        <v>1006962000000</v>
+        <v>1006978000000</v>
       </c>
       <c r="F207" t="n">
-        <v>1006962000000</v>
+        <v>1006978000000</v>
       </c>
       <c r="G207" t="n">
         <v>0</v>
@@ -5636,16 +5636,16 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1014061000000</v>
+        <v>1014085000000</v>
       </c>
       <c r="D208" t="n">
-        <v>1014061000000</v>
+        <v>1014085000000</v>
       </c>
       <c r="E208" t="n">
-        <v>1014061000000</v>
+        <v>1014085000000</v>
       </c>
       <c r="F208" t="n">
-        <v>1014061000000</v>
+        <v>1014085000000</v>
       </c>
       <c r="G208" t="n">
         <v>0</v>
@@ -5661,16 +5661,16 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1019915000000</v>
+        <v>1019859000000</v>
       </c>
       <c r="D209" t="n">
-        <v>1019915000000</v>
+        <v>1019859000000</v>
       </c>
       <c r="E209" t="n">
-        <v>1019915000000</v>
+        <v>1019859000000</v>
       </c>
       <c r="F209" t="n">
-        <v>1019915000000</v>
+        <v>1019859000000</v>
       </c>
       <c r="G209" t="n">
         <v>0</v>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -5686,16 +5686,16 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1029056000000</v>
+        <v>1029044000000</v>
       </c>
       <c r="D210" t="n">
-        <v>1029056000000</v>
+        <v>1029044000000</v>
       </c>
       <c r="E210" t="n">
-        <v>1029056000000</v>
+        <v>1029044000000</v>
       </c>
       <c r="F210" t="n">
-        <v>1029056000000</v>
+        <v>1029044000000</v>
       </c>
       <c r="G210" t="n">
         <v>0</v>
@@ -5711,16 +5711,16 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1032555000000</v>
+        <v>1032543000000</v>
       </c>
       <c r="D211" t="n">
-        <v>1032555000000</v>
+        <v>1032543000000</v>
       </c>
       <c r="E211" t="n">
-        <v>1032555000000</v>
+        <v>1032543000000</v>
       </c>
       <c r="F211" t="n">
-        <v>1032555000000</v>
+        <v>1032543000000</v>
       </c>
       <c r="G211" t="n">
         <v>0</v>
@@ -5736,16 +5736,16 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1047560000000</v>
+        <v>1047513000000</v>
       </c>
       <c r="D212" t="n">
-        <v>1047560000000</v>
+        <v>1047513000000</v>
       </c>
       <c r="E212" t="n">
-        <v>1047560000000</v>
+        <v>1047513000000</v>
       </c>
       <c r="F212" t="n">
-        <v>1047560000000</v>
+        <v>1047513000000</v>
       </c>
       <c r="G212" t="n">
         <v>0</v>
@@ -5761,16 +5761,16 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1052762000000</v>
+        <v>1052837000000</v>
       </c>
       <c r="D213" t="n">
-        <v>1052762000000</v>
+        <v>1052837000000</v>
       </c>
       <c r="E213" t="n">
-        <v>1052762000000</v>
+        <v>1052837000000</v>
       </c>
       <c r="F213" t="n">
-        <v>1052762000000</v>
+        <v>1052837000000</v>
       </c>
       <c r="G213" t="n">
         <v>0</v>
@@ -5786,16 +5786,16 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1065228000000</v>
+        <v>1065074000000</v>
       </c>
       <c r="D214" t="n">
-        <v>1065228000000</v>
+        <v>1065074000000</v>
       </c>
       <c r="E214" t="n">
-        <v>1065228000000</v>
+        <v>1065074000000</v>
       </c>
       <c r="F214" t="n">
-        <v>1065228000000</v>
+        <v>1065074000000</v>
       </c>
       <c r="G214" t="n">
         <v>0</v>
@@ -5811,16 +5811,16 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1073281000000</v>
+        <v>1073345000000</v>
       </c>
       <c r="D215" t="n">
-        <v>1073281000000</v>
+        <v>1073345000000</v>
       </c>
       <c r="E215" t="n">
-        <v>1073281000000</v>
+        <v>1073345000000</v>
       </c>
       <c r="F215" t="n">
-        <v>1073281000000</v>
+        <v>1073345000000</v>
       </c>
       <c r="G215" t="n">
         <v>0</v>
@@ -5836,16 +5836,16 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1081801000000</v>
+        <v>1081834000000</v>
       </c>
       <c r="D216" t="n">
-        <v>1081801000000</v>
+        <v>1081834000000</v>
       </c>
       <c r="E216" t="n">
-        <v>1081801000000</v>
+        <v>1081834000000</v>
       </c>
       <c r="F216" t="n">
-        <v>1081801000000</v>
+        <v>1081834000000</v>
       </c>
       <c r="G216" t="n">
         <v>0</v>
@@ -5861,16 +5861,16 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>1093138000000</v>
+        <v>1093089000000</v>
       </c>
       <c r="D217" t="n">
-        <v>1093138000000</v>
+        <v>1093089000000</v>
       </c>
       <c r="E217" t="n">
-        <v>1093138000000</v>
+        <v>1093089000000</v>
       </c>
       <c r="F217" t="n">
-        <v>1093138000000</v>
+        <v>1093089000000</v>
       </c>
       <c r="G217" t="n">
         <v>0</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1097978000000</v>
+        <v>1097970000000</v>
       </c>
       <c r="D218" t="n">
-        <v>1097978000000</v>
+        <v>1097970000000</v>
       </c>
       <c r="E218" t="n">
-        <v>1097978000000</v>
+        <v>1097970000000</v>
       </c>
       <c r="F218" t="n">
-        <v>1097978000000</v>
+        <v>1097970000000</v>
       </c>
       <c r="G218" t="n">
         <v>0</v>
@@ -5911,16 +5911,16 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1109892000000</v>
+        <v>1109901000000</v>
       </c>
       <c r="D219" t="n">
-        <v>1109892000000</v>
+        <v>1109901000000</v>
       </c>
       <c r="E219" t="n">
-        <v>1109892000000</v>
+        <v>1109901000000</v>
       </c>
       <c r="F219" t="n">
-        <v>1109892000000</v>
+        <v>1109901000000</v>
       </c>
       <c r="G219" t="n">
         <v>0</v>
@@ -5936,16 +5936,16 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1114148000000</v>
+        <v>1114245000000</v>
       </c>
       <c r="D220" t="n">
-        <v>1114148000000</v>
+        <v>1114245000000</v>
       </c>
       <c r="E220" t="n">
-        <v>1114148000000</v>
+        <v>1114245000000</v>
       </c>
       <c r="F220" t="n">
-        <v>1114148000000</v>
+        <v>1114245000000</v>
       </c>
       <c r="G220" t="n">
         <v>0</v>
@@ -5961,16 +5961,16 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1126646000000</v>
+        <v>1126640000000</v>
       </c>
       <c r="D221" t="n">
-        <v>1126646000000</v>
+        <v>1126640000000</v>
       </c>
       <c r="E221" t="n">
-        <v>1126646000000</v>
+        <v>1126640000000</v>
       </c>
       <c r="F221" t="n">
-        <v>1126646000000</v>
+        <v>1126640000000</v>
       </c>
       <c r="G221" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -5986,16 +5986,16 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1140929000000</v>
+        <v>1140999000000</v>
       </c>
       <c r="D222" t="n">
-        <v>1140929000000</v>
+        <v>1140999000000</v>
       </c>
       <c r="E222" t="n">
-        <v>1140929000000</v>
+        <v>1140999000000</v>
       </c>
       <c r="F222" t="n">
-        <v>1140929000000</v>
+        <v>1140999000000</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
@@ -6011,16 +6011,16 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>1156762000000</v>
+        <v>1156686000000</v>
       </c>
       <c r="D223" t="n">
-        <v>1156762000000</v>
+        <v>1156686000000</v>
       </c>
       <c r="E223" t="n">
-        <v>1156762000000</v>
+        <v>1156686000000</v>
       </c>
       <c r="F223" t="n">
-        <v>1156762000000</v>
+        <v>1156686000000</v>
       </c>
       <c r="G223" t="n">
         <v>0</v>
@@ -6036,16 +6036,16 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>1163969000000</v>
+        <v>1163944000000</v>
       </c>
       <c r="D224" t="n">
-        <v>1163969000000</v>
+        <v>1163944000000</v>
       </c>
       <c r="E224" t="n">
-        <v>1163969000000</v>
+        <v>1163944000000</v>
       </c>
       <c r="F224" t="n">
-        <v>1163969000000</v>
+        <v>1163944000000</v>
       </c>
       <c r="G224" t="n">
         <v>0</v>
@@ -6061,16 +6061,16 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1176847000000</v>
+        <v>1176813000000</v>
       </c>
       <c r="D225" t="n">
-        <v>1176847000000</v>
+        <v>1176813000000</v>
       </c>
       <c r="E225" t="n">
-        <v>1176847000000</v>
+        <v>1176813000000</v>
       </c>
       <c r="F225" t="n">
-        <v>1176847000000</v>
+        <v>1176813000000</v>
       </c>
       <c r="G225" t="n">
         <v>0</v>
@@ -6086,16 +6086,16 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>1173492000000</v>
+        <v>1173350000000</v>
       </c>
       <c r="D226" t="n">
-        <v>1173492000000</v>
+        <v>1173350000000</v>
       </c>
       <c r="E226" t="n">
-        <v>1173492000000</v>
+        <v>1173350000000</v>
       </c>
       <c r="F226" t="n">
-        <v>1173492000000</v>
+        <v>1173350000000</v>
       </c>
       <c r="G226" t="n">
         <v>0</v>
@@ -6111,16 +6111,16 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1192842000000</v>
+        <v>1192996000000</v>
       </c>
       <c r="D227" t="n">
-        <v>1192842000000</v>
+        <v>1192996000000</v>
       </c>
       <c r="E227" t="n">
-        <v>1192842000000</v>
+        <v>1192996000000</v>
       </c>
       <c r="F227" t="n">
-        <v>1192842000000</v>
+        <v>1192996000000</v>
       </c>
       <c r="G227" t="n">
         <v>0</v>
@@ -6136,16 +6136,16 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1202350000000</v>
+        <v>1202450000000</v>
       </c>
       <c r="D228" t="n">
-        <v>1202350000000</v>
+        <v>1202450000000</v>
       </c>
       <c r="E228" t="n">
-        <v>1202350000000</v>
+        <v>1202450000000</v>
       </c>
       <c r="F228" t="n">
-        <v>1202350000000</v>
+        <v>1202450000000</v>
       </c>
       <c r="G228" t="n">
         <v>0</v>
@@ -6161,16 +6161,16 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>1212784000000</v>
+        <v>1212721000000</v>
       </c>
       <c r="D229" t="n">
-        <v>1212784000000</v>
+        <v>1212721000000</v>
       </c>
       <c r="E229" t="n">
-        <v>1212784000000</v>
+        <v>1212721000000</v>
       </c>
       <c r="F229" t="n">
-        <v>1212784000000</v>
+        <v>1212721000000</v>
       </c>
       <c r="G229" t="n">
         <v>0</v>
@@ -6186,16 +6186,16 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>1226816000000</v>
+        <v>1226957000000</v>
       </c>
       <c r="D230" t="n">
-        <v>1226816000000</v>
+        <v>1226957000000</v>
       </c>
       <c r="E230" t="n">
-        <v>1226816000000</v>
+        <v>1226957000000</v>
       </c>
       <c r="F230" t="n">
-        <v>1226816000000</v>
+        <v>1226957000000</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
@@ -6211,16 +6211,16 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>1233249000000</v>
+        <v>1233048000000</v>
       </c>
       <c r="D231" t="n">
-        <v>1233249000000</v>
+        <v>1233048000000</v>
       </c>
       <c r="E231" t="n">
-        <v>1233249000000</v>
+        <v>1233048000000</v>
       </c>
       <c r="F231" t="n">
-        <v>1233249000000</v>
+        <v>1233048000000</v>
       </c>
       <c r="G231" t="n">
         <v>0</v>
@@ -6236,16 +6236,16 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1252399000000</v>
+        <v>1252304000000</v>
       </c>
       <c r="D232" t="n">
-        <v>1252399000000</v>
+        <v>1252304000000</v>
       </c>
       <c r="E232" t="n">
-        <v>1252399000000</v>
+        <v>1252304000000</v>
       </c>
       <c r="F232" t="n">
-        <v>1252399000000</v>
+        <v>1252304000000</v>
       </c>
       <c r="G232" t="n">
         <v>0</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1261556000000</v>
+        <v>1261536000000</v>
       </c>
       <c r="D233" t="n">
-        <v>1261556000000</v>
+        <v>1261536000000</v>
       </c>
       <c r="E233" t="n">
-        <v>1261556000000</v>
+        <v>1261536000000</v>
       </c>
       <c r="F233" t="n">
-        <v>1261556000000</v>
+        <v>1261536000000</v>
       </c>
       <c r="G233" t="n">
         <v>0</v>
@@ -6286,16 +6286,16 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1275592000000</v>
+        <v>1275554000000</v>
       </c>
       <c r="D234" t="n">
-        <v>1275592000000</v>
+        <v>1275554000000</v>
       </c>
       <c r="E234" t="n">
-        <v>1275592000000</v>
+        <v>1275554000000</v>
       </c>
       <c r="F234" t="n">
-        <v>1275592000000</v>
+        <v>1275554000000</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -6311,16 +6311,16 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1279453000000</v>
+        <v>1279377000000</v>
       </c>
       <c r="D235" t="n">
-        <v>1279453000000</v>
+        <v>1279377000000</v>
       </c>
       <c r="E235" t="n">
-        <v>1279453000000</v>
+        <v>1279377000000</v>
       </c>
       <c r="F235" t="n">
-        <v>1279453000000</v>
+        <v>1279377000000</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -6336,16 +6336,16 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1297935000000</v>
+        <v>1297903000000</v>
       </c>
       <c r="D236" t="n">
-        <v>1297935000000</v>
+        <v>1297903000000</v>
       </c>
       <c r="E236" t="n">
-        <v>1297935000000</v>
+        <v>1297903000000</v>
       </c>
       <c r="F236" t="n">
-        <v>1297935000000</v>
+        <v>1297903000000</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -6361,16 +6361,16 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1310653000000</v>
+        <v>1310728000000</v>
       </c>
       <c r="D237" t="n">
-        <v>1310653000000</v>
+        <v>1310728000000</v>
       </c>
       <c r="E237" t="n">
-        <v>1310653000000</v>
+        <v>1310728000000</v>
       </c>
       <c r="F237" t="n">
-        <v>1310653000000</v>
+        <v>1310728000000</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -6386,16 +6386,16 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1321994000000</v>
+        <v>1321901000000</v>
       </c>
       <c r="D238" t="n">
-        <v>1321994000000</v>
+        <v>1321901000000</v>
       </c>
       <c r="E238" t="n">
-        <v>1321994000000</v>
+        <v>1321901000000</v>
       </c>
       <c r="F238" t="n">
-        <v>1321994000000</v>
+        <v>1321901000000</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -6411,16 +6411,16 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>1340264000000</v>
+        <v>1340630000000</v>
       </c>
       <c r="D239" t="n">
-        <v>1340264000000</v>
+        <v>1340630000000</v>
       </c>
       <c r="E239" t="n">
-        <v>1340264000000</v>
+        <v>1340630000000</v>
       </c>
       <c r="F239" t="n">
-        <v>1340264000000</v>
+        <v>1340630000000</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -6436,16 +6436,16 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1362315000000</v>
+        <v>1362172000000</v>
       </c>
       <c r="D240" t="n">
-        <v>1362315000000</v>
+        <v>1362172000000</v>
       </c>
       <c r="E240" t="n">
-        <v>1362315000000</v>
+        <v>1362172000000</v>
       </c>
       <c r="F240" t="n">
-        <v>1362315000000</v>
+        <v>1362172000000</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -6461,16 +6461,16 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1373525000000</v>
+        <v>1373474000000</v>
       </c>
       <c r="D241" t="n">
-        <v>1373525000000</v>
+        <v>1373474000000</v>
       </c>
       <c r="E241" t="n">
-        <v>1373525000000</v>
+        <v>1373474000000</v>
       </c>
       <c r="F241" t="n">
-        <v>1373525000000</v>
+        <v>1373474000000</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
@@ -6486,16 +6486,16 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1399282000000</v>
+        <v>1399379000000</v>
       </c>
       <c r="D242" t="n">
-        <v>1399282000000</v>
+        <v>1399379000000</v>
       </c>
       <c r="E242" t="n">
-        <v>1399282000000</v>
+        <v>1399379000000</v>
       </c>
       <c r="F242" t="n">
-        <v>1399282000000</v>
+        <v>1399379000000</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
@@ -6511,16 +6511,16 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1400913000000</v>
+        <v>1400702000000</v>
       </c>
       <c r="D243" t="n">
-        <v>1400913000000</v>
+        <v>1400702000000</v>
       </c>
       <c r="E243" t="n">
-        <v>1400913000000</v>
+        <v>1400702000000</v>
       </c>
       <c r="F243" t="n">
-        <v>1400913000000</v>
+        <v>1400702000000</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -6536,16 +6536,16 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>1419922000000</v>
+        <v>1419772000000</v>
       </c>
       <c r="D244" t="n">
-        <v>1419922000000</v>
+        <v>1419772000000</v>
       </c>
       <c r="E244" t="n">
-        <v>1419922000000</v>
+        <v>1419772000000</v>
       </c>
       <c r="F244" t="n">
-        <v>1419922000000</v>
+        <v>1419772000000</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -6561,16 +6561,16 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1441473000000</v>
+        <v>1441541000000</v>
       </c>
       <c r="D245" t="n">
-        <v>1441473000000</v>
+        <v>1441541000000</v>
       </c>
       <c r="E245" t="n">
-        <v>1441473000000</v>
+        <v>1441541000000</v>
       </c>
       <c r="F245" t="n">
-        <v>1441473000000</v>
+        <v>1441541000000</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -6586,16 +6586,16 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1458867000000</v>
+        <v>1458997000000</v>
       </c>
       <c r="D246" t="n">
-        <v>1458867000000</v>
+        <v>1458997000000</v>
       </c>
       <c r="E246" t="n">
-        <v>1458867000000</v>
+        <v>1458997000000</v>
       </c>
       <c r="F246" t="n">
-        <v>1458867000000</v>
+        <v>1458997000000</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
@@ -6611,16 +6611,16 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1480553000000</v>
+        <v>1480565000000</v>
       </c>
       <c r="D247" t="n">
-        <v>1480553000000</v>
+        <v>1480565000000</v>
       </c>
       <c r="E247" t="n">
-        <v>1480553000000</v>
+        <v>1480565000000</v>
       </c>
       <c r="F247" t="n">
-        <v>1480553000000</v>
+        <v>1480565000000</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -6636,16 +6636,16 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1498230000000</v>
+        <v>1498321000000</v>
       </c>
       <c r="D248" t="n">
-        <v>1498230000000</v>
+        <v>1498321000000</v>
       </c>
       <c r="E248" t="n">
-        <v>1498230000000</v>
+        <v>1498321000000</v>
       </c>
       <c r="F248" t="n">
-        <v>1498230000000</v>
+        <v>1498321000000</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
@@ -6661,16 +6661,16 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>1513047000000</v>
+        <v>1512968000000</v>
       </c>
       <c r="D249" t="n">
-        <v>1513047000000</v>
+        <v>1512968000000</v>
       </c>
       <c r="E249" t="n">
-        <v>1513047000000</v>
+        <v>1512968000000</v>
       </c>
       <c r="F249" t="n">
-        <v>1513047000000</v>
+        <v>1512968000000</v>
       </c>
       <c r="G249" t="n">
         <v>0</v>
@@ -6686,16 +6686,16 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>1538917000000</v>
+        <v>1538846000000</v>
       </c>
       <c r="D250" t="n">
-        <v>1538917000000</v>
+        <v>1538846000000</v>
       </c>
       <c r="E250" t="n">
-        <v>1538917000000</v>
+        <v>1538846000000</v>
       </c>
       <c r="F250" t="n">
-        <v>1538917000000</v>
+        <v>1538846000000</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
@@ -6711,16 +6711,16 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>1538463000000</v>
+        <v>1538697000000</v>
       </c>
       <c r="D251" t="n">
-        <v>1538463000000</v>
+        <v>1538697000000</v>
       </c>
       <c r="E251" t="n">
-        <v>1538463000000</v>
+        <v>1538697000000</v>
       </c>
       <c r="F251" t="n">
-        <v>1538463000000</v>
+        <v>1538697000000</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -6736,16 +6736,16 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1529564000000</v>
+        <v>1529352000000</v>
       </c>
       <c r="D252" t="n">
-        <v>1529564000000</v>
+        <v>1529352000000</v>
       </c>
       <c r="E252" t="n">
-        <v>1529564000000</v>
+        <v>1529352000000</v>
       </c>
       <c r="F252" t="n">
-        <v>1529564000000</v>
+        <v>1529352000000</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
@@ -6761,16 +6761,16 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>1539804000000</v>
+        <v>1539713000000</v>
       </c>
       <c r="D253" t="n">
-        <v>1539804000000</v>
+        <v>1539713000000</v>
       </c>
       <c r="E253" t="n">
-        <v>1539804000000</v>
+        <v>1539713000000</v>
       </c>
       <c r="F253" t="n">
-        <v>1539804000000</v>
+        <v>1539713000000</v>
       </c>
       <c r="G253" t="n">
         <v>0</v>
@@ -6786,16 +6786,16 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1552599000000</v>
+        <v>1552882000000</v>
       </c>
       <c r="D254" t="n">
-        <v>1552599000000</v>
+        <v>1552882000000</v>
       </c>
       <c r="E254" t="n">
-        <v>1552599000000</v>
+        <v>1552882000000</v>
       </c>
       <c r="F254" t="n">
-        <v>1552599000000</v>
+        <v>1552882000000</v>
       </c>
       <c r="G254" t="n">
         <v>0</v>
@@ -6811,16 +6811,16 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1614854000000</v>
+        <v>1614640000000</v>
       </c>
       <c r="D255" t="n">
-        <v>1614854000000</v>
+        <v>1614640000000</v>
       </c>
       <c r="E255" t="n">
-        <v>1614854000000</v>
+        <v>1614640000000</v>
       </c>
       <c r="F255" t="n">
-        <v>1614854000000</v>
+        <v>1614640000000</v>
       </c>
       <c r="G255" t="n">
         <v>0</v>
@@ -6836,16 +6836,16 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1619530000000</v>
+        <v>1619403000000</v>
       </c>
       <c r="D256" t="n">
-        <v>1619530000000</v>
+        <v>1619403000000</v>
       </c>
       <c r="E256" t="n">
-        <v>1619530000000</v>
+        <v>1619403000000</v>
       </c>
       <c r="F256" t="n">
-        <v>1619530000000</v>
+        <v>1619403000000</v>
       </c>
       <c r="G256" t="n">
         <v>0</v>
@@ -6861,16 +6861,16 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1642340000000</v>
+        <v>1642425000000</v>
       </c>
       <c r="D257" t="n">
-        <v>1642340000000</v>
+        <v>1642425000000</v>
       </c>
       <c r="E257" t="n">
-        <v>1642340000000</v>
+        <v>1642425000000</v>
       </c>
       <c r="F257" t="n">
-        <v>1642340000000</v>
+        <v>1642425000000</v>
       </c>
       <c r="G257" t="n">
         <v>0</v>
@@ -6886,16 +6886,16 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>1653922000000</v>
+        <v>1653904000000</v>
       </c>
       <c r="D258" t="n">
-        <v>1653922000000</v>
+        <v>1653904000000</v>
       </c>
       <c r="E258" t="n">
-        <v>1653922000000</v>
+        <v>1653904000000</v>
       </c>
       <c r="F258" t="n">
-        <v>1653922000000</v>
+        <v>1653904000000</v>
       </c>
       <c r="G258" t="n">
         <v>0</v>
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1659104000000</v>
+        <v>1659319000000</v>
       </c>
       <c r="D259" t="n">
-        <v>1659104000000</v>
+        <v>1659319000000</v>
       </c>
       <c r="E259" t="n">
-        <v>1659104000000</v>
+        <v>1659319000000</v>
       </c>
       <c r="F259" t="n">
-        <v>1659104000000</v>
+        <v>1659319000000</v>
       </c>
       <c r="G259" t="n">
         <v>0</v>
@@ -6936,16 +6936,16 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>1670886000000</v>
+        <v>1671092000000</v>
       </c>
       <c r="D260" t="n">
-        <v>1670886000000</v>
+        <v>1671092000000</v>
       </c>
       <c r="E260" t="n">
-        <v>1670886000000</v>
+        <v>1671092000000</v>
       </c>
       <c r="F260" t="n">
-        <v>1670886000000</v>
+        <v>1671092000000</v>
       </c>
       <c r="G260" t="n">
         <v>0</v>
@@ -6961,16 +6961,16 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>1673872000000</v>
+        <v>1673932000000</v>
       </c>
       <c r="D261" t="n">
-        <v>1673872000000</v>
+        <v>1673932000000</v>
       </c>
       <c r="E261" t="n">
-        <v>1673872000000</v>
+        <v>1673932000000</v>
       </c>
       <c r="F261" t="n">
-        <v>1673872000000</v>
+        <v>1673932000000</v>
       </c>
       <c r="G261" t="n">
         <v>0</v>
@@ -6986,16 +6986,16 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>1680692000000</v>
+        <v>1680693000000</v>
       </c>
       <c r="D262" t="n">
-        <v>1680692000000</v>
+        <v>1680693000000</v>
       </c>
       <c r="E262" t="n">
-        <v>1680692000000</v>
+        <v>1680693000000</v>
       </c>
       <c r="F262" t="n">
-        <v>1680692000000</v>
+        <v>1680693000000</v>
       </c>
       <c r="G262" t="n">
         <v>0</v>
@@ -7011,16 +7011,16 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1687905000000</v>
+        <v>1687890000000</v>
       </c>
       <c r="D263" t="n">
-        <v>1687905000000</v>
+        <v>1687890000000</v>
       </c>
       <c r="E263" t="n">
-        <v>1687905000000</v>
+        <v>1687890000000</v>
       </c>
       <c r="F263" t="n">
-        <v>1687905000000</v>
+        <v>1687890000000</v>
       </c>
       <c r="G263" t="n">
         <v>0</v>
@@ -7036,16 +7036,16 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1743423000000</v>
+        <v>1743225000000</v>
       </c>
       <c r="D264" t="n">
-        <v>1743423000000</v>
+        <v>1743225000000</v>
       </c>
       <c r="E264" t="n">
-        <v>1743423000000</v>
+        <v>1743225000000</v>
       </c>
       <c r="F264" t="n">
-        <v>1743423000000</v>
+        <v>1743225000000</v>
       </c>
       <c r="G264" t="n">
         <v>0</v>
@@ -7061,16 +7061,16 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1793409000000</v>
+        <v>1793355000000</v>
       </c>
       <c r="D265" t="n">
-        <v>1793409000000</v>
+        <v>1793355000000</v>
       </c>
       <c r="E265" t="n">
-        <v>1793409000000</v>
+        <v>1793355000000</v>
       </c>
       <c r="F265" t="n">
-        <v>1793409000000</v>
+        <v>1793355000000</v>
       </c>
       <c r="G265" t="n">
         <v>0</v>
@@ -7086,16 +7086,16 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1838255000000</v>
+        <v>1838199000000</v>
       </c>
       <c r="D266" t="n">
-        <v>1838255000000</v>
+        <v>1838199000000</v>
       </c>
       <c r="E266" t="n">
-        <v>1838255000000</v>
+        <v>1838199000000</v>
       </c>
       <c r="F266" t="n">
-        <v>1838255000000</v>
+        <v>1838199000000</v>
       </c>
       <c r="G266" t="n">
         <v>0</v>
@@ -7111,16 +7111,16 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1847702000000</v>
+        <v>1847617000000</v>
       </c>
       <c r="D267" t="n">
-        <v>1847702000000</v>
+        <v>1847617000000</v>
       </c>
       <c r="E267" t="n">
-        <v>1847702000000</v>
+        <v>1847617000000</v>
       </c>
       <c r="F267" t="n">
-        <v>1847702000000</v>
+        <v>1847617000000</v>
       </c>
       <c r="G267" t="n">
         <v>0</v>
@@ -7136,16 +7136,16 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>1839023000000</v>
+        <v>1839006000000</v>
       </c>
       <c r="D268" t="n">
-        <v>1839023000000</v>
+        <v>1839006000000</v>
       </c>
       <c r="E268" t="n">
-        <v>1839023000000</v>
+        <v>1839006000000</v>
       </c>
       <c r="F268" t="n">
-        <v>1839023000000</v>
+        <v>1839006000000</v>
       </c>
       <c r="G268" t="n">
         <v>0</v>
@@ -7161,16 +7161,16 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>1852329000000</v>
+        <v>1852086000000</v>
       </c>
       <c r="D269" t="n">
-        <v>1852329000000</v>
+        <v>1852086000000</v>
       </c>
       <c r="E269" t="n">
-        <v>1852329000000</v>
+        <v>1852086000000</v>
       </c>
       <c r="F269" t="n">
-        <v>1852329000000</v>
+        <v>1852086000000</v>
       </c>
       <c r="G269" t="n">
         <v>0</v>
@@ -7186,16 +7186,16 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1828272000000</v>
+        <v>1828295000000</v>
       </c>
       <c r="D270" t="n">
-        <v>1828272000000</v>
+        <v>1828295000000</v>
       </c>
       <c r="E270" t="n">
-        <v>1828272000000</v>
+        <v>1828295000000</v>
       </c>
       <c r="F270" t="n">
-        <v>1828272000000</v>
+        <v>1828295000000</v>
       </c>
       <c r="G270" t="n">
         <v>0</v>
@@ -7211,16 +7211,16 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>1820835000000</v>
+        <v>1821502000000</v>
       </c>
       <c r="D271" t="n">
-        <v>1820835000000</v>
+        <v>1821502000000</v>
       </c>
       <c r="E271" t="n">
-        <v>1820835000000</v>
+        <v>1821502000000</v>
       </c>
       <c r="F271" t="n">
-        <v>1820835000000</v>
+        <v>1821502000000</v>
       </c>
       <c r="G271" t="n">
         <v>0</v>
@@ -7236,16 +7236,16 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1813696000000</v>
+        <v>1813613000000</v>
       </c>
       <c r="D272" t="n">
-        <v>1813696000000</v>
+        <v>1813613000000</v>
       </c>
       <c r="E272" t="n">
-        <v>1813696000000</v>
+        <v>1813613000000</v>
       </c>
       <c r="F272" t="n">
-        <v>1813696000000</v>
+        <v>1813613000000</v>
       </c>
       <c r="G272" t="n">
         <v>0</v>
@@ -7261,16 +7261,16 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>1825789000000</v>
+        <v>1825805000000</v>
       </c>
       <c r="D273" t="n">
-        <v>1825789000000</v>
+        <v>1825805000000</v>
       </c>
       <c r="E273" t="n">
-        <v>1825789000000</v>
+        <v>1825805000000</v>
       </c>
       <c r="F273" t="n">
-        <v>1825789000000</v>
+        <v>1825805000000</v>
       </c>
       <c r="G273" t="n">
         <v>0</v>
@@ -7286,16 +7286,16 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>1837957000000</v>
+        <v>1837996000000</v>
       </c>
       <c r="D274" t="n">
-        <v>1837957000000</v>
+        <v>1837996000000</v>
       </c>
       <c r="E274" t="n">
-        <v>1837957000000</v>
+        <v>1837996000000</v>
       </c>
       <c r="F274" t="n">
-        <v>1837957000000</v>
+        <v>1837996000000</v>
       </c>
       <c r="G274" t="n">
         <v>0</v>
@@ -7311,16 +7311,16 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>1860645000000</v>
+        <v>1860489000000</v>
       </c>
       <c r="D275" t="n">
-        <v>1860645000000</v>
+        <v>1860489000000</v>
       </c>
       <c r="E275" t="n">
-        <v>1860645000000</v>
+        <v>1860489000000</v>
       </c>
       <c r="F275" t="n">
-        <v>1860645000000</v>
+        <v>1860489000000</v>
       </c>
       <c r="G275" t="n">
         <v>0</v>
@@ -7336,16 +7336,16 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>1897982000000</v>
+        <v>1897866000000</v>
       </c>
       <c r="D276" t="n">
-        <v>1897982000000</v>
+        <v>1897866000000</v>
       </c>
       <c r="E276" t="n">
-        <v>1897982000000</v>
+        <v>1897866000000</v>
       </c>
       <c r="F276" t="n">
-        <v>1897982000000</v>
+        <v>1897866000000</v>
       </c>
       <c r="G276" t="n">
         <v>0</v>
@@ -7361,16 +7361,16 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>1898826000000</v>
+        <v>1898769000000</v>
       </c>
       <c r="D277" t="n">
-        <v>1898826000000</v>
+        <v>1898769000000</v>
       </c>
       <c r="E277" t="n">
-        <v>1898826000000</v>
+        <v>1898769000000</v>
       </c>
       <c r="F277" t="n">
-        <v>1898826000000</v>
+        <v>1898769000000</v>
       </c>
       <c r="G277" t="n">
         <v>0</v>
@@ -7386,16 +7386,16 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>1900656000000</v>
+        <v>1900621000000</v>
       </c>
       <c r="D278" t="n">
-        <v>1900656000000</v>
+        <v>1900621000000</v>
       </c>
       <c r="E278" t="n">
-        <v>1900656000000</v>
+        <v>1900621000000</v>
       </c>
       <c r="F278" t="n">
-        <v>1900656000000</v>
+        <v>1900621000000</v>
       </c>
       <c r="G278" t="n">
         <v>0</v>
@@ -7411,16 +7411,16 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>2092623000000</v>
+        <v>2092454000000</v>
       </c>
       <c r="D279" t="n">
-        <v>2092623000000</v>
+        <v>2092454000000</v>
       </c>
       <c r="E279" t="n">
-        <v>2092623000000</v>
+        <v>2092454000000</v>
       </c>
       <c r="F279" t="n">
-        <v>2092623000000</v>
+        <v>2092454000000</v>
       </c>
       <c r="G279" t="n">
         <v>0</v>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>2120132000000</v>
+        <v>2120088000000</v>
       </c>
       <c r="D280" t="n">
-        <v>2120132000000</v>
+        <v>2120088000000</v>
       </c>
       <c r="E280" t="n">
-        <v>2120132000000</v>
+        <v>2120088000000</v>
       </c>
       <c r="F280" t="n">
-        <v>2120132000000</v>
+        <v>2120088000000</v>
       </c>
       <c r="G280" t="n">
         <v>0</v>
@@ -7461,16 +7461,16 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>2104225000000</v>
+        <v>2103917000000</v>
       </c>
       <c r="D281" t="n">
-        <v>2104225000000</v>
+        <v>2103917000000</v>
       </c>
       <c r="E281" t="n">
-        <v>2104225000000</v>
+        <v>2103917000000</v>
       </c>
       <c r="F281" t="n">
-        <v>2104225000000</v>
+        <v>2103917000000</v>
       </c>
       <c r="G281" t="n">
         <v>0</v>
@@ -7486,16 +7486,16 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>2075222000000</v>
+        <v>2075206000000</v>
       </c>
       <c r="D282" t="n">
-        <v>2075222000000</v>
+        <v>2075206000000</v>
       </c>
       <c r="E282" t="n">
-        <v>2075222000000</v>
+        <v>2075206000000</v>
       </c>
       <c r="F282" t="n">
-        <v>2075222000000</v>
+        <v>2075206000000</v>
       </c>
       <c r="G282" t="n">
         <v>0</v>
@@ -7511,16 +7511,16 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>2089615000000</v>
+        <v>2090963000000</v>
       </c>
       <c r="D283" t="n">
-        <v>2089615000000</v>
+        <v>2090963000000</v>
       </c>
       <c r="E283" t="n">
-        <v>2089615000000</v>
+        <v>2090963000000</v>
       </c>
       <c r="F283" t="n">
-        <v>2089615000000</v>
+        <v>2090963000000</v>
       </c>
       <c r="G283" t="n">
         <v>0</v>
@@ -7536,16 +7536,16 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>2093060000000</v>
+        <v>2092986000000</v>
       </c>
       <c r="D284" t="n">
-        <v>2093060000000</v>
+        <v>2092986000000</v>
       </c>
       <c r="E284" t="n">
-        <v>2093060000000</v>
+        <v>2092986000000</v>
       </c>
       <c r="F284" t="n">
-        <v>2093060000000</v>
+        <v>2092986000000</v>
       </c>
       <c r="G284" t="n">
         <v>0</v>
@@ -7561,16 +7561,16 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>2089590000000</v>
+        <v>2089620000000</v>
       </c>
       <c r="D285" t="n">
-        <v>2089590000000</v>
+        <v>2089620000000</v>
       </c>
       <c r="E285" t="n">
-        <v>2089590000000</v>
+        <v>2089620000000</v>
       </c>
       <c r="F285" t="n">
-        <v>2089590000000</v>
+        <v>2089620000000</v>
       </c>
       <c r="G285" t="n">
         <v>0</v>
@@ -7586,16 +7586,16 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>2081045000000</v>
+        <v>2080822000000</v>
       </c>
       <c r="D286" t="n">
-        <v>2081045000000</v>
+        <v>2080822000000</v>
       </c>
       <c r="E286" t="n">
-        <v>2081045000000</v>
+        <v>2080822000000</v>
       </c>
       <c r="F286" t="n">
-        <v>2081045000000</v>
+        <v>2080822000000</v>
       </c>
       <c r="G286" t="n">
         <v>0</v>
@@ -7611,16 +7611,16 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>2081775000000</v>
+        <v>2081684000000</v>
       </c>
       <c r="D287" t="n">
-        <v>2081775000000</v>
+        <v>2081684000000</v>
       </c>
       <c r="E287" t="n">
-        <v>2081775000000</v>
+        <v>2081684000000</v>
       </c>
       <c r="F287" t="n">
-        <v>2081775000000</v>
+        <v>2081684000000</v>
       </c>
       <c r="G287" t="n">
         <v>0</v>
@@ -7636,16 +7636,16 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>2093324000000</v>
+        <v>2093123000000</v>
       </c>
       <c r="D288" t="n">
-        <v>2093324000000</v>
+        <v>2093123000000</v>
       </c>
       <c r="E288" t="n">
-        <v>2093324000000</v>
+        <v>2093123000000</v>
       </c>
       <c r="F288" t="n">
-        <v>2093324000000</v>
+        <v>2093123000000</v>
       </c>
       <c r="G288" t="n">
         <v>0</v>
@@ -7661,16 +7661,16 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>2084027000000</v>
+        <v>2083491000000</v>
       </c>
       <c r="D289" t="n">
-        <v>2084027000000</v>
+        <v>2083491000000</v>
       </c>
       <c r="E289" t="n">
-        <v>2084027000000</v>
+        <v>2083491000000</v>
       </c>
       <c r="F289" t="n">
-        <v>2084027000000</v>
+        <v>2083491000000</v>
       </c>
       <c r="G289" t="n">
         <v>0</v>
@@ -7686,16 +7686,16 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>2079662000000</v>
+        <v>2079505000000</v>
       </c>
       <c r="D290" t="n">
-        <v>2079662000000</v>
+        <v>2079505000000</v>
       </c>
       <c r="E290" t="n">
-        <v>2079662000000</v>
+        <v>2079505000000</v>
       </c>
       <c r="F290" t="n">
-        <v>2079662000000</v>
+        <v>2079505000000</v>
       </c>
       <c r="G290" t="n">
         <v>0</v>
@@ -7711,16 +7711,16 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>2065737000000</v>
+        <v>2065671000000</v>
       </c>
       <c r="D291" t="n">
-        <v>2065737000000</v>
+        <v>2065671000000</v>
       </c>
       <c r="E291" t="n">
-        <v>2065737000000</v>
+        <v>2065671000000</v>
       </c>
       <c r="F291" t="n">
-        <v>2065737000000</v>
+        <v>2065671000000</v>
       </c>
       <c r="G291" t="n">
         <v>0</v>
@@ -7736,16 +7736,16 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>2059607000000</v>
+        <v>2059742000000</v>
       </c>
       <c r="D292" t="n">
-        <v>2059607000000</v>
+        <v>2059742000000</v>
       </c>
       <c r="E292" t="n">
-        <v>2059607000000</v>
+        <v>2059742000000</v>
       </c>
       <c r="F292" t="n">
-        <v>2059607000000</v>
+        <v>2059742000000</v>
       </c>
       <c r="G292" t="n">
         <v>0</v>
@@ -7761,16 +7761,16 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>2083557000000</v>
+        <v>2083321000000</v>
       </c>
       <c r="D293" t="n">
-        <v>2083557000000</v>
+        <v>2083321000000</v>
       </c>
       <c r="E293" t="n">
-        <v>2083557000000</v>
+        <v>2083321000000</v>
       </c>
       <c r="F293" t="n">
-        <v>2083557000000</v>
+        <v>2083321000000</v>
       </c>
       <c r="G293" t="n">
         <v>0</v>
@@ -7786,16 +7786,16 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>2083933000000</v>
+        <v>2083903000000</v>
       </c>
       <c r="D294" t="n">
-        <v>2083933000000</v>
+        <v>2083903000000</v>
       </c>
       <c r="E294" t="n">
-        <v>2083933000000</v>
+        <v>2083903000000</v>
       </c>
       <c r="F294" t="n">
-        <v>2083933000000</v>
+        <v>2083903000000</v>
       </c>
       <c r="G294" t="n">
         <v>0</v>
@@ -7811,16 +7811,16 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>2084349000000</v>
+        <v>2085957000000</v>
       </c>
       <c r="D295" t="n">
-        <v>2084349000000</v>
+        <v>2085957000000</v>
       </c>
       <c r="E295" t="n">
-        <v>2084349000000</v>
+        <v>2085957000000</v>
       </c>
       <c r="F295" t="n">
-        <v>2084349000000</v>
+        <v>2085957000000</v>
       </c>
       <c r="G295" t="n">
         <v>0</v>
@@ -7836,16 +7836,16 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>2083095000000</v>
+        <v>2083059000000</v>
       </c>
       <c r="D296" t="n">
-        <v>2083095000000</v>
+        <v>2083059000000</v>
       </c>
       <c r="E296" t="n">
-        <v>2083095000000</v>
+        <v>2083059000000</v>
       </c>
       <c r="F296" t="n">
-        <v>2083095000000</v>
+        <v>2083059000000</v>
       </c>
       <c r="G296" t="n">
         <v>0</v>
@@ -7861,16 +7861,16 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>2079274000000</v>
+        <v>2079175000000</v>
       </c>
       <c r="D297" t="n">
-        <v>2079274000000</v>
+        <v>2079175000000</v>
       </c>
       <c r="E297" t="n">
-        <v>2079274000000</v>
+        <v>2079175000000</v>
       </c>
       <c r="F297" t="n">
-        <v>2079274000000</v>
+        <v>2079175000000</v>
       </c>
       <c r="G297" t="n">
         <v>0</v>
@@ -7886,16 +7886,16 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>2090532000000</v>
+        <v>2090266000000</v>
       </c>
       <c r="D298" t="n">
-        <v>2090532000000</v>
+        <v>2090266000000</v>
       </c>
       <c r="E298" t="n">
-        <v>2090532000000</v>
+        <v>2090266000000</v>
       </c>
       <c r="F298" t="n">
-        <v>2090532000000</v>
+        <v>2090266000000</v>
       </c>
       <c r="G298" t="n">
         <v>0</v>
@@ -7911,16 +7911,16 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>2090991000000</v>
+        <v>2090956000000</v>
       </c>
       <c r="D299" t="n">
-        <v>2090991000000</v>
+        <v>2090956000000</v>
       </c>
       <c r="E299" t="n">
-        <v>2090991000000</v>
+        <v>2090956000000</v>
       </c>
       <c r="F299" t="n">
-        <v>2090991000000</v>
+        <v>2090956000000</v>
       </c>
       <c r="G299" t="n">
         <v>0</v>
@@ -7936,16 +7936,16 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>2069799000000</v>
+        <v>2069753000000</v>
       </c>
       <c r="D300" t="n">
-        <v>2069799000000</v>
+        <v>2069753000000</v>
       </c>
       <c r="E300" t="n">
-        <v>2069799000000</v>
+        <v>2069753000000</v>
       </c>
       <c r="F300" t="n">
-        <v>2069799000000</v>
+        <v>2069753000000</v>
       </c>
       <c r="G300" t="n">
         <v>0</v>
@@ -7961,16 +7961,16 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>2075668000000</v>
+        <v>2075063000000</v>
       </c>
       <c r="D301" t="n">
-        <v>2075668000000</v>
+        <v>2075063000000</v>
       </c>
       <c r="E301" t="n">
-        <v>2075668000000</v>
+        <v>2075063000000</v>
       </c>
       <c r="F301" t="n">
-        <v>2075668000000</v>
+        <v>2075063000000</v>
       </c>
       <c r="G301" t="n">
         <v>0</v>
@@ -7986,16 +7986,16 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>2034688000000</v>
+        <v>2034653000000</v>
       </c>
       <c r="D302" t="n">
-        <v>2034688000000</v>
+        <v>2034653000000</v>
       </c>
       <c r="E302" t="n">
-        <v>2034688000000</v>
+        <v>2034653000000</v>
       </c>
       <c r="F302" t="n">
-        <v>2034688000000</v>
+        <v>2034653000000</v>
       </c>
       <c r="G302" t="n">
         <v>0</v>
@@ -8011,16 +8011,16 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>2049989000000</v>
+        <v>2049488000000</v>
       </c>
       <c r="D303" t="n">
-        <v>2049989000000</v>
+        <v>2049488000000</v>
       </c>
       <c r="E303" t="n">
-        <v>2049989000000</v>
+        <v>2049488000000</v>
       </c>
       <c r="F303" t="n">
-        <v>2049989000000</v>
+        <v>2049488000000</v>
       </c>
       <c r="G303" t="n">
         <v>0</v>
@@ -8036,16 +8036,16 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>2016377000000</v>
+        <v>2016287000000</v>
       </c>
       <c r="D304" t="n">
-        <v>2016377000000</v>
+        <v>2016287000000</v>
       </c>
       <c r="E304" t="n">
-        <v>2016377000000</v>
+        <v>2016287000000</v>
       </c>
       <c r="F304" t="n">
-        <v>2016377000000</v>
+        <v>2016287000000</v>
       </c>
       <c r="G304" t="n">
         <v>0</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>2022884000000</v>
+        <v>2022805000000</v>
       </c>
       <c r="D305" t="n">
-        <v>2022884000000</v>
+        <v>2022805000000</v>
       </c>
       <c r="E305" t="n">
-        <v>2022884000000</v>
+        <v>2022805000000</v>
       </c>
       <c r="F305" t="n">
-        <v>2022884000000</v>
+        <v>2022805000000</v>
       </c>
       <c r="G305" t="n">
         <v>0</v>
@@ -8086,16 +8086,16 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>2032569000000</v>
+        <v>2032819000000</v>
       </c>
       <c r="D306" t="n">
-        <v>2032569000000</v>
+        <v>2032819000000</v>
       </c>
       <c r="E306" t="n">
-        <v>2032569000000</v>
+        <v>2032819000000</v>
       </c>
       <c r="F306" t="n">
-        <v>2032569000000</v>
+        <v>2032819000000</v>
       </c>
       <c r="G306" t="n">
         <v>0</v>
@@ -8111,16 +8111,16 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>2035395000000</v>
+        <v>2036780000000</v>
       </c>
       <c r="D307" t="n">
-        <v>2035395000000</v>
+        <v>2036780000000</v>
       </c>
       <c r="E307" t="n">
-        <v>2035395000000</v>
+        <v>2036780000000</v>
       </c>
       <c r="F307" t="n">
-        <v>2035395000000</v>
+        <v>2036780000000</v>
       </c>
       <c r="G307" t="n">
         <v>0</v>
@@ -8136,16 +8136,16 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>2028016000000</v>
+        <v>2028086000000</v>
       </c>
       <c r="D308" t="n">
-        <v>2028016000000</v>
+        <v>2028086000000</v>
       </c>
       <c r="E308" t="n">
-        <v>2028016000000</v>
+        <v>2028086000000</v>
       </c>
       <c r="F308" t="n">
-        <v>2028016000000</v>
+        <v>2028086000000</v>
       </c>
       <c r="G308" t="n">
         <v>0</v>
@@ -8161,16 +8161,16 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2029297000000</v>
+        <v>2029012000000</v>
       </c>
       <c r="D309" t="n">
-        <v>2029297000000</v>
+        <v>2029012000000</v>
       </c>
       <c r="E309" t="n">
-        <v>2029297000000</v>
+        <v>2029012000000</v>
       </c>
       <c r="F309" t="n">
-        <v>2029297000000</v>
+        <v>2029012000000</v>
       </c>
       <c r="G309" t="n">
         <v>0</v>
@@ -8186,16 +8186,16 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>2024977000000</v>
+        <v>2024836000000</v>
       </c>
       <c r="D310" t="n">
-        <v>2024977000000</v>
+        <v>2024836000000</v>
       </c>
       <c r="E310" t="n">
-        <v>2024977000000</v>
+        <v>2024836000000</v>
       </c>
       <c r="F310" t="n">
-        <v>2024977000000</v>
+        <v>2024836000000</v>
       </c>
       <c r="G310" t="n">
         <v>0</v>
@@ -8211,16 +8211,16 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>2023200000000</v>
+        <v>2023351000000</v>
       </c>
       <c r="D311" t="n">
-        <v>2023200000000</v>
+        <v>2023351000000</v>
       </c>
       <c r="E311" t="n">
-        <v>2023200000000</v>
+        <v>2023351000000</v>
       </c>
       <c r="F311" t="n">
-        <v>2023200000000</v>
+        <v>2023351000000</v>
       </c>
       <c r="G311" t="n">
         <v>0</v>
@@ -8236,16 +8236,16 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>2021961000000</v>
+        <v>2021667000000</v>
       </c>
       <c r="D312" t="n">
-        <v>2021961000000</v>
+        <v>2021667000000</v>
       </c>
       <c r="E312" t="n">
-        <v>2021961000000</v>
+        <v>2021667000000</v>
       </c>
       <c r="F312" t="n">
-        <v>2021961000000</v>
+        <v>2021667000000</v>
       </c>
       <c r="G312" t="n">
         <v>0</v>
@@ -8261,16 +8261,16 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>2020136000000</v>
+        <v>2019753000000</v>
       </c>
       <c r="D313" t="n">
-        <v>2020136000000</v>
+        <v>2019753000000</v>
       </c>
       <c r="E313" t="n">
-        <v>2020136000000</v>
+        <v>2019753000000</v>
       </c>
       <c r="F313" t="n">
-        <v>2020136000000</v>
+        <v>2019753000000</v>
       </c>
       <c r="G313" t="n">
         <v>0</v>
@@ -8286,16 +8286,16 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>2043137000000</v>
+        <v>2043190000000</v>
       </c>
       <c r="D314" t="n">
-        <v>2043137000000</v>
+        <v>2043190000000</v>
       </c>
       <c r="E314" t="n">
-        <v>2043137000000</v>
+        <v>2043190000000</v>
       </c>
       <c r="F314" t="n">
-        <v>2043137000000</v>
+        <v>2043190000000</v>
       </c>
       <c r="G314" t="n">
         <v>0</v>
@@ -8311,16 +8311,16 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2056674000000</v>
+        <v>2056215000000</v>
       </c>
       <c r="D315" t="n">
-        <v>2056674000000</v>
+        <v>2056215000000</v>
       </c>
       <c r="E315" t="n">
-        <v>2056674000000</v>
+        <v>2056215000000</v>
       </c>
       <c r="F315" t="n">
-        <v>2056674000000</v>
+        <v>2056215000000</v>
       </c>
       <c r="G315" t="n">
         <v>0</v>
@@ -8336,16 +8336,16 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>2075622000000</v>
+        <v>2075694000000</v>
       </c>
       <c r="D316" t="n">
-        <v>2075622000000</v>
+        <v>2075694000000</v>
       </c>
       <c r="E316" t="n">
-        <v>2075622000000</v>
+        <v>2075694000000</v>
       </c>
       <c r="F316" t="n">
-        <v>2075622000000</v>
+        <v>2075694000000</v>
       </c>
       <c r="G316" t="n">
         <v>0</v>
@@ -8361,16 +8361,16 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>2074600000000</v>
+        <v>2074495000000</v>
       </c>
       <c r="D317" t="n">
-        <v>2074600000000</v>
+        <v>2074495000000</v>
       </c>
       <c r="E317" t="n">
-        <v>2074600000000</v>
+        <v>2074495000000</v>
       </c>
       <c r="F317" t="n">
-        <v>2074600000000</v>
+        <v>2074495000000</v>
       </c>
       <c r="G317" t="n">
         <v>0</v>
@@ -8386,16 +8386,16 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>2079867000000</v>
+        <v>2079926000000</v>
       </c>
       <c r="D318" t="n">
-        <v>2079867000000</v>
+        <v>2079926000000</v>
       </c>
       <c r="E318" t="n">
-        <v>2079867000000</v>
+        <v>2079926000000</v>
       </c>
       <c r="F318" t="n">
-        <v>2079867000000</v>
+        <v>2079926000000</v>
       </c>
       <c r="G318" t="n">
         <v>0</v>
@@ -8411,16 +8411,16 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2080598000000</v>
+        <v>2081316000000</v>
       </c>
       <c r="D319" t="n">
-        <v>2080598000000</v>
+        <v>2081316000000</v>
       </c>
       <c r="E319" t="n">
-        <v>2080598000000</v>
+        <v>2081316000000</v>
       </c>
       <c r="F319" t="n">
-        <v>2080598000000</v>
+        <v>2081316000000</v>
       </c>
       <c r="G319" t="n">
         <v>0</v>
@@ -8436,16 +8436,16 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>2086463000000</v>
+        <v>2086478000000</v>
       </c>
       <c r="D320" t="n">
-        <v>2086463000000</v>
+        <v>2086478000000</v>
       </c>
       <c r="E320" t="n">
-        <v>2086463000000</v>
+        <v>2086478000000</v>
       </c>
       <c r="F320" t="n">
-        <v>2086463000000</v>
+        <v>2086478000000</v>
       </c>
       <c r="G320" t="n">
         <v>0</v>
@@ -8461,16 +8461,16 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2100189000000</v>
+        <v>2099995000000</v>
       </c>
       <c r="D321" t="n">
-        <v>2100189000000</v>
+        <v>2099995000000</v>
       </c>
       <c r="E321" t="n">
-        <v>2100189000000</v>
+        <v>2099995000000</v>
       </c>
       <c r="F321" t="n">
-        <v>2100189000000</v>
+        <v>2099995000000</v>
       </c>
       <c r="G321" t="n">
         <v>0</v>
@@ -8486,16 +8486,16 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>2105684000000</v>
+        <v>2105700000000</v>
       </c>
       <c r="D322" t="n">
-        <v>2105684000000</v>
+        <v>2105700000000</v>
       </c>
       <c r="E322" t="n">
-        <v>2105684000000</v>
+        <v>2105700000000</v>
       </c>
       <c r="F322" t="n">
-        <v>2105684000000</v>
+        <v>2105700000000</v>
       </c>
       <c r="G322" t="n">
         <v>0</v>
@@ -8511,16 +8511,16 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>2089184000000</v>
+        <v>2089626000000</v>
       </c>
       <c r="D323" t="n">
-        <v>2089184000000</v>
+        <v>2089626000000</v>
       </c>
       <c r="E323" t="n">
-        <v>2089184000000</v>
+        <v>2089626000000</v>
       </c>
       <c r="F323" t="n">
-        <v>2089184000000</v>
+        <v>2089626000000</v>
       </c>
       <c r="G323" t="n">
         <v>0</v>
@@ -8536,16 +8536,16 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>2104033000000</v>
+        <v>2104155000000</v>
       </c>
       <c r="D324" t="n">
-        <v>2104033000000</v>
+        <v>2104155000000</v>
       </c>
       <c r="E324" t="n">
-        <v>2104033000000</v>
+        <v>2104155000000</v>
       </c>
       <c r="F324" t="n">
-        <v>2104033000000</v>
+        <v>2104155000000</v>
       </c>
       <c r="G324" t="n">
         <v>0</v>
@@ -8561,16 +8561,16 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>2100835000000</v>
+        <v>2100629000000</v>
       </c>
       <c r="D325" t="n">
-        <v>2100835000000</v>
+        <v>2100629000000</v>
       </c>
       <c r="E325" t="n">
-        <v>2100835000000</v>
+        <v>2100629000000</v>
       </c>
       <c r="F325" t="n">
-        <v>2100835000000</v>
+        <v>2100629000000</v>
       </c>
       <c r="G325" t="n">
         <v>0</v>
@@ -8586,16 +8586,16 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>2078521000000</v>
+        <v>2078311000000</v>
       </c>
       <c r="D326" t="n">
-        <v>2078521000000</v>
+        <v>2078311000000</v>
       </c>
       <c r="E326" t="n">
-        <v>2078521000000</v>
+        <v>2078311000000</v>
       </c>
       <c r="F326" t="n">
-        <v>2078521000000</v>
+        <v>2078311000000</v>
       </c>
       <c r="G326" t="n">
         <v>0</v>
@@ -8611,16 +8611,16 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>2092490000000</v>
+        <v>2091895000000</v>
       </c>
       <c r="D327" t="n">
-        <v>2092490000000</v>
+        <v>2091895000000</v>
       </c>
       <c r="E327" t="n">
-        <v>2092490000000</v>
+        <v>2091895000000</v>
       </c>
       <c r="F327" t="n">
-        <v>2092490000000</v>
+        <v>2091895000000</v>
       </c>
       <c r="G327" t="n">
         <v>0</v>
@@ -8636,16 +8636,16 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>2110351000000</v>
+        <v>2110365000000</v>
       </c>
       <c r="D328" t="n">
-        <v>2110351000000</v>
+        <v>2110365000000</v>
       </c>
       <c r="E328" t="n">
-        <v>2110351000000</v>
+        <v>2110365000000</v>
       </c>
       <c r="F328" t="n">
-        <v>2110351000000</v>
+        <v>2110365000000</v>
       </c>
       <c r="G328" t="n">
         <v>0</v>
@@ -8661,16 +8661,16 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>2083894000000</v>
+        <v>2083972000000</v>
       </c>
       <c r="D329" t="n">
-        <v>2083894000000</v>
+        <v>2083972000000</v>
       </c>
       <c r="E329" t="n">
-        <v>2083894000000</v>
+        <v>2083972000000</v>
       </c>
       <c r="F329" t="n">
-        <v>2083894000000</v>
+        <v>2083972000000</v>
       </c>
       <c r="G329" t="n">
         <v>0</v>
@@ -8686,16 +8686,16 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>2077452000000</v>
+        <v>2077754000000</v>
       </c>
       <c r="D330" t="n">
-        <v>2077452000000</v>
+        <v>2077754000000</v>
       </c>
       <c r="E330" t="n">
-        <v>2077452000000</v>
+        <v>2077754000000</v>
       </c>
       <c r="F330" t="n">
-        <v>2077452000000</v>
+        <v>2077754000000</v>
       </c>
       <c r="G330" t="n">
         <v>0</v>
@@ -8711,16 +8711,16 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>2072230000000</v>
+        <v>2072526000000</v>
       </c>
       <c r="D331" t="n">
-        <v>2072230000000</v>
+        <v>2072526000000</v>
       </c>
       <c r="E331" t="n">
-        <v>2072230000000</v>
+        <v>2072526000000</v>
       </c>
       <c r="F331" t="n">
-        <v>2072230000000</v>
+        <v>2072526000000</v>
       </c>
       <c r="G331" t="n">
         <v>0</v>
@@ -8736,16 +8736,16 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>2063644000000</v>
+        <v>2063778000000</v>
       </c>
       <c r="D332" t="n">
-        <v>2063644000000</v>
+        <v>2063778000000</v>
       </c>
       <c r="E332" t="n">
-        <v>2063644000000</v>
+        <v>2063778000000</v>
       </c>
       <c r="F332" t="n">
-        <v>2063644000000</v>
+        <v>2063778000000</v>
       </c>
       <c r="G332" t="n">
         <v>0</v>
@@ -8761,16 +8761,16 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>2065107000000</v>
+        <v>2065115000000</v>
       </c>
       <c r="D333" t="n">
-        <v>2065107000000</v>
+        <v>2065115000000</v>
       </c>
       <c r="E333" t="n">
-        <v>2065107000000</v>
+        <v>2065115000000</v>
       </c>
       <c r="F333" t="n">
-        <v>2065107000000</v>
+        <v>2065115000000</v>
       </c>
       <c r="G333" t="n">
         <v>0</v>
@@ -8786,16 +8786,16 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>2066020000000</v>
+        <v>2065974000000</v>
       </c>
       <c r="D334" t="n">
-        <v>2066020000000</v>
+        <v>2065974000000</v>
       </c>
       <c r="E334" t="n">
-        <v>2066020000000</v>
+        <v>2065974000000</v>
       </c>
       <c r="F334" t="n">
-        <v>2066020000000</v>
+        <v>2065974000000</v>
       </c>
       <c r="G334" t="n">
         <v>0</v>
@@ -8811,16 +8811,16 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>2073182000000</v>
+        <v>2073256000000</v>
       </c>
       <c r="D335" t="n">
-        <v>2073182000000</v>
+        <v>2073256000000</v>
       </c>
       <c r="E335" t="n">
-        <v>2073182000000</v>
+        <v>2073256000000</v>
       </c>
       <c r="F335" t="n">
-        <v>2073182000000</v>
+        <v>2073256000000</v>
       </c>
       <c r="G335" t="n">
         <v>0</v>
@@ -8836,16 +8836,16 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>2060745000000</v>
+        <v>2061155000000</v>
       </c>
       <c r="D336" t="n">
-        <v>2060745000000</v>
+        <v>2061155000000</v>
       </c>
       <c r="E336" t="n">
-        <v>2060745000000</v>
+        <v>2061155000000</v>
       </c>
       <c r="F336" t="n">
-        <v>2060745000000</v>
+        <v>2061155000000</v>
       </c>
       <c r="G336" t="n">
         <v>0</v>
@@ -8861,16 +8861,16 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>2068777000000</v>
+        <v>2068525000000</v>
       </c>
       <c r="D337" t="n">
-        <v>2068777000000</v>
+        <v>2068525000000</v>
       </c>
       <c r="E337" t="n">
-        <v>2068777000000</v>
+        <v>2068525000000</v>
       </c>
       <c r="F337" t="n">
-        <v>2068777000000</v>
+        <v>2068525000000</v>
       </c>
       <c r="G337" t="n">
         <v>0</v>
@@ -8886,16 +8886,16 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>2080602000000</v>
+        <v>2080376000000</v>
       </c>
       <c r="D338" t="n">
-        <v>2080602000000</v>
+        <v>2080376000000</v>
       </c>
       <c r="E338" t="n">
-        <v>2080602000000</v>
+        <v>2080376000000</v>
       </c>
       <c r="F338" t="n">
-        <v>2080602000000</v>
+        <v>2080376000000</v>
       </c>
       <c r="G338" t="n">
         <v>0</v>
@@ -8911,16 +8911,16 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>2074266000000</v>
+        <v>2073821000000</v>
       </c>
       <c r="D339" t="n">
-        <v>2074266000000</v>
+        <v>2073821000000</v>
       </c>
       <c r="E339" t="n">
-        <v>2074266000000</v>
+        <v>2073821000000</v>
       </c>
       <c r="F339" t="n">
-        <v>2074266000000</v>
+        <v>2073821000000</v>
       </c>
       <c r="G339" t="n">
         <v>0</v>
@@ -8936,16 +8936,16 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>2070057000000</v>
+        <v>2070266000000</v>
       </c>
       <c r="D340" t="n">
-        <v>2070057000000</v>
+        <v>2070266000000</v>
       </c>
       <c r="E340" t="n">
-        <v>2070057000000</v>
+        <v>2070266000000</v>
       </c>
       <c r="F340" t="n">
-        <v>2070057000000</v>
+        <v>2070266000000</v>
       </c>
       <c r="G340" t="n">
         <v>0</v>
@@ -8961,16 +8961,16 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>2088476000000</v>
+        <v>2088245000000</v>
       </c>
       <c r="D341" t="n">
-        <v>2088476000000</v>
+        <v>2088245000000</v>
       </c>
       <c r="E341" t="n">
-        <v>2088476000000</v>
+        <v>2088245000000</v>
       </c>
       <c r="F341" t="n">
-        <v>2088476000000</v>
+        <v>2088245000000</v>
       </c>
       <c r="G341" t="n">
         <v>0</v>
@@ -8986,16 +8986,16 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>2093493000000</v>
+        <v>2093869000000</v>
       </c>
       <c r="D342" t="n">
-        <v>2093493000000</v>
+        <v>2093869000000</v>
       </c>
       <c r="E342" t="n">
-        <v>2093493000000</v>
+        <v>2093869000000</v>
       </c>
       <c r="F342" t="n">
-        <v>2093493000000</v>
+        <v>2093869000000</v>
       </c>
       <c r="G342" t="n">
         <v>0</v>
@@ -9011,16 +9011,16 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>2090432000000</v>
+        <v>2090426000000</v>
       </c>
       <c r="D343" t="n">
-        <v>2090432000000</v>
+        <v>2090426000000</v>
       </c>
       <c r="E343" t="n">
-        <v>2090432000000</v>
+        <v>2090426000000</v>
       </c>
       <c r="F343" t="n">
-        <v>2090432000000</v>
+        <v>2090426000000</v>
       </c>
       <c r="G343" t="n">
         <v>0</v>
@@ -9036,16 +9036,16 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>2088479000000</v>
+        <v>2088212000000</v>
       </c>
       <c r="D344" t="n">
-        <v>2088479000000</v>
+        <v>2088212000000</v>
       </c>
       <c r="E344" t="n">
-        <v>2088479000000</v>
+        <v>2088212000000</v>
       </c>
       <c r="F344" t="n">
-        <v>2088479000000</v>
+        <v>2088212000000</v>
       </c>
       <c r="G344" t="n">
         <v>0</v>
@@ -9061,16 +9061,16 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>2102076000000</v>
+        <v>2102039000000</v>
       </c>
       <c r="D345" t="n">
-        <v>2102076000000</v>
+        <v>2102039000000</v>
       </c>
       <c r="E345" t="n">
-        <v>2102076000000</v>
+        <v>2102039000000</v>
       </c>
       <c r="F345" t="n">
-        <v>2102076000000</v>
+        <v>2102039000000</v>
       </c>
       <c r="G345" t="n">
         <v>0</v>
@@ -9086,16 +9086,16 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>2103201000000</v>
+        <v>2103149000000</v>
       </c>
       <c r="D346" t="n">
-        <v>2103201000000</v>
+        <v>2103149000000</v>
       </c>
       <c r="E346" t="n">
-        <v>2103201000000</v>
+        <v>2103149000000</v>
       </c>
       <c r="F346" t="n">
-        <v>2103201000000</v>
+        <v>2103149000000</v>
       </c>
       <c r="G346" t="n">
         <v>0</v>
@@ -9111,16 +9111,16 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>2111839000000</v>
+        <v>2112023000000</v>
       </c>
       <c r="D347" t="n">
-        <v>2111839000000</v>
+        <v>2112023000000</v>
       </c>
       <c r="E347" t="n">
-        <v>2111839000000</v>
+        <v>2112023000000</v>
       </c>
       <c r="F347" t="n">
-        <v>2111839000000</v>
+        <v>2112023000000</v>
       </c>
       <c r="G347" t="n">
         <v>0</v>
@@ -9136,16 +9136,16 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>2123379000000</v>
+        <v>2124276000000</v>
       </c>
       <c r="D348" t="n">
-        <v>2123379000000</v>
+        <v>2124276000000</v>
       </c>
       <c r="E348" t="n">
-        <v>2123379000000</v>
+        <v>2124276000000</v>
       </c>
       <c r="F348" t="n">
-        <v>2123379000000</v>
+        <v>2124276000000</v>
       </c>
       <c r="G348" t="n">
         <v>0</v>
@@ -9161,16 +9161,16 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>2120917000000</v>
+        <v>2120902000000</v>
       </c>
       <c r="D349" t="n">
-        <v>2120917000000</v>
+        <v>2120902000000</v>
       </c>
       <c r="E349" t="n">
-        <v>2120917000000</v>
+        <v>2120902000000</v>
       </c>
       <c r="F349" t="n">
-        <v>2120917000000</v>
+        <v>2120902000000</v>
       </c>
       <c r="G349" t="n">
         <v>0</v>
@@ -9186,16 +9186,16 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>2133161000000</v>
+        <v>2132966000000</v>
       </c>
       <c r="D350" t="n">
-        <v>2133161000000</v>
+        <v>2132966000000</v>
       </c>
       <c r="E350" t="n">
-        <v>2133161000000</v>
+        <v>2132966000000</v>
       </c>
       <c r="F350" t="n">
-        <v>2133161000000</v>
+        <v>2132966000000</v>
       </c>
       <c r="G350" t="n">
         <v>0</v>
@@ -9211,16 +9211,16 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>2159868000000</v>
+        <v>2159029000000</v>
       </c>
       <c r="D351" t="n">
-        <v>2159868000000</v>
+        <v>2159029000000</v>
       </c>
       <c r="E351" t="n">
-        <v>2159868000000</v>
+        <v>2159029000000</v>
       </c>
       <c r="F351" t="n">
-        <v>2159868000000</v>
+        <v>2159029000000</v>
       </c>
       <c r="G351" t="n">
         <v>0</v>
@@ -9236,16 +9236,16 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2181858000000</v>
+        <v>2181985000000</v>
       </c>
       <c r="D352" t="n">
-        <v>2181858000000</v>
+        <v>2181985000000</v>
       </c>
       <c r="E352" t="n">
-        <v>2181858000000</v>
+        <v>2181985000000</v>
       </c>
       <c r="F352" t="n">
-        <v>2181858000000</v>
+        <v>2181985000000</v>
       </c>
       <c r="G352" t="n">
         <v>0</v>
@@ -9261,16 +9261,16 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>2183504000000</v>
+        <v>2183306000000</v>
       </c>
       <c r="D353" t="n">
-        <v>2183504000000</v>
+        <v>2183306000000</v>
       </c>
       <c r="E353" t="n">
-        <v>2183504000000</v>
+        <v>2183306000000</v>
       </c>
       <c r="F353" t="n">
-        <v>2183504000000</v>
+        <v>2183306000000</v>
       </c>
       <c r="G353" t="n">
         <v>0</v>
@@ -9286,16 +9286,16 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>2177010000000</v>
+        <v>2177774000000</v>
       </c>
       <c r="D354" t="n">
-        <v>2177010000000</v>
+        <v>2177774000000</v>
       </c>
       <c r="E354" t="n">
-        <v>2177010000000</v>
+        <v>2177774000000</v>
       </c>
       <c r="F354" t="n">
-        <v>2177010000000</v>
+        <v>2177774000000</v>
       </c>
       <c r="G354" t="n">
         <v>0</v>
@@ -9311,16 +9311,16 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2180072000000</v>
+        <v>2179951000000</v>
       </c>
       <c r="D355" t="n">
-        <v>2180072000000</v>
+        <v>2179951000000</v>
       </c>
       <c r="E355" t="n">
-        <v>2180072000000</v>
+        <v>2179951000000</v>
       </c>
       <c r="F355" t="n">
-        <v>2180072000000</v>
+        <v>2179951000000</v>
       </c>
       <c r="G355" t="n">
         <v>0</v>
@@ -9336,16 +9336,16 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>2246217000000</v>
+        <v>2245947000000</v>
       </c>
       <c r="D356" t="n">
-        <v>2246217000000</v>
+        <v>2245947000000</v>
       </c>
       <c r="E356" t="n">
-        <v>2246217000000</v>
+        <v>2245947000000</v>
       </c>
       <c r="F356" t="n">
-        <v>2246217000000</v>
+        <v>2245947000000</v>
       </c>
       <c r="G356" t="n">
         <v>0</v>
@@ -9361,16 +9361,16 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>2255422000000</v>
+        <v>2255327000000</v>
       </c>
       <c r="D357" t="n">
-        <v>2255422000000</v>
+        <v>2255327000000</v>
       </c>
       <c r="E357" t="n">
-        <v>2255422000000</v>
+        <v>2255327000000</v>
       </c>
       <c r="F357" t="n">
-        <v>2255422000000</v>
+        <v>2255327000000</v>
       </c>
       <c r="G357" t="n">
         <v>0</v>
@@ -9386,16 +9386,16 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>2269525000000</v>
+        <v>2269315000000</v>
       </c>
       <c r="D358" t="n">
-        <v>2269525000000</v>
+        <v>2269315000000</v>
       </c>
       <c r="E358" t="n">
-        <v>2269525000000</v>
+        <v>2269315000000</v>
       </c>
       <c r="F358" t="n">
-        <v>2269525000000</v>
+        <v>2269315000000</v>
       </c>
       <c r="G358" t="n">
         <v>0</v>
@@ -9411,16 +9411,16 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>2275185000000</v>
+        <v>2275788000000</v>
       </c>
       <c r="D359" t="n">
-        <v>2275185000000</v>
+        <v>2275788000000</v>
       </c>
       <c r="E359" t="n">
-        <v>2275185000000</v>
+        <v>2275788000000</v>
       </c>
       <c r="F359" t="n">
-        <v>2275185000000</v>
+        <v>2275788000000</v>
       </c>
       <c r="G359" t="n">
         <v>0</v>
@@ -9436,16 +9436,16 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>2289715000000</v>
+        <v>2290212000000</v>
       </c>
       <c r="D360" t="n">
-        <v>2289715000000</v>
+        <v>2290212000000</v>
       </c>
       <c r="E360" t="n">
-        <v>2289715000000</v>
+        <v>2290212000000</v>
       </c>
       <c r="F360" t="n">
-        <v>2289715000000</v>
+        <v>2290212000000</v>
       </c>
       <c r="G360" t="n">
         <v>0</v>
@@ -9461,16 +9461,16 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>2277832000000</v>
+        <v>2277591000000</v>
       </c>
       <c r="D361" t="n">
-        <v>2277832000000</v>
+        <v>2277591000000</v>
       </c>
       <c r="E361" t="n">
-        <v>2277832000000</v>
+        <v>2277591000000</v>
       </c>
       <c r="F361" t="n">
-        <v>2277832000000</v>
+        <v>2277591000000</v>
       </c>
       <c r="G361" t="n">
         <v>0</v>
@@ -9486,16 +9486,16 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>2280305000000</v>
+        <v>2280441000000</v>
       </c>
       <c r="D362" t="n">
-        <v>2280305000000</v>
+        <v>2280441000000</v>
       </c>
       <c r="E362" t="n">
-        <v>2280305000000</v>
+        <v>2280441000000</v>
       </c>
       <c r="F362" t="n">
-        <v>2280305000000</v>
+        <v>2280441000000</v>
       </c>
       <c r="G362" t="n">
         <v>0</v>
@@ -9511,16 +9511,16 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>2282011000000</v>
+        <v>2281069000000</v>
       </c>
       <c r="D363" t="n">
-        <v>2282011000000</v>
+        <v>2281069000000</v>
       </c>
       <c r="E363" t="n">
-        <v>2282011000000</v>
+        <v>2281069000000</v>
       </c>
       <c r="F363" t="n">
-        <v>2282011000000</v>
+        <v>2281069000000</v>
       </c>
       <c r="G363" t="n">
         <v>0</v>
@@ -9536,16 +9536,16 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>2287466000000</v>
+        <v>2287213000000</v>
       </c>
       <c r="D364" t="n">
-        <v>2287466000000</v>
+        <v>2287213000000</v>
       </c>
       <c r="E364" t="n">
-        <v>2287466000000</v>
+        <v>2287213000000</v>
       </c>
       <c r="F364" t="n">
-        <v>2287466000000</v>
+        <v>2287213000000</v>
       </c>
       <c r="G364" t="n">
         <v>0</v>
@@ -9561,16 +9561,16 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>2294949000000</v>
+        <v>2294876000000</v>
       </c>
       <c r="D365" t="n">
-        <v>2294949000000</v>
+        <v>2294876000000</v>
       </c>
       <c r="E365" t="n">
-        <v>2294949000000</v>
+        <v>2294876000000</v>
       </c>
       <c r="F365" t="n">
-        <v>2294949000000</v>
+        <v>2294876000000</v>
       </c>
       <c r="G365" t="n">
         <v>0</v>
@@ -9586,16 +9586,16 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>2301706000000</v>
+        <v>2302031000000</v>
       </c>
       <c r="D366" t="n">
-        <v>2301706000000</v>
+        <v>2302031000000</v>
       </c>
       <c r="E366" t="n">
-        <v>2301706000000</v>
+        <v>2302031000000</v>
       </c>
       <c r="F366" t="n">
-        <v>2301706000000</v>
+        <v>2302031000000</v>
       </c>
       <c r="G366" t="n">
         <v>0</v>
@@ -9611,16 +9611,16 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>2309386000000</v>
+        <v>2309314000000</v>
       </c>
       <c r="D367" t="n">
-        <v>2309386000000</v>
+        <v>2309314000000</v>
       </c>
       <c r="E367" t="n">
-        <v>2309386000000</v>
+        <v>2309314000000</v>
       </c>
       <c r="F367" t="n">
-        <v>2309386000000</v>
+        <v>2309314000000</v>
       </c>
       <c r="G367" t="n">
         <v>0</v>
@@ -9636,16 +9636,16 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>2315550000000</v>
+        <v>2315432000000</v>
       </c>
       <c r="D368" t="n">
-        <v>2315550000000</v>
+        <v>2315432000000</v>
       </c>
       <c r="E368" t="n">
-        <v>2315550000000</v>
+        <v>2315432000000</v>
       </c>
       <c r="F368" t="n">
-        <v>2315550000000</v>
+        <v>2315432000000</v>
       </c>
       <c r="G368" t="n">
         <v>0</v>
@@ -9661,16 +9661,16 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>2309957000000</v>
+        <v>2310115000000</v>
       </c>
       <c r="D369" t="n">
-        <v>2309957000000</v>
+        <v>2310115000000</v>
       </c>
       <c r="E369" t="n">
-        <v>2309957000000</v>
+        <v>2310115000000</v>
       </c>
       <c r="F369" t="n">
-        <v>2309957000000</v>
+        <v>2310115000000</v>
       </c>
       <c r="G369" t="n">
         <v>0</v>
@@ -9686,16 +9686,16 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>2332726000000</v>
+        <v>2332390000000</v>
       </c>
       <c r="D370" t="n">
-        <v>2332726000000</v>
+        <v>2332390000000</v>
       </c>
       <c r="E370" t="n">
-        <v>2332726000000</v>
+        <v>2332390000000</v>
       </c>
       <c r="F370" t="n">
-        <v>2332726000000</v>
+        <v>2332390000000</v>
       </c>
       <c r="G370" t="n">
         <v>0</v>
@@ -9711,16 +9711,16 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>2336880000000</v>
+        <v>2338250000000</v>
       </c>
       <c r="D371" t="n">
-        <v>2336880000000</v>
+        <v>2338250000000</v>
       </c>
       <c r="E371" t="n">
-        <v>2336880000000</v>
+        <v>2338250000000</v>
       </c>
       <c r="F371" t="n">
-        <v>2336880000000</v>
+        <v>2338250000000</v>
       </c>
       <c r="G371" t="n">
         <v>0</v>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>2340379000000</v>
+        <v>2340053000000</v>
       </c>
       <c r="D372" t="n">
-        <v>2340379000000</v>
+        <v>2340053000000</v>
       </c>
       <c r="E372" t="n">
-        <v>2340379000000</v>
+        <v>2340053000000</v>
       </c>
       <c r="F372" t="n">
-        <v>2340379000000</v>
+        <v>2340053000000</v>
       </c>
       <c r="G372" t="n">
         <v>0</v>
@@ -9761,16 +9761,16 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>2345208000000</v>
+        <v>2344861000000</v>
       </c>
       <c r="D373" t="n">
-        <v>2345208000000</v>
+        <v>2344861000000</v>
       </c>
       <c r="E373" t="n">
-        <v>2345208000000</v>
+        <v>2344861000000</v>
       </c>
       <c r="F373" t="n">
-        <v>2345208000000</v>
+        <v>2344861000000</v>
       </c>
       <c r="G373" t="n">
         <v>0</v>
@@ -9786,16 +9786,16 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>2346342000000</v>
+        <v>2346041000000</v>
       </c>
       <c r="D374" t="n">
-        <v>2346342000000</v>
+        <v>2346041000000</v>
       </c>
       <c r="E374" t="n">
-        <v>2346342000000</v>
+        <v>2346041000000</v>
       </c>
       <c r="F374" t="n">
-        <v>2346342000000</v>
+        <v>2346041000000</v>
       </c>
       <c r="G374" t="n">
         <v>0</v>
@@ -9811,16 +9811,16 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>2358144000000</v>
+        <v>2357338000000</v>
       </c>
       <c r="D375" t="n">
-        <v>2358144000000</v>
+        <v>2357338000000</v>
       </c>
       <c r="E375" t="n">
-        <v>2358144000000</v>
+        <v>2357338000000</v>
       </c>
       <c r="F375" t="n">
-        <v>2358144000000</v>
+        <v>2357338000000</v>
       </c>
       <c r="G375" t="n">
         <v>0</v>
@@ -9836,16 +9836,16 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>2359478000000</v>
+        <v>2359089000000</v>
       </c>
       <c r="D376" t="n">
-        <v>2359478000000</v>
+        <v>2359089000000</v>
       </c>
       <c r="E376" t="n">
-        <v>2359478000000</v>
+        <v>2359089000000</v>
       </c>
       <c r="F376" t="n">
-        <v>2359478000000</v>
+        <v>2359089000000</v>
       </c>
       <c r="G376" t="n">
         <v>0</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>2346725000000</v>
+        <v>2347301000000</v>
       </c>
       <c r="D377" t="n">
-        <v>2346725000000</v>
+        <v>2347301000000</v>
       </c>
       <c r="E377" t="n">
-        <v>2346725000000</v>
+        <v>2347301000000</v>
       </c>
       <c r="F377" t="n">
-        <v>2346725000000</v>
+        <v>2347301000000</v>
       </c>
       <c r="G377" t="n">
         <v>0</v>
@@ -9886,16 +9886,16 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>2351179000000</v>
+        <v>2351933000000</v>
       </c>
       <c r="D378" t="n">
-        <v>2351179000000</v>
+        <v>2351933000000</v>
       </c>
       <c r="E378" t="n">
-        <v>2351179000000</v>
+        <v>2351933000000</v>
       </c>
       <c r="F378" t="n">
-        <v>2351179000000</v>
+        <v>2351933000000</v>
       </c>
       <c r="G378" t="n">
         <v>0</v>
@@ -9911,16 +9911,16 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2371695000000</v>
+        <v>2372057000000</v>
       </c>
       <c r="D379" t="n">
-        <v>2371695000000</v>
+        <v>2372057000000</v>
       </c>
       <c r="E379" t="n">
-        <v>2371695000000</v>
+        <v>2372057000000</v>
       </c>
       <c r="F379" t="n">
-        <v>2371695000000</v>
+        <v>2372057000000</v>
       </c>
       <c r="G379" t="n">
         <v>0</v>
@@ -9936,16 +9936,16 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>2370936000000</v>
+        <v>2371724000000</v>
       </c>
       <c r="D380" t="n">
-        <v>2370936000000</v>
+        <v>2371724000000</v>
       </c>
       <c r="E380" t="n">
-        <v>2370936000000</v>
+        <v>2371724000000</v>
       </c>
       <c r="F380" t="n">
-        <v>2370936000000</v>
+        <v>2371724000000</v>
       </c>
       <c r="G380" t="n">
         <v>0</v>
@@ -9961,16 +9961,16 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>2372237000000</v>
+        <v>2371462000000</v>
       </c>
       <c r="D381" t="n">
-        <v>2372237000000</v>
+        <v>2371462000000</v>
       </c>
       <c r="E381" t="n">
-        <v>2372237000000</v>
+        <v>2371462000000</v>
       </c>
       <c r="F381" t="n">
-        <v>2372237000000</v>
+        <v>2371462000000</v>
       </c>
       <c r="G381" t="n">
         <v>0</v>
@@ -9986,16 +9986,16 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>2375322000000</v>
+        <v>2374948000000</v>
       </c>
       <c r="D382" t="n">
-        <v>2375322000000</v>
+        <v>2374948000000</v>
       </c>
       <c r="E382" t="n">
-        <v>2375322000000</v>
+        <v>2374948000000</v>
       </c>
       <c r="F382" t="n">
-        <v>2375322000000</v>
+        <v>2374948000000</v>
       </c>
       <c r="G382" t="n">
         <v>0</v>
@@ -10011,16 +10011,16 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>2387804000000</v>
+        <v>2388943000000</v>
       </c>
       <c r="D383" t="n">
-        <v>2387804000000</v>
+        <v>2388943000000</v>
       </c>
       <c r="E383" t="n">
-        <v>2387804000000</v>
+        <v>2388943000000</v>
       </c>
       <c r="F383" t="n">
-        <v>2387804000000</v>
+        <v>2388943000000</v>
       </c>
       <c r="G383" t="n">
         <v>0</v>
@@ -10036,16 +10036,16 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>2417700000000</v>
+        <v>2416346000000</v>
       </c>
       <c r="D384" t="n">
-        <v>2417700000000</v>
+        <v>2416346000000</v>
       </c>
       <c r="E384" t="n">
-        <v>2417700000000</v>
+        <v>2416346000000</v>
       </c>
       <c r="F384" t="n">
-        <v>2417700000000</v>
+        <v>2416346000000</v>
       </c>
       <c r="G384" t="n">
         <v>0</v>
@@ -10061,16 +10061,16 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>2415829000000</v>
+        <v>2414578000000</v>
       </c>
       <c r="D385" t="n">
-        <v>2415829000000</v>
+        <v>2414578000000</v>
       </c>
       <c r="E385" t="n">
-        <v>2415829000000</v>
+        <v>2414578000000</v>
       </c>
       <c r="F385" t="n">
-        <v>2415829000000</v>
+        <v>2414578000000</v>
       </c>
       <c r="G385" t="n">
         <v>0</v>
@@ -10086,16 +10086,16 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>2415228000000</v>
+        <v>2414732000000</v>
       </c>
       <c r="D386" t="n">
-        <v>2415228000000</v>
+        <v>2414732000000</v>
       </c>
       <c r="E386" t="n">
-        <v>2415228000000</v>
+        <v>2414732000000</v>
       </c>
       <c r="F386" t="n">
-        <v>2415228000000</v>
+        <v>2414732000000</v>
       </c>
       <c r="G386" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>2408195000000</v>
+        <v>2407117000000</v>
       </c>
       <c r="D387" t="n">
-        <v>2408195000000</v>
+        <v>2407117000000</v>
       </c>
       <c r="E387" t="n">
-        <v>2408195000000</v>
+        <v>2407117000000</v>
       </c>
       <c r="F387" t="n">
-        <v>2408195000000</v>
+        <v>2407117000000</v>
       </c>
       <c r="G387" t="n">
         <v>0</v>
@@ -10136,16 +10136,16 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2404540000000</v>
+        <v>2403420000000</v>
       </c>
       <c r="D388" t="n">
-        <v>2404540000000</v>
+        <v>2403420000000</v>
       </c>
       <c r="E388" t="n">
-        <v>2404540000000</v>
+        <v>2403420000000</v>
       </c>
       <c r="F388" t="n">
-        <v>2404540000000</v>
+        <v>2403420000000</v>
       </c>
       <c r="G388" t="n">
         <v>0</v>
@@ -10161,16 +10161,16 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>2415324000000</v>
+        <v>2415213000000</v>
       </c>
       <c r="D389" t="n">
-        <v>2415324000000</v>
+        <v>2415213000000</v>
       </c>
       <c r="E389" t="n">
-        <v>2415324000000</v>
+        <v>2415213000000</v>
       </c>
       <c r="F389" t="n">
-        <v>2415324000000</v>
+        <v>2415213000000</v>
       </c>
       <c r="G389" t="n">
         <v>0</v>
@@ -10186,16 +10186,16 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>2414883000000</v>
+        <v>2415116000000</v>
       </c>
       <c r="D390" t="n">
-        <v>2414883000000</v>
+        <v>2415116000000</v>
       </c>
       <c r="E390" t="n">
-        <v>2414883000000</v>
+        <v>2415116000000</v>
       </c>
       <c r="F390" t="n">
-        <v>2414883000000</v>
+        <v>2415116000000</v>
       </c>
       <c r="G390" t="n">
         <v>0</v>
@@ -10211,16 +10211,16 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>2405369000000</v>
+        <v>2405874000000</v>
       </c>
       <c r="D391" t="n">
-        <v>2405369000000</v>
+        <v>2405874000000</v>
       </c>
       <c r="E391" t="n">
-        <v>2405369000000</v>
+        <v>2405874000000</v>
       </c>
       <c r="F391" t="n">
-        <v>2405369000000</v>
+        <v>2405874000000</v>
       </c>
       <c r="G391" t="n">
         <v>0</v>
@@ -10236,16 +10236,16 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>2415011000000</v>
+        <v>2415734000000</v>
       </c>
       <c r="D392" t="n">
-        <v>2415011000000</v>
+        <v>2415734000000</v>
       </c>
       <c r="E392" t="n">
-        <v>2415011000000</v>
+        <v>2415734000000</v>
       </c>
       <c r="F392" t="n">
-        <v>2415011000000</v>
+        <v>2415734000000</v>
       </c>
       <c r="G392" t="n">
         <v>0</v>
@@ -10261,16 +10261,16 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>2419765000000</v>
+        <v>2417935000000</v>
       </c>
       <c r="D393" t="n">
-        <v>2419765000000</v>
+        <v>2417935000000</v>
       </c>
       <c r="E393" t="n">
-        <v>2419765000000</v>
+        <v>2417935000000</v>
       </c>
       <c r="F393" t="n">
-        <v>2419765000000</v>
+        <v>2417935000000</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10286,16 +10286,16 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>2430126000000</v>
+        <v>2429454000000</v>
       </c>
       <c r="D394" t="n">
-        <v>2430126000000</v>
+        <v>2429454000000</v>
       </c>
       <c r="E394" t="n">
-        <v>2430126000000</v>
+        <v>2429454000000</v>
       </c>
       <c r="F394" t="n">
-        <v>2430126000000</v>
+        <v>2429454000000</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10311,16 +10311,16 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>2427830000000</v>
+        <v>2429425000000</v>
       </c>
       <c r="D395" t="n">
-        <v>2427830000000</v>
+        <v>2429425000000</v>
       </c>
       <c r="E395" t="n">
-        <v>2427830000000</v>
+        <v>2429425000000</v>
       </c>
       <c r="F395" t="n">
-        <v>2427830000000</v>
+        <v>2429425000000</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10336,16 +10336,16 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>2422845000000</v>
+        <v>2419686000000</v>
       </c>
       <c r="D396" t="n">
-        <v>2422845000000</v>
+        <v>2419686000000</v>
       </c>
       <c r="E396" t="n">
-        <v>2422845000000</v>
+        <v>2419686000000</v>
       </c>
       <c r="F396" t="n">
-        <v>2422845000000</v>
+        <v>2419686000000</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>2431821000000</v>
+        <v>2430588000000</v>
       </c>
       <c r="D397" t="n">
-        <v>2431821000000</v>
+        <v>2430588000000</v>
       </c>
       <c r="E397" t="n">
-        <v>2431821000000</v>
+        <v>2430588000000</v>
       </c>
       <c r="F397" t="n">
-        <v>2431821000000</v>
+        <v>2430588000000</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>2447095000000</v>
+        <v>2446771000000</v>
       </c>
       <c r="D398" t="n">
-        <v>2447095000000</v>
+        <v>2446771000000</v>
       </c>
       <c r="E398" t="n">
-        <v>2447095000000</v>
+        <v>2446771000000</v>
       </c>
       <c r="F398" t="n">
-        <v>2447095000000</v>
+        <v>2446771000000</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10411,16 +10411,16 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>2455675000000</v>
+        <v>2456253000000</v>
       </c>
       <c r="D399" t="n">
-        <v>2455675000000</v>
+        <v>2456253000000</v>
       </c>
       <c r="E399" t="n">
-        <v>2455675000000</v>
+        <v>2456253000000</v>
       </c>
       <c r="F399" t="n">
-        <v>2455675000000</v>
+        <v>2456253000000</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10436,16 +10436,16 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>2480997000000</v>
+        <v>2481573000000</v>
       </c>
       <c r="D400" t="n">
-        <v>2480997000000</v>
+        <v>2481573000000</v>
       </c>
       <c r="E400" t="n">
-        <v>2480997000000</v>
+        <v>2481573000000</v>
       </c>
       <c r="F400" t="n">
-        <v>2480997000000</v>
+        <v>2481573000000</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10461,16 +10461,16 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>2602223000000</v>
+        <v>2603729000000</v>
       </c>
       <c r="D401" t="n">
-        <v>2602223000000</v>
+        <v>2603729000000</v>
       </c>
       <c r="E401" t="n">
-        <v>2602223000000</v>
+        <v>2603729000000</v>
       </c>
       <c r="F401" t="n">
-        <v>2602223000000</v>
+        <v>2603729000000</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10486,16 +10486,16 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>2637679000000</v>
+        <v>2639671000000</v>
       </c>
       <c r="D402" t="n">
-        <v>2637679000000</v>
+        <v>2639671000000</v>
       </c>
       <c r="E402" t="n">
-        <v>2637679000000</v>
+        <v>2639671000000</v>
       </c>
       <c r="F402" t="n">
-        <v>2637679000000</v>
+        <v>2639671000000</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10511,16 +10511,16 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>2678816000000</v>
+        <v>2682569000000</v>
       </c>
       <c r="D403" t="n">
-        <v>2678816000000</v>
+        <v>2682569000000</v>
       </c>
       <c r="E403" t="n">
-        <v>2678816000000</v>
+        <v>2682569000000</v>
       </c>
       <c r="F403" t="n">
-        <v>2678816000000</v>
+        <v>2682569000000</v>
       </c>
       <c r="G403" t="n">
         <v>0</v>
@@ -10536,16 +10536,16 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>2698296000000</v>
+        <v>2700238000000</v>
       </c>
       <c r="D404" t="n">
-        <v>2698296000000</v>
+        <v>2700238000000</v>
       </c>
       <c r="E404" t="n">
-        <v>2698296000000</v>
+        <v>2700238000000</v>
       </c>
       <c r="F404" t="n">
-        <v>2698296000000</v>
+        <v>2700238000000</v>
       </c>
       <c r="G404" t="n">
         <v>0</v>
@@ -10561,16 +10561,16 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>2718664000000</v>
+        <v>2715572000000</v>
       </c>
       <c r="D405" t="n">
-        <v>2718664000000</v>
+        <v>2715572000000</v>
       </c>
       <c r="E405" t="n">
-        <v>2718664000000</v>
+        <v>2715572000000</v>
       </c>
       <c r="F405" t="n">
-        <v>2718664000000</v>
+        <v>2715572000000</v>
       </c>
       <c r="G405" t="n">
         <v>0</v>
@@ -10586,16 +10586,16 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>2721942000000</v>
+        <v>2719296000000</v>
       </c>
       <c r="D406" t="n">
-        <v>2721942000000</v>
+        <v>2719296000000</v>
       </c>
       <c r="E406" t="n">
-        <v>2721942000000</v>
+        <v>2719296000000</v>
       </c>
       <c r="F406" t="n">
-        <v>2721942000000</v>
+        <v>2719296000000</v>
       </c>
       <c r="G406" t="n">
         <v>0</v>
@@ -10611,16 +10611,16 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>2729344000000</v>
+        <v>2729471000000</v>
       </c>
       <c r="D407" t="n">
-        <v>2729344000000</v>
+        <v>2729471000000</v>
       </c>
       <c r="E407" t="n">
-        <v>2729344000000</v>
+        <v>2729471000000</v>
       </c>
       <c r="F407" t="n">
-        <v>2729344000000</v>
+        <v>2729471000000</v>
       </c>
       <c r="G407" t="n">
         <v>0</v>
@@ -10636,16 +10636,16 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>2763331000000</v>
+        <v>2757371000000</v>
       </c>
       <c r="D408" t="n">
-        <v>2763331000000</v>
+        <v>2757371000000</v>
       </c>
       <c r="E408" t="n">
-        <v>2763331000000</v>
+        <v>2757371000000</v>
       </c>
       <c r="F408" t="n">
-        <v>2763331000000</v>
+        <v>2757371000000</v>
       </c>
       <c r="G408" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>2774261000000</v>
+        <v>2769783000000</v>
       </c>
       <c r="D409" t="n">
-        <v>2774261000000</v>
+        <v>2769783000000</v>
       </c>
       <c r="E409" t="n">
-        <v>2774261000000</v>
+        <v>2769783000000</v>
       </c>
       <c r="F409" t="n">
-        <v>2774261000000</v>
+        <v>2769783000000</v>
       </c>
       <c r="G409" t="n">
         <v>0</v>
@@ -10686,16 +10686,16 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>2813606000000</v>
+        <v>2811114000000</v>
       </c>
       <c r="D410" t="n">
-        <v>2813606000000</v>
+        <v>2811114000000</v>
       </c>
       <c r="E410" t="n">
-        <v>2813606000000</v>
+        <v>2811114000000</v>
       </c>
       <c r="F410" t="n">
-        <v>2813606000000</v>
+        <v>2811114000000</v>
       </c>
       <c r="G410" t="n">
         <v>0</v>
@@ -10711,16 +10711,16 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>2819716000000</v>
+        <v>2821294000000</v>
       </c>
       <c r="D411" t="n">
-        <v>2819716000000</v>
+        <v>2821294000000</v>
       </c>
       <c r="E411" t="n">
-        <v>2819716000000</v>
+        <v>2821294000000</v>
       </c>
       <c r="F411" t="n">
-        <v>2819716000000</v>
+        <v>2821294000000</v>
       </c>
       <c r="G411" t="n">
         <v>0</v>
@@ -10736,16 +10736,16 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>2841646000000</v>
+        <v>2842039000000</v>
       </c>
       <c r="D412" t="n">
-        <v>2841646000000</v>
+        <v>2842039000000</v>
       </c>
       <c r="E412" t="n">
-        <v>2841646000000</v>
+        <v>2842039000000</v>
       </c>
       <c r="F412" t="n">
-        <v>2841646000000</v>
+        <v>2842039000000</v>
       </c>
       <c r="G412" t="n">
         <v>0</v>
@@ -10761,16 +10761,16 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>2855530000000</v>
+        <v>2858641000000</v>
       </c>
       <c r="D413" t="n">
-        <v>2855530000000</v>
+        <v>2858641000000</v>
       </c>
       <c r="E413" t="n">
-        <v>2855530000000</v>
+        <v>2858641000000</v>
       </c>
       <c r="F413" t="n">
-        <v>2855530000000</v>
+        <v>2858641000000</v>
       </c>
       <c r="G413" t="n">
         <v>0</v>
@@ -10786,16 +10786,16 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>2871786000000</v>
+        <v>2875661000000</v>
       </c>
       <c r="D414" t="n">
-        <v>2871786000000</v>
+        <v>2875661000000</v>
       </c>
       <c r="E414" t="n">
-        <v>2871786000000</v>
+        <v>2875661000000</v>
       </c>
       <c r="F414" t="n">
-        <v>2871786000000</v>
+        <v>2875661000000</v>
       </c>
       <c r="G414" t="n">
         <v>0</v>
@@ -10811,16 +10811,16 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>2864727000000</v>
+        <v>2871100000000</v>
       </c>
       <c r="D415" t="n">
-        <v>2864727000000</v>
+        <v>2871100000000</v>
       </c>
       <c r="E415" t="n">
-        <v>2864727000000</v>
+        <v>2871100000000</v>
       </c>
       <c r="F415" t="n">
-        <v>2864727000000</v>
+        <v>2871100000000</v>
       </c>
       <c r="G415" t="n">
         <v>0</v>
@@ -10836,16 +10836,16 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>2885838000000</v>
+        <v>2887669000000</v>
       </c>
       <c r="D416" t="n">
-        <v>2885838000000</v>
+        <v>2887669000000</v>
       </c>
       <c r="E416" t="n">
-        <v>2885838000000</v>
+        <v>2887669000000</v>
       </c>
       <c r="F416" t="n">
-        <v>2885838000000</v>
+        <v>2887669000000</v>
       </c>
       <c r="G416" t="n">
         <v>0</v>
@@ -10861,16 +10861,16 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>2894990000000</v>
+        <v>2891958000000</v>
       </c>
       <c r="D417" t="n">
-        <v>2894990000000</v>
+        <v>2891958000000</v>
       </c>
       <c r="E417" t="n">
-        <v>2894990000000</v>
+        <v>2891958000000</v>
       </c>
       <c r="F417" t="n">
-        <v>2894990000000</v>
+        <v>2891958000000</v>
       </c>
       <c r="G417" t="n">
         <v>0</v>
@@ -10886,16 +10886,16 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>2897494000000</v>
+        <v>2890725000000</v>
       </c>
       <c r="D418" t="n">
-        <v>2897494000000</v>
+        <v>2890725000000</v>
       </c>
       <c r="E418" t="n">
-        <v>2897494000000</v>
+        <v>2890725000000</v>
       </c>
       <c r="F418" t="n">
-        <v>2897494000000</v>
+        <v>2890725000000</v>
       </c>
       <c r="G418" t="n">
         <v>0</v>
@@ -10911,16 +10911,16 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>2937600000000</v>
+        <v>2933914000000</v>
       </c>
       <c r="D419" t="n">
-        <v>2937600000000</v>
+        <v>2933914000000</v>
       </c>
       <c r="E419" t="n">
-        <v>2937600000000</v>
+        <v>2933914000000</v>
       </c>
       <c r="F419" t="n">
-        <v>2937600000000</v>
+        <v>2933914000000</v>
       </c>
       <c r="G419" t="n">
         <v>0</v>
@@ -10936,16 +10936,16 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>2958555000000</v>
+        <v>2946119000000</v>
       </c>
       <c r="D420" t="n">
-        <v>2958555000000</v>
+        <v>2946119000000</v>
       </c>
       <c r="E420" t="n">
-        <v>2958555000000</v>
+        <v>2946119000000</v>
       </c>
       <c r="F420" t="n">
-        <v>2958555000000</v>
+        <v>2946119000000</v>
       </c>
       <c r="G420" t="n">
         <v>0</v>
@@ -10961,16 +10961,16 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>2977539000000</v>
+        <v>2967796000000</v>
       </c>
       <c r="D421" t="n">
-        <v>2977539000000</v>
+        <v>2967796000000</v>
       </c>
       <c r="E421" t="n">
-        <v>2977539000000</v>
+        <v>2967796000000</v>
       </c>
       <c r="F421" t="n">
-        <v>2977539000000</v>
+        <v>2967796000000</v>
       </c>
       <c r="G421" t="n">
         <v>0</v>
@@ -10986,16 +10986,16 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2983868000000</v>
+        <v>2979644000000</v>
       </c>
       <c r="D422" t="n">
-        <v>2983868000000</v>
+        <v>2979644000000</v>
       </c>
       <c r="E422" t="n">
-        <v>2983868000000</v>
+        <v>2979644000000</v>
       </c>
       <c r="F422" t="n">
-        <v>2983868000000</v>
+        <v>2979644000000</v>
       </c>
       <c r="G422" t="n">
         <v>0</v>
@@ -11011,16 +11011,16 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>2973269000000</v>
+        <v>2970964000000</v>
       </c>
       <c r="D423" t="n">
-        <v>2973269000000</v>
+        <v>2970964000000</v>
       </c>
       <c r="E423" t="n">
-        <v>2973269000000</v>
+        <v>2970964000000</v>
       </c>
       <c r="F423" t="n">
-        <v>2973269000000</v>
+        <v>2970964000000</v>
       </c>
       <c r="G423" t="n">
         <v>0</v>
@@ -11036,16 +11036,16 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>2993506000000</v>
+        <v>2986940000000</v>
       </c>
       <c r="D424" t="n">
-        <v>2993506000000</v>
+        <v>2986940000000</v>
       </c>
       <c r="E424" t="n">
-        <v>2993506000000</v>
+        <v>2986940000000</v>
       </c>
       <c r="F424" t="n">
-        <v>2993506000000</v>
+        <v>2986940000000</v>
       </c>
       <c r="G424" t="n">
         <v>0</v>
@@ -11061,16 +11061,16 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>3031444000000</v>
+        <v>3032968000000</v>
       </c>
       <c r="D425" t="n">
-        <v>3031444000000</v>
+        <v>3032968000000</v>
       </c>
       <c r="E425" t="n">
-        <v>3031444000000</v>
+        <v>3032968000000</v>
       </c>
       <c r="F425" t="n">
-        <v>3031444000000</v>
+        <v>3032968000000</v>
       </c>
       <c r="G425" t="n">
         <v>0</v>
@@ -11086,16 +11086,16 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>3037813000000</v>
+        <v>3040741000000</v>
       </c>
       <c r="D426" t="n">
-        <v>3037813000000</v>
+        <v>3040741000000</v>
       </c>
       <c r="E426" t="n">
-        <v>3037813000000</v>
+        <v>3040741000000</v>
       </c>
       <c r="F426" t="n">
-        <v>3037813000000</v>
+        <v>3040741000000</v>
       </c>
       <c r="G426" t="n">
         <v>0</v>
@@ -11111,16 +11111,16 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>3038313000000</v>
+        <v>3041169000000</v>
       </c>
       <c r="D427" t="n">
-        <v>3038313000000</v>
+        <v>3041169000000</v>
       </c>
       <c r="E427" t="n">
-        <v>3038313000000</v>
+        <v>3041169000000</v>
       </c>
       <c r="F427" t="n">
-        <v>3038313000000</v>
+        <v>3041169000000</v>
       </c>
       <c r="G427" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>3070326000000</v>
+        <v>3068315000000</v>
       </c>
       <c r="D428" t="n">
-        <v>3070326000000</v>
+        <v>3068315000000</v>
       </c>
       <c r="E428" t="n">
-        <v>3070326000000</v>
+        <v>3068315000000</v>
       </c>
       <c r="F428" t="n">
-        <v>3070326000000</v>
+        <v>3068315000000</v>
       </c>
       <c r="G428" t="n">
         <v>0</v>
@@ -11161,16 +11161,16 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>3082372000000</v>
+        <v>3076270000000</v>
       </c>
       <c r="D429" t="n">
-        <v>3082372000000</v>
+        <v>3076270000000</v>
       </c>
       <c r="E429" t="n">
-        <v>3082372000000</v>
+        <v>3076270000000</v>
       </c>
       <c r="F429" t="n">
-        <v>3082372000000</v>
+        <v>3076270000000</v>
       </c>
       <c r="G429" t="n">
         <v>0</v>
@@ -11186,16 +11186,16 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>3112903000000</v>
+        <v>3105687000000</v>
       </c>
       <c r="D430" t="n">
-        <v>3112903000000</v>
+        <v>3105687000000</v>
       </c>
       <c r="E430" t="n">
-        <v>3112903000000</v>
+        <v>3105687000000</v>
       </c>
       <c r="F430" t="n">
-        <v>3112903000000</v>
+        <v>3105687000000</v>
       </c>
       <c r="G430" t="n">
         <v>0</v>
@@ -11211,16 +11211,16 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>3213819000000</v>
+        <v>3218141000000</v>
       </c>
       <c r="D431" t="n">
-        <v>3213819000000</v>
+        <v>3218141000000</v>
       </c>
       <c r="E431" t="n">
-        <v>3213819000000</v>
+        <v>3218141000000</v>
       </c>
       <c r="F431" t="n">
-        <v>3213819000000</v>
+        <v>3218141000000</v>
       </c>
       <c r="G431" t="n">
         <v>0</v>
@@ -11236,16 +11236,16 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>3133801000000</v>
+        <v>3099604000000</v>
       </c>
       <c r="D432" t="n">
-        <v>3133801000000</v>
+        <v>3099604000000</v>
       </c>
       <c r="E432" t="n">
-        <v>3133801000000</v>
+        <v>3099604000000</v>
       </c>
       <c r="F432" t="n">
-        <v>3133801000000</v>
+        <v>3099604000000</v>
       </c>
       <c r="G432" t="n">
         <v>0</v>
@@ -11261,16 +11261,16 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>3097634000000</v>
+        <v>3096278000000</v>
       </c>
       <c r="D433" t="n">
-        <v>3097634000000</v>
+        <v>3096278000000</v>
       </c>
       <c r="E433" t="n">
-        <v>3097634000000</v>
+        <v>3096278000000</v>
       </c>
       <c r="F433" t="n">
-        <v>3097634000000</v>
+        <v>3096278000000</v>
       </c>
       <c r="G433" t="n">
         <v>0</v>
@@ -11286,16 +11286,16 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>3066368000000</v>
+        <v>3068065000000</v>
       </c>
       <c r="D434" t="n">
-        <v>3066368000000</v>
+        <v>3068065000000</v>
       </c>
       <c r="E434" t="n">
-        <v>3066368000000</v>
+        <v>3068065000000</v>
       </c>
       <c r="F434" t="n">
-        <v>3066368000000</v>
+        <v>3068065000000</v>
       </c>
       <c r="G434" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>3097286000000</v>
+        <v>3095353000000</v>
       </c>
       <c r="D435" t="n">
-        <v>3097286000000</v>
+        <v>3095353000000</v>
       </c>
       <c r="E435" t="n">
-        <v>3097286000000</v>
+        <v>3095353000000</v>
       </c>
       <c r="F435" t="n">
-        <v>3097286000000</v>
+        <v>3095353000000</v>
       </c>
       <c r="G435" t="n">
         <v>0</v>
@@ -11336,16 +11336,16 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>3100990000000</v>
+        <v>3096698000000</v>
       </c>
       <c r="D436" t="n">
-        <v>3100990000000</v>
+        <v>3096698000000</v>
       </c>
       <c r="E436" t="n">
-        <v>3100990000000</v>
+        <v>3096698000000</v>
       </c>
       <c r="F436" t="n">
-        <v>3100990000000</v>
+        <v>3096698000000</v>
       </c>
       <c r="G436" t="n">
         <v>0</v>
@@ -11361,16 +11361,16 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>3074346000000</v>
+        <v>3071723000000</v>
       </c>
       <c r="D437" t="n">
-        <v>3074346000000</v>
+        <v>3071723000000</v>
       </c>
       <c r="E437" t="n">
-        <v>3074346000000</v>
+        <v>3071723000000</v>
       </c>
       <c r="F437" t="n">
-        <v>3074346000000</v>
+        <v>3071723000000</v>
       </c>
       <c r="G437" t="n">
         <v>0</v>
@@ -11411,18 +11411,43 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>3061343000000</v>
+        <v>3058913000000</v>
       </c>
       <c r="D439" t="n">
-        <v>3061343000000</v>
+        <v>3058913000000</v>
       </c>
       <c r="E439" t="n">
-        <v>3061343000000</v>
+        <v>3058913000000</v>
       </c>
       <c r="F439" t="n">
-        <v>3061343000000</v>
+        <v>3058913000000</v>
       </c>
       <c r="G439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>ECONOMICS:GBM2</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>3045763000000</v>
+      </c>
+      <c r="D440" t="n">
+        <v>3045763000000</v>
+      </c>
+      <c r="E440" t="n">
+        <v>3045763000000</v>
+      </c>
+      <c r="F440" t="n">
+        <v>3045763000000</v>
+      </c>
+      <c r="G440" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/United Kingdom_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/United Kingdom_M2.xlsx
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>31868.45833333333</v>
+        <v>31868.41666666667</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>32234.45833333333</v>
+        <v>32234.41666666667</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>32599.45833333333</v>
+        <v>32599.41666666667</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>32782.45833333334</v>
+        <v>32782.41666666666</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>33329.45833333334</v>
+        <v>33329.41666666666</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>33664.45833333334</v>
+        <v>33664.41666666666</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>33695.45833333334</v>
+        <v>33695.41666666666</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>34060.45833333334</v>
+        <v>34060.41666666666</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>34425.45833333334</v>
+        <v>34425.41666666666</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>34790.45833333334</v>
+        <v>34790.41666666666</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>34973.45833333334</v>
+        <v>34973.41666666666</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/United Kingdom_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/United Kingdom_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G440"/>
+  <dimension ref="A1:G443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,16 +561,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>263525000000</v>
+        <v>263526000000</v>
       </c>
       <c r="D5" t="n">
-        <v>263525000000</v>
+        <v>263526000000</v>
       </c>
       <c r="E5" t="n">
-        <v>263525000000</v>
+        <v>263526000000</v>
       </c>
       <c r="F5" t="n">
-        <v>263525000000</v>
+        <v>263526000000</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -586,16 +586,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>267778000000</v>
+        <v>267779000000</v>
       </c>
       <c r="D6" t="n">
-        <v>267778000000</v>
+        <v>267779000000</v>
       </c>
       <c r="E6" t="n">
-        <v>267778000000</v>
+        <v>267779000000</v>
       </c>
       <c r="F6" t="n">
-        <v>267778000000</v>
+        <v>267779000000</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -611,16 +611,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>270680000000</v>
+        <v>270683000000</v>
       </c>
       <c r="D7" t="n">
-        <v>270680000000</v>
+        <v>270683000000</v>
       </c>
       <c r="E7" t="n">
-        <v>270680000000</v>
+        <v>270683000000</v>
       </c>
       <c r="F7" t="n">
-        <v>270680000000</v>
+        <v>270683000000</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -661,16 +661,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>277412000000</v>
+        <v>277415000000</v>
       </c>
       <c r="D9" t="n">
-        <v>277412000000</v>
+        <v>277415000000</v>
       </c>
       <c r="E9" t="n">
-        <v>277412000000</v>
+        <v>277415000000</v>
       </c>
       <c r="F9" t="n">
-        <v>277412000000</v>
+        <v>277415000000</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -686,16 +686,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>280135000000</v>
+        <v>280138000000</v>
       </c>
       <c r="D10" t="n">
-        <v>280135000000</v>
+        <v>280138000000</v>
       </c>
       <c r="E10" t="n">
-        <v>280135000000</v>
+        <v>280138000000</v>
       </c>
       <c r="F10" t="n">
-        <v>280135000000</v>
+        <v>280138000000</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -711,16 +711,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>281174000000</v>
+        <v>281171000000</v>
       </c>
       <c r="D11" t="n">
-        <v>281174000000</v>
+        <v>281171000000</v>
       </c>
       <c r="E11" t="n">
-        <v>281174000000</v>
+        <v>281171000000</v>
       </c>
       <c r="F11" t="n">
-        <v>281174000000</v>
+        <v>281171000000</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -736,16 +736,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>287018000000</v>
+        <v>287007000000</v>
       </c>
       <c r="D12" t="n">
-        <v>287018000000</v>
+        <v>287007000000</v>
       </c>
       <c r="E12" t="n">
-        <v>287018000000</v>
+        <v>287007000000</v>
       </c>
       <c r="F12" t="n">
-        <v>287018000000</v>
+        <v>287007000000</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -761,16 +761,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>289312000000</v>
+        <v>289314000000</v>
       </c>
       <c r="D13" t="n">
-        <v>289312000000</v>
+        <v>289314000000</v>
       </c>
       <c r="E13" t="n">
-        <v>289312000000</v>
+        <v>289314000000</v>
       </c>
       <c r="F13" t="n">
-        <v>289312000000</v>
+        <v>289314000000</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>291620000000</v>
+        <v>291622000000</v>
       </c>
       <c r="D14" t="n">
-        <v>291620000000</v>
+        <v>291622000000</v>
       </c>
       <c r="E14" t="n">
-        <v>291620000000</v>
+        <v>291622000000</v>
       </c>
       <c r="F14" t="n">
-        <v>291620000000</v>
+        <v>291622000000</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -811,16 +811,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>295118000000</v>
+        <v>295120000000</v>
       </c>
       <c r="D15" t="n">
-        <v>295118000000</v>
+        <v>295120000000</v>
       </c>
       <c r="E15" t="n">
-        <v>295118000000</v>
+        <v>295120000000</v>
       </c>
       <c r="F15" t="n">
-        <v>295118000000</v>
+        <v>295120000000</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>302568000000</v>
+        <v>302566000000</v>
       </c>
       <c r="D17" t="n">
-        <v>302568000000</v>
+        <v>302566000000</v>
       </c>
       <c r="E17" t="n">
-        <v>302568000000</v>
+        <v>302566000000</v>
       </c>
       <c r="F17" t="n">
-        <v>302568000000</v>
+        <v>302566000000</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -886,16 +886,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>304944000000</v>
+        <v>304945000000</v>
       </c>
       <c r="D18" t="n">
-        <v>304944000000</v>
+        <v>304945000000</v>
       </c>
       <c r="E18" t="n">
-        <v>304944000000</v>
+        <v>304945000000</v>
       </c>
       <c r="F18" t="n">
-        <v>304944000000</v>
+        <v>304945000000</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>307352000000</v>
+        <v>307356000000</v>
       </c>
       <c r="D19" t="n">
-        <v>307352000000</v>
+        <v>307356000000</v>
       </c>
       <c r="E19" t="n">
-        <v>307352000000</v>
+        <v>307356000000</v>
       </c>
       <c r="F19" t="n">
-        <v>307352000000</v>
+        <v>307356000000</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -936,16 +936,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>313693000000</v>
+        <v>313691000000</v>
       </c>
       <c r="D20" t="n">
-        <v>313693000000</v>
+        <v>313691000000</v>
       </c>
       <c r="E20" t="n">
-        <v>313693000000</v>
+        <v>313691000000</v>
       </c>
       <c r="F20" t="n">
-        <v>313693000000</v>
+        <v>313691000000</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>322998000000</v>
+        <v>322995000000</v>
       </c>
       <c r="D22" t="n">
-        <v>322998000000</v>
+        <v>322995000000</v>
       </c>
       <c r="E22" t="n">
-        <v>322998000000</v>
+        <v>322995000000</v>
       </c>
       <c r="F22" t="n">
-        <v>322998000000</v>
+        <v>322995000000</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1011,16 +1011,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>327792000000</v>
+        <v>327797000000</v>
       </c>
       <c r="D23" t="n">
-        <v>327792000000</v>
+        <v>327797000000</v>
       </c>
       <c r="E23" t="n">
-        <v>327792000000</v>
+        <v>327797000000</v>
       </c>
       <c r="F23" t="n">
-        <v>327792000000</v>
+        <v>327797000000</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1036,16 +1036,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>331929000000</v>
+        <v>331916000000</v>
       </c>
       <c r="D24" t="n">
-        <v>331929000000</v>
+        <v>331916000000</v>
       </c>
       <c r="E24" t="n">
-        <v>331929000000</v>
+        <v>331916000000</v>
       </c>
       <c r="F24" t="n">
-        <v>331929000000</v>
+        <v>331916000000</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>333292000000</v>
+        <v>333293000000</v>
       </c>
       <c r="D25" t="n">
-        <v>333292000000</v>
+        <v>333293000000</v>
       </c>
       <c r="E25" t="n">
-        <v>333292000000</v>
+        <v>333293000000</v>
       </c>
       <c r="F25" t="n">
-        <v>333292000000</v>
+        <v>333293000000</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1086,16 +1086,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>339315000000</v>
+        <v>339317000000</v>
       </c>
       <c r="D26" t="n">
-        <v>339315000000</v>
+        <v>339317000000</v>
       </c>
       <c r="E26" t="n">
-        <v>339315000000</v>
+        <v>339317000000</v>
       </c>
       <c r="F26" t="n">
-        <v>339315000000</v>
+        <v>339317000000</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>343458000000</v>
+        <v>343461000000</v>
       </c>
       <c r="D27" t="n">
-        <v>343458000000</v>
+        <v>343461000000</v>
       </c>
       <c r="E27" t="n">
-        <v>343458000000</v>
+        <v>343461000000</v>
       </c>
       <c r="F27" t="n">
-        <v>343458000000</v>
+        <v>343461000000</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>349706000000</v>
+        <v>349710000000</v>
       </c>
       <c r="D28" t="n">
-        <v>349706000000</v>
+        <v>349710000000</v>
       </c>
       <c r="E28" t="n">
-        <v>349706000000</v>
+        <v>349710000000</v>
       </c>
       <c r="F28" t="n">
-        <v>349706000000</v>
+        <v>349710000000</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1161,16 +1161,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>353731000000</v>
+        <v>353734000000</v>
       </c>
       <c r="D29" t="n">
-        <v>353731000000</v>
+        <v>353734000000</v>
       </c>
       <c r="E29" t="n">
-        <v>353731000000</v>
+        <v>353734000000</v>
       </c>
       <c r="F29" t="n">
-        <v>353731000000</v>
+        <v>353734000000</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>357398000000</v>
+        <v>357400000000</v>
       </c>
       <c r="D30" t="n">
-        <v>357398000000</v>
+        <v>357400000000</v>
       </c>
       <c r="E30" t="n">
-        <v>357398000000</v>
+        <v>357400000000</v>
       </c>
       <c r="F30" t="n">
-        <v>357398000000</v>
+        <v>357400000000</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>363831000000</v>
+        <v>363827000000</v>
       </c>
       <c r="D31" t="n">
-        <v>363831000000</v>
+        <v>363827000000</v>
       </c>
       <c r="E31" t="n">
-        <v>363831000000</v>
+        <v>363827000000</v>
       </c>
       <c r="F31" t="n">
-        <v>363831000000</v>
+        <v>363827000000</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1236,16 +1236,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>375182000000</v>
+        <v>375186000000</v>
       </c>
       <c r="D32" t="n">
-        <v>375182000000</v>
+        <v>375186000000</v>
       </c>
       <c r="E32" t="n">
-        <v>375182000000</v>
+        <v>375186000000</v>
       </c>
       <c r="F32" t="n">
-        <v>375182000000</v>
+        <v>375186000000</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1261,16 +1261,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>377388000000</v>
+        <v>377386000000</v>
       </c>
       <c r="D33" t="n">
-        <v>377388000000</v>
+        <v>377386000000</v>
       </c>
       <c r="E33" t="n">
-        <v>377388000000</v>
+        <v>377386000000</v>
       </c>
       <c r="F33" t="n">
-        <v>377388000000</v>
+        <v>377386000000</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>384841000000</v>
+        <v>384842000000</v>
       </c>
       <c r="D34" t="n">
-        <v>384841000000</v>
+        <v>384842000000</v>
       </c>
       <c r="E34" t="n">
-        <v>384841000000</v>
+        <v>384842000000</v>
       </c>
       <c r="F34" t="n">
-        <v>384841000000</v>
+        <v>384842000000</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1311,16 +1311,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>389500000000</v>
+        <v>389498000000</v>
       </c>
       <c r="D35" t="n">
-        <v>389500000000</v>
+        <v>389498000000</v>
       </c>
       <c r="E35" t="n">
-        <v>389500000000</v>
+        <v>389498000000</v>
       </c>
       <c r="F35" t="n">
-        <v>389500000000</v>
+        <v>389498000000</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>396239000000</v>
+        <v>396227000000</v>
       </c>
       <c r="D36" t="n">
-        <v>396239000000</v>
+        <v>396227000000</v>
       </c>
       <c r="E36" t="n">
-        <v>396239000000</v>
+        <v>396227000000</v>
       </c>
       <c r="F36" t="n">
-        <v>396239000000</v>
+        <v>396227000000</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1361,16 +1361,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>398328000000</v>
+        <v>398337000000</v>
       </c>
       <c r="D37" t="n">
-        <v>398328000000</v>
+        <v>398337000000</v>
       </c>
       <c r="E37" t="n">
-        <v>398328000000</v>
+        <v>398337000000</v>
       </c>
       <c r="F37" t="n">
-        <v>398328000000</v>
+        <v>398337000000</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1386,16 +1386,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>406221000000</v>
+        <v>406224000000</v>
       </c>
       <c r="D38" t="n">
-        <v>406221000000</v>
+        <v>406224000000</v>
       </c>
       <c r="E38" t="n">
-        <v>406221000000</v>
+        <v>406224000000</v>
       </c>
       <c r="F38" t="n">
-        <v>406221000000</v>
+        <v>406224000000</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1411,16 +1411,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>410998000000</v>
+        <v>410992000000</v>
       </c>
       <c r="D39" t="n">
-        <v>410998000000</v>
+        <v>410992000000</v>
       </c>
       <c r="E39" t="n">
-        <v>410998000000</v>
+        <v>410992000000</v>
       </c>
       <c r="F39" t="n">
-        <v>410998000000</v>
+        <v>410992000000</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1436,16 +1436,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>414453000000</v>
+        <v>414448000000</v>
       </c>
       <c r="D40" t="n">
-        <v>414453000000</v>
+        <v>414448000000</v>
       </c>
       <c r="E40" t="n">
-        <v>414453000000</v>
+        <v>414448000000</v>
       </c>
       <c r="F40" t="n">
-        <v>414453000000</v>
+        <v>414448000000</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1461,16 +1461,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>420826000000</v>
+        <v>420823000000</v>
       </c>
       <c r="D41" t="n">
-        <v>420826000000</v>
+        <v>420823000000</v>
       </c>
       <c r="E41" t="n">
-        <v>420826000000</v>
+        <v>420823000000</v>
       </c>
       <c r="F41" t="n">
-        <v>420826000000</v>
+        <v>420823000000</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1486,16 +1486,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>424388000000</v>
+        <v>424387000000</v>
       </c>
       <c r="D42" t="n">
-        <v>424388000000</v>
+        <v>424387000000</v>
       </c>
       <c r="E42" t="n">
-        <v>424388000000</v>
+        <v>424387000000</v>
       </c>
       <c r="F42" t="n">
-        <v>424388000000</v>
+        <v>424387000000</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>431386000000</v>
+        <v>431382000000</v>
       </c>
       <c r="D44" t="n">
-        <v>431386000000</v>
+        <v>431382000000</v>
       </c>
       <c r="E44" t="n">
-        <v>431386000000</v>
+        <v>431382000000</v>
       </c>
       <c r="F44" t="n">
-        <v>431386000000</v>
+        <v>431382000000</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1561,16 +1561,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>432274000000</v>
+        <v>432276000000</v>
       </c>
       <c r="D45" t="n">
-        <v>432274000000</v>
+        <v>432276000000</v>
       </c>
       <c r="E45" t="n">
-        <v>432274000000</v>
+        <v>432276000000</v>
       </c>
       <c r="F45" t="n">
-        <v>432274000000</v>
+        <v>432276000000</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1586,16 +1586,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>435024000000</v>
+        <v>435034000000</v>
       </c>
       <c r="D46" t="n">
-        <v>435024000000</v>
+        <v>435034000000</v>
       </c>
       <c r="E46" t="n">
-        <v>435024000000</v>
+        <v>435034000000</v>
       </c>
       <c r="F46" t="n">
-        <v>435024000000</v>
+        <v>435034000000</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1611,16 +1611,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>439582000000</v>
+        <v>439584000000</v>
       </c>
       <c r="D47" t="n">
-        <v>439582000000</v>
+        <v>439584000000</v>
       </c>
       <c r="E47" t="n">
-        <v>439582000000</v>
+        <v>439584000000</v>
       </c>
       <c r="F47" t="n">
-        <v>439582000000</v>
+        <v>439584000000</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1636,16 +1636,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>441307000000</v>
+        <v>441285000000</v>
       </c>
       <c r="D48" t="n">
-        <v>441307000000</v>
+        <v>441285000000</v>
       </c>
       <c r="E48" t="n">
-        <v>441307000000</v>
+        <v>441285000000</v>
       </c>
       <c r="F48" t="n">
-        <v>441307000000</v>
+        <v>441285000000</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1661,16 +1661,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>446449000000</v>
+        <v>446469000000</v>
       </c>
       <c r="D49" t="n">
-        <v>446449000000</v>
+        <v>446469000000</v>
       </c>
       <c r="E49" t="n">
-        <v>446449000000</v>
+        <v>446469000000</v>
       </c>
       <c r="F49" t="n">
-        <v>446449000000</v>
+        <v>446469000000</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1686,16 +1686,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>448146000000</v>
+        <v>448145000000</v>
       </c>
       <c r="D50" t="n">
-        <v>448146000000</v>
+        <v>448145000000</v>
       </c>
       <c r="E50" t="n">
-        <v>448146000000</v>
+        <v>448145000000</v>
       </c>
       <c r="F50" t="n">
-        <v>448146000000</v>
+        <v>448145000000</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>449344000000</v>
+        <v>449342000000</v>
       </c>
       <c r="D51" t="n">
-        <v>449344000000</v>
+        <v>449342000000</v>
       </c>
       <c r="E51" t="n">
-        <v>449344000000</v>
+        <v>449342000000</v>
       </c>
       <c r="F51" t="n">
-        <v>449344000000</v>
+        <v>449342000000</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1736,16 +1736,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>450873000000</v>
+        <v>450874000000</v>
       </c>
       <c r="D52" t="n">
-        <v>450873000000</v>
+        <v>450874000000</v>
       </c>
       <c r="E52" t="n">
-        <v>450873000000</v>
+        <v>450874000000</v>
       </c>
       <c r="F52" t="n">
-        <v>450873000000</v>
+        <v>450874000000</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1786,16 +1786,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>454555000000</v>
+        <v>454556000000</v>
       </c>
       <c r="D54" t="n">
-        <v>454555000000</v>
+        <v>454556000000</v>
       </c>
       <c r="E54" t="n">
-        <v>454555000000</v>
+        <v>454556000000</v>
       </c>
       <c r="F54" t="n">
-        <v>454555000000</v>
+        <v>454556000000</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1811,16 +1811,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>457272000000</v>
+        <v>457279000000</v>
       </c>
       <c r="D55" t="n">
-        <v>457272000000</v>
+        <v>457279000000</v>
       </c>
       <c r="E55" t="n">
-        <v>457272000000</v>
+        <v>457279000000</v>
       </c>
       <c r="F55" t="n">
-        <v>457272000000</v>
+        <v>457279000000</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1861,16 +1861,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>457924000000</v>
+        <v>457916000000</v>
       </c>
       <c r="D57" t="n">
-        <v>457924000000</v>
+        <v>457916000000</v>
       </c>
       <c r="E57" t="n">
-        <v>457924000000</v>
+        <v>457916000000</v>
       </c>
       <c r="F57" t="n">
-        <v>457924000000</v>
+        <v>457916000000</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>461685000000</v>
+        <v>461686000000</v>
       </c>
       <c r="D59" t="n">
-        <v>461685000000</v>
+        <v>461686000000</v>
       </c>
       <c r="E59" t="n">
-        <v>461685000000</v>
+        <v>461686000000</v>
       </c>
       <c r="F59" t="n">
-        <v>461685000000</v>
+        <v>461686000000</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1936,16 +1936,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>460857000000</v>
+        <v>460846000000</v>
       </c>
       <c r="D60" t="n">
-        <v>460857000000</v>
+        <v>460846000000</v>
       </c>
       <c r="E60" t="n">
-        <v>460857000000</v>
+        <v>460846000000</v>
       </c>
       <c r="F60" t="n">
-        <v>460857000000</v>
+        <v>460846000000</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1961,16 +1961,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>461192000000</v>
+        <v>461203000000</v>
       </c>
       <c r="D61" t="n">
-        <v>461192000000</v>
+        <v>461203000000</v>
       </c>
       <c r="E61" t="n">
-        <v>461192000000</v>
+        <v>461203000000</v>
       </c>
       <c r="F61" t="n">
-        <v>461192000000</v>
+        <v>461203000000</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1986,16 +1986,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>462474000000</v>
+        <v>462476000000</v>
       </c>
       <c r="D62" t="n">
-        <v>462474000000</v>
+        <v>462476000000</v>
       </c>
       <c r="E62" t="n">
-        <v>462474000000</v>
+        <v>462476000000</v>
       </c>
       <c r="F62" t="n">
-        <v>462474000000</v>
+        <v>462476000000</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>466039000000</v>
+        <v>466046000000</v>
       </c>
       <c r="D63" t="n">
-        <v>466039000000</v>
+        <v>466046000000</v>
       </c>
       <c r="E63" t="n">
-        <v>466039000000</v>
+        <v>466046000000</v>
       </c>
       <c r="F63" t="n">
-        <v>466039000000</v>
+        <v>466046000000</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2036,16 +2036,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>467522000000</v>
+        <v>467523000000</v>
       </c>
       <c r="D64" t="n">
-        <v>467522000000</v>
+        <v>467523000000</v>
       </c>
       <c r="E64" t="n">
-        <v>467522000000</v>
+        <v>467523000000</v>
       </c>
       <c r="F64" t="n">
-        <v>467522000000</v>
+        <v>467523000000</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>468671000000</v>
+        <v>468674000000</v>
       </c>
       <c r="D65" t="n">
-        <v>468671000000</v>
+        <v>468674000000</v>
       </c>
       <c r="E65" t="n">
-        <v>468671000000</v>
+        <v>468674000000</v>
       </c>
       <c r="F65" t="n">
-        <v>468671000000</v>
+        <v>468674000000</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>472022000000</v>
+        <v>472017000000</v>
       </c>
       <c r="D66" t="n">
-        <v>472022000000</v>
+        <v>472017000000</v>
       </c>
       <c r="E66" t="n">
-        <v>472022000000</v>
+        <v>472017000000</v>
       </c>
       <c r="F66" t="n">
-        <v>472022000000</v>
+        <v>472017000000</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2111,16 +2111,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>469326000000</v>
+        <v>469327000000</v>
       </c>
       <c r="D67" t="n">
-        <v>469326000000</v>
+        <v>469327000000</v>
       </c>
       <c r="E67" t="n">
-        <v>469326000000</v>
+        <v>469327000000</v>
       </c>
       <c r="F67" t="n">
-        <v>469326000000</v>
+        <v>469327000000</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2136,16 +2136,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>471818000000</v>
+        <v>471821000000</v>
       </c>
       <c r="D68" t="n">
-        <v>471818000000</v>
+        <v>471821000000</v>
       </c>
       <c r="E68" t="n">
-        <v>471818000000</v>
+        <v>471821000000</v>
       </c>
       <c r="F68" t="n">
-        <v>471818000000</v>
+        <v>471821000000</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2161,16 +2161,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>473207000000</v>
+        <v>473214000000</v>
       </c>
       <c r="D69" t="n">
-        <v>473207000000</v>
+        <v>473214000000</v>
       </c>
       <c r="E69" t="n">
-        <v>473207000000</v>
+        <v>473214000000</v>
       </c>
       <c r="F69" t="n">
-        <v>473207000000</v>
+        <v>473214000000</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2186,16 +2186,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>472158000000</v>
+        <v>472160000000</v>
       </c>
       <c r="D70" t="n">
-        <v>472158000000</v>
+        <v>472160000000</v>
       </c>
       <c r="E70" t="n">
-        <v>472158000000</v>
+        <v>472160000000</v>
       </c>
       <c r="F70" t="n">
-        <v>472158000000</v>
+        <v>472160000000</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2211,16 +2211,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>478016000000</v>
+        <v>478010000000</v>
       </c>
       <c r="D71" t="n">
-        <v>478016000000</v>
+        <v>478010000000</v>
       </c>
       <c r="E71" t="n">
-        <v>478016000000</v>
+        <v>478010000000</v>
       </c>
       <c r="F71" t="n">
-        <v>478016000000</v>
+        <v>478010000000</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>484458000000</v>
+        <v>484452000000</v>
       </c>
       <c r="D72" t="n">
-        <v>484458000000</v>
+        <v>484452000000</v>
       </c>
       <c r="E72" t="n">
-        <v>484458000000</v>
+        <v>484452000000</v>
       </c>
       <c r="F72" t="n">
-        <v>484458000000</v>
+        <v>484452000000</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2261,16 +2261,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>483067000000</v>
+        <v>483075000000</v>
       </c>
       <c r="D73" t="n">
-        <v>483067000000</v>
+        <v>483075000000</v>
       </c>
       <c r="E73" t="n">
-        <v>483067000000</v>
+        <v>483075000000</v>
       </c>
       <c r="F73" t="n">
-        <v>483067000000</v>
+        <v>483075000000</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>481596000000</v>
+        <v>481592000000</v>
       </c>
       <c r="D74" t="n">
-        <v>481596000000</v>
+        <v>481592000000</v>
       </c>
       <c r="E74" t="n">
-        <v>481596000000</v>
+        <v>481592000000</v>
       </c>
       <c r="F74" t="n">
-        <v>481596000000</v>
+        <v>481592000000</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2336,16 +2336,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>484041000000</v>
+        <v>484043000000</v>
       </c>
       <c r="D76" t="n">
-        <v>484041000000</v>
+        <v>484043000000</v>
       </c>
       <c r="E76" t="n">
-        <v>484041000000</v>
+        <v>484043000000</v>
       </c>
       <c r="F76" t="n">
-        <v>484041000000</v>
+        <v>484043000000</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2361,16 +2361,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>484433000000</v>
+        <v>484425000000</v>
       </c>
       <c r="D77" t="n">
-        <v>484433000000</v>
+        <v>484425000000</v>
       </c>
       <c r="E77" t="n">
-        <v>484433000000</v>
+        <v>484425000000</v>
       </c>
       <c r="F77" t="n">
-        <v>484433000000</v>
+        <v>484425000000</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2386,16 +2386,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>486469000000</v>
+        <v>486473000000</v>
       </c>
       <c r="D78" t="n">
-        <v>486469000000</v>
+        <v>486473000000</v>
       </c>
       <c r="E78" t="n">
-        <v>486469000000</v>
+        <v>486473000000</v>
       </c>
       <c r="F78" t="n">
-        <v>486469000000</v>
+        <v>486473000000</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2411,16 +2411,16 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>487062000000</v>
+        <v>487064000000</v>
       </c>
       <c r="D79" t="n">
-        <v>487062000000</v>
+        <v>487064000000</v>
       </c>
       <c r="E79" t="n">
-        <v>487062000000</v>
+        <v>487064000000</v>
       </c>
       <c r="F79" t="n">
-        <v>487062000000</v>
+        <v>487064000000</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2436,16 +2436,16 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>490077000000</v>
+        <v>490069000000</v>
       </c>
       <c r="D80" t="n">
-        <v>490077000000</v>
+        <v>490069000000</v>
       </c>
       <c r="E80" t="n">
-        <v>490077000000</v>
+        <v>490069000000</v>
       </c>
       <c r="F80" t="n">
-        <v>490077000000</v>
+        <v>490069000000</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2461,16 +2461,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>493309000000</v>
+        <v>493307000000</v>
       </c>
       <c r="D81" t="n">
-        <v>493309000000</v>
+        <v>493307000000</v>
       </c>
       <c r="E81" t="n">
-        <v>493309000000</v>
+        <v>493307000000</v>
       </c>
       <c r="F81" t="n">
-        <v>493309000000</v>
+        <v>493307000000</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2486,16 +2486,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>495733000000</v>
+        <v>495736000000</v>
       </c>
       <c r="D82" t="n">
-        <v>495733000000</v>
+        <v>495736000000</v>
       </c>
       <c r="E82" t="n">
-        <v>495733000000</v>
+        <v>495736000000</v>
       </c>
       <c r="F82" t="n">
-        <v>495733000000</v>
+        <v>495736000000</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2536,16 +2536,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>500927000000</v>
+        <v>500928000000</v>
       </c>
       <c r="D84" t="n">
-        <v>500927000000</v>
+        <v>500928000000</v>
       </c>
       <c r="E84" t="n">
-        <v>500927000000</v>
+        <v>500928000000</v>
       </c>
       <c r="F84" t="n">
-        <v>500927000000</v>
+        <v>500928000000</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>503892000000</v>
+        <v>503900000000</v>
       </c>
       <c r="D85" t="n">
-        <v>503892000000</v>
+        <v>503900000000</v>
       </c>
       <c r="E85" t="n">
-        <v>503892000000</v>
+        <v>503900000000</v>
       </c>
       <c r="F85" t="n">
-        <v>503892000000</v>
+        <v>503900000000</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2586,16 +2586,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>509210000000</v>
+        <v>509216000000</v>
       </c>
       <c r="D86" t="n">
-        <v>509210000000</v>
+        <v>509216000000</v>
       </c>
       <c r="E86" t="n">
-        <v>509210000000</v>
+        <v>509216000000</v>
       </c>
       <c r="F86" t="n">
-        <v>509210000000</v>
+        <v>509216000000</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>510037000000</v>
+        <v>510034000000</v>
       </c>
       <c r="D87" t="n">
-        <v>510037000000</v>
+        <v>510034000000</v>
       </c>
       <c r="E87" t="n">
-        <v>510037000000</v>
+        <v>510034000000</v>
       </c>
       <c r="F87" t="n">
-        <v>510037000000</v>
+        <v>510034000000</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2636,16 +2636,16 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>514263000000</v>
+        <v>514261000000</v>
       </c>
       <c r="D88" t="n">
-        <v>514263000000</v>
+        <v>514261000000</v>
       </c>
       <c r="E88" t="n">
-        <v>514263000000</v>
+        <v>514261000000</v>
       </c>
       <c r="F88" t="n">
-        <v>514263000000</v>
+        <v>514261000000</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>515860000000</v>
+        <v>515859000000</v>
       </c>
       <c r="D89" t="n">
-        <v>515860000000</v>
+        <v>515859000000</v>
       </c>
       <c r="E89" t="n">
-        <v>515860000000</v>
+        <v>515859000000</v>
       </c>
       <c r="F89" t="n">
-        <v>515860000000</v>
+        <v>515859000000</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2686,16 +2686,16 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>514461000000</v>
+        <v>514456000000</v>
       </c>
       <c r="D90" t="n">
-        <v>514461000000</v>
+        <v>514456000000</v>
       </c>
       <c r="E90" t="n">
-        <v>514461000000</v>
+        <v>514456000000</v>
       </c>
       <c r="F90" t="n">
-        <v>514461000000</v>
+        <v>514456000000</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2711,16 +2711,16 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>517715000000</v>
+        <v>517720000000</v>
       </c>
       <c r="D91" t="n">
-        <v>517715000000</v>
+        <v>517720000000</v>
       </c>
       <c r="E91" t="n">
-        <v>517715000000</v>
+        <v>517720000000</v>
       </c>
       <c r="F91" t="n">
-        <v>517715000000</v>
+        <v>517720000000</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -2736,16 +2736,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>517126000000</v>
+        <v>517125000000</v>
       </c>
       <c r="D92" t="n">
-        <v>517126000000</v>
+        <v>517125000000</v>
       </c>
       <c r="E92" t="n">
-        <v>517126000000</v>
+        <v>517125000000</v>
       </c>
       <c r="F92" t="n">
-        <v>517126000000</v>
+        <v>517125000000</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>516622000000</v>
+        <v>516624000000</v>
       </c>
       <c r="D93" t="n">
-        <v>516622000000</v>
+        <v>516624000000</v>
       </c>
       <c r="E93" t="n">
-        <v>516622000000</v>
+        <v>516624000000</v>
       </c>
       <c r="F93" t="n">
-        <v>516622000000</v>
+        <v>516624000000</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2786,16 +2786,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>518433000000</v>
+        <v>518423000000</v>
       </c>
       <c r="D94" t="n">
-        <v>518433000000</v>
+        <v>518423000000</v>
       </c>
       <c r="E94" t="n">
-        <v>518433000000</v>
+        <v>518423000000</v>
       </c>
       <c r="F94" t="n">
-        <v>518433000000</v>
+        <v>518423000000</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -2811,16 +2811,16 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>521855000000</v>
+        <v>521865000000</v>
       </c>
       <c r="D95" t="n">
-        <v>521855000000</v>
+        <v>521865000000</v>
       </c>
       <c r="E95" t="n">
-        <v>521855000000</v>
+        <v>521865000000</v>
       </c>
       <c r="F95" t="n">
-        <v>521855000000</v>
+        <v>521865000000</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>521392000000</v>
+        <v>521391000000</v>
       </c>
       <c r="D96" t="n">
-        <v>521392000000</v>
+        <v>521391000000</v>
       </c>
       <c r="E96" t="n">
-        <v>521392000000</v>
+        <v>521391000000</v>
       </c>
       <c r="F96" t="n">
-        <v>521392000000</v>
+        <v>521391000000</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -2861,16 +2861,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>524793000000</v>
+        <v>524786000000</v>
       </c>
       <c r="D97" t="n">
-        <v>524793000000</v>
+        <v>524786000000</v>
       </c>
       <c r="E97" t="n">
-        <v>524793000000</v>
+        <v>524786000000</v>
       </c>
       <c r="F97" t="n">
-        <v>524793000000</v>
+        <v>524786000000</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -2886,16 +2886,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>527181000000</v>
+        <v>527178000000</v>
       </c>
       <c r="D98" t="n">
-        <v>527181000000</v>
+        <v>527178000000</v>
       </c>
       <c r="E98" t="n">
-        <v>527181000000</v>
+        <v>527178000000</v>
       </c>
       <c r="F98" t="n">
-        <v>527181000000</v>
+        <v>527178000000</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -2911,16 +2911,16 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>529705000000</v>
+        <v>529708000000</v>
       </c>
       <c r="D99" t="n">
-        <v>529705000000</v>
+        <v>529708000000</v>
       </c>
       <c r="E99" t="n">
-        <v>529705000000</v>
+        <v>529708000000</v>
       </c>
       <c r="F99" t="n">
-        <v>529705000000</v>
+        <v>529708000000</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -2936,16 +2936,16 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>533748000000</v>
+        <v>533750000000</v>
       </c>
       <c r="D100" t="n">
-        <v>533748000000</v>
+        <v>533750000000</v>
       </c>
       <c r="E100" t="n">
-        <v>533748000000</v>
+        <v>533750000000</v>
       </c>
       <c r="F100" t="n">
-        <v>533748000000</v>
+        <v>533750000000</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>542868000000</v>
+        <v>542876000000</v>
       </c>
       <c r="D101" t="n">
-        <v>542868000000</v>
+        <v>542876000000</v>
       </c>
       <c r="E101" t="n">
-        <v>542868000000</v>
+        <v>542876000000</v>
       </c>
       <c r="F101" t="n">
-        <v>542868000000</v>
+        <v>542876000000</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -3011,16 +3011,16 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>546565000000</v>
+        <v>546560000000</v>
       </c>
       <c r="D103" t="n">
-        <v>546565000000</v>
+        <v>546560000000</v>
       </c>
       <c r="E103" t="n">
-        <v>546565000000</v>
+        <v>546560000000</v>
       </c>
       <c r="F103" t="n">
-        <v>546565000000</v>
+        <v>546560000000</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -3036,16 +3036,16 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>550525000000</v>
+        <v>550532000000</v>
       </c>
       <c r="D104" t="n">
-        <v>550525000000</v>
+        <v>550532000000</v>
       </c>
       <c r="E104" t="n">
-        <v>550525000000</v>
+        <v>550532000000</v>
       </c>
       <c r="F104" t="n">
-        <v>550525000000</v>
+        <v>550532000000</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>564095000000</v>
+        <v>564092000000</v>
       </c>
       <c r="D106" t="n">
-        <v>564095000000</v>
+        <v>564092000000</v>
       </c>
       <c r="E106" t="n">
-        <v>564095000000</v>
+        <v>564092000000</v>
       </c>
       <c r="F106" t="n">
-        <v>564095000000</v>
+        <v>564092000000</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -3111,16 +3111,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>568034000000</v>
+        <v>568035000000</v>
       </c>
       <c r="D107" t="n">
-        <v>568034000000</v>
+        <v>568035000000</v>
       </c>
       <c r="E107" t="n">
-        <v>568034000000</v>
+        <v>568035000000</v>
       </c>
       <c r="F107" t="n">
-        <v>568034000000</v>
+        <v>568035000000</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3136,16 +3136,16 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>573708000000</v>
+        <v>573711000000</v>
       </c>
       <c r="D108" t="n">
-        <v>573708000000</v>
+        <v>573711000000</v>
       </c>
       <c r="E108" t="n">
-        <v>573708000000</v>
+        <v>573711000000</v>
       </c>
       <c r="F108" t="n">
-        <v>573708000000</v>
+        <v>573711000000</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -3211,16 +3211,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>588649000000</v>
+        <v>588638000000</v>
       </c>
       <c r="D111" t="n">
-        <v>588649000000</v>
+        <v>588638000000</v>
       </c>
       <c r="E111" t="n">
-        <v>588649000000</v>
+        <v>588638000000</v>
       </c>
       <c r="F111" t="n">
-        <v>588649000000</v>
+        <v>588638000000</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -3236,16 +3236,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>591470000000</v>
+        <v>591466000000</v>
       </c>
       <c r="D112" t="n">
-        <v>591470000000</v>
+        <v>591466000000</v>
       </c>
       <c r="E112" t="n">
-        <v>591470000000</v>
+        <v>591466000000</v>
       </c>
       <c r="F112" t="n">
-        <v>591470000000</v>
+        <v>591466000000</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -3286,16 +3286,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>601041000000</v>
+        <v>601044000000</v>
       </c>
       <c r="D114" t="n">
-        <v>601041000000</v>
+        <v>601044000000</v>
       </c>
       <c r="E114" t="n">
-        <v>601041000000</v>
+        <v>601044000000</v>
       </c>
       <c r="F114" t="n">
-        <v>601041000000</v>
+        <v>601044000000</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -3311,16 +3311,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>601655000000</v>
+        <v>601672000000</v>
       </c>
       <c r="D115" t="n">
-        <v>601655000000</v>
+        <v>601672000000</v>
       </c>
       <c r="E115" t="n">
-        <v>601655000000</v>
+        <v>601672000000</v>
       </c>
       <c r="F115" t="n">
-        <v>601655000000</v>
+        <v>601672000000</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>610828000000</v>
+        <v>610827000000</v>
       </c>
       <c r="D116" t="n">
-        <v>610828000000</v>
+        <v>610827000000</v>
       </c>
       <c r="E116" t="n">
-        <v>610828000000</v>
+        <v>610827000000</v>
       </c>
       <c r="F116" t="n">
-        <v>610828000000</v>
+        <v>610827000000</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -3361,16 +3361,16 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>613606000000</v>
+        <v>613598000000</v>
       </c>
       <c r="D117" t="n">
-        <v>613606000000</v>
+        <v>613598000000</v>
       </c>
       <c r="E117" t="n">
-        <v>613606000000</v>
+        <v>613598000000</v>
       </c>
       <c r="F117" t="n">
-        <v>613606000000</v>
+        <v>613598000000</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -3386,16 +3386,16 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>617724000000</v>
+        <v>617720000000</v>
       </c>
       <c r="D118" t="n">
-        <v>617724000000</v>
+        <v>617720000000</v>
       </c>
       <c r="E118" t="n">
-        <v>617724000000</v>
+        <v>617720000000</v>
       </c>
       <c r="F118" t="n">
-        <v>617724000000</v>
+        <v>617720000000</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -3411,16 +3411,16 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>627413000000</v>
+        <v>627415000000</v>
       </c>
       <c r="D119" t="n">
-        <v>627413000000</v>
+        <v>627415000000</v>
       </c>
       <c r="E119" t="n">
-        <v>627413000000</v>
+        <v>627415000000</v>
       </c>
       <c r="F119" t="n">
-        <v>627413000000</v>
+        <v>627415000000</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -3436,16 +3436,16 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>627188000000</v>
+        <v>627185000000</v>
       </c>
       <c r="D120" t="n">
-        <v>627188000000</v>
+        <v>627185000000</v>
       </c>
       <c r="E120" t="n">
-        <v>627188000000</v>
+        <v>627185000000</v>
       </c>
       <c r="F120" t="n">
-        <v>627188000000</v>
+        <v>627185000000</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -3461,16 +3461,16 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>633338000000</v>
+        <v>633336000000</v>
       </c>
       <c r="D121" t="n">
-        <v>633338000000</v>
+        <v>633336000000</v>
       </c>
       <c r="E121" t="n">
-        <v>633338000000</v>
+        <v>633336000000</v>
       </c>
       <c r="F121" t="n">
-        <v>633338000000</v>
+        <v>633336000000</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -3486,16 +3486,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>637978000000</v>
+        <v>637982000000</v>
       </c>
       <c r="D122" t="n">
-        <v>637978000000</v>
+        <v>637982000000</v>
       </c>
       <c r="E122" t="n">
-        <v>637978000000</v>
+        <v>637982000000</v>
       </c>
       <c r="F122" t="n">
-        <v>637978000000</v>
+        <v>637982000000</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>648710000000</v>
+        <v>648719000000</v>
       </c>
       <c r="D123" t="n">
-        <v>648710000000</v>
+        <v>648719000000</v>
       </c>
       <c r="E123" t="n">
-        <v>648710000000</v>
+        <v>648719000000</v>
       </c>
       <c r="F123" t="n">
-        <v>648710000000</v>
+        <v>648719000000</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -3536,16 +3536,16 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>654773000000</v>
+        <v>654780000000</v>
       </c>
       <c r="D124" t="n">
-        <v>654773000000</v>
+        <v>654780000000</v>
       </c>
       <c r="E124" t="n">
-        <v>654773000000</v>
+        <v>654780000000</v>
       </c>
       <c r="F124" t="n">
-        <v>654773000000</v>
+        <v>654780000000</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -3561,16 +3561,16 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>659765000000</v>
+        <v>659762000000</v>
       </c>
       <c r="D125" t="n">
-        <v>659765000000</v>
+        <v>659762000000</v>
       </c>
       <c r="E125" t="n">
-        <v>659765000000</v>
+        <v>659762000000</v>
       </c>
       <c r="F125" t="n">
-        <v>659765000000</v>
+        <v>659762000000</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -3586,16 +3586,16 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>663261000000</v>
+        <v>663250000000</v>
       </c>
       <c r="D126" t="n">
-        <v>663261000000</v>
+        <v>663250000000</v>
       </c>
       <c r="E126" t="n">
-        <v>663261000000</v>
+        <v>663250000000</v>
       </c>
       <c r="F126" t="n">
-        <v>663261000000</v>
+        <v>663250000000</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -3611,16 +3611,16 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>669271000000</v>
+        <v>669276000000</v>
       </c>
       <c r="D127" t="n">
-        <v>669271000000</v>
+        <v>669276000000</v>
       </c>
       <c r="E127" t="n">
-        <v>669271000000</v>
+        <v>669276000000</v>
       </c>
       <c r="F127" t="n">
-        <v>669271000000</v>
+        <v>669276000000</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -3636,16 +3636,16 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>691887000000</v>
+        <v>691883000000</v>
       </c>
       <c r="D128" t="n">
-        <v>691887000000</v>
+        <v>691883000000</v>
       </c>
       <c r="E128" t="n">
-        <v>691887000000</v>
+        <v>691883000000</v>
       </c>
       <c r="F128" t="n">
-        <v>691887000000</v>
+        <v>691883000000</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -3661,16 +3661,16 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>697613000000</v>
+        <v>697612000000</v>
       </c>
       <c r="D129" t="n">
-        <v>697613000000</v>
+        <v>697612000000</v>
       </c>
       <c r="E129" t="n">
-        <v>697613000000</v>
+        <v>697612000000</v>
       </c>
       <c r="F129" t="n">
-        <v>697613000000</v>
+        <v>697612000000</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -3686,16 +3686,16 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>700574000000</v>
+        <v>700575000000</v>
       </c>
       <c r="D130" t="n">
-        <v>700574000000</v>
+        <v>700575000000</v>
       </c>
       <c r="E130" t="n">
-        <v>700574000000</v>
+        <v>700575000000</v>
       </c>
       <c r="F130" t="n">
-        <v>700574000000</v>
+        <v>700575000000</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>660511000000</v>
+        <v>660520000000</v>
       </c>
       <c r="D131" t="n">
-        <v>660511000000</v>
+        <v>660520000000</v>
       </c>
       <c r="E131" t="n">
-        <v>660511000000</v>
+        <v>660520000000</v>
       </c>
       <c r="F131" t="n">
-        <v>660511000000</v>
+        <v>660520000000</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -3736,16 +3736,16 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>680557000000</v>
+        <v>680566000000</v>
       </c>
       <c r="D132" t="n">
-        <v>680557000000</v>
+        <v>680566000000</v>
       </c>
       <c r="E132" t="n">
-        <v>680557000000</v>
+        <v>680566000000</v>
       </c>
       <c r="F132" t="n">
-        <v>680557000000</v>
+        <v>680566000000</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -3786,16 +3786,16 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>691536000000</v>
+        <v>691525000000</v>
       </c>
       <c r="D134" t="n">
-        <v>691536000000</v>
+        <v>691525000000</v>
       </c>
       <c r="E134" t="n">
-        <v>691536000000</v>
+        <v>691525000000</v>
       </c>
       <c r="F134" t="n">
-        <v>691536000000</v>
+        <v>691525000000</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -3811,16 +3811,16 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>693275000000</v>
+        <v>693271000000</v>
       </c>
       <c r="D135" t="n">
-        <v>693275000000</v>
+        <v>693271000000</v>
       </c>
       <c r="E135" t="n">
-        <v>693275000000</v>
+        <v>693271000000</v>
       </c>
       <c r="F135" t="n">
-        <v>693275000000</v>
+        <v>693271000000</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -3836,16 +3836,16 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>696661000000</v>
+        <v>696656000000</v>
       </c>
       <c r="D136" t="n">
-        <v>696661000000</v>
+        <v>696656000000</v>
       </c>
       <c r="E136" t="n">
-        <v>696661000000</v>
+        <v>696656000000</v>
       </c>
       <c r="F136" t="n">
-        <v>696661000000</v>
+        <v>696656000000</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -3861,16 +3861,16 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>700760000000</v>
+        <v>700764000000</v>
       </c>
       <c r="D137" t="n">
-        <v>700760000000</v>
+        <v>700764000000</v>
       </c>
       <c r="E137" t="n">
-        <v>700760000000</v>
+        <v>700764000000</v>
       </c>
       <c r="F137" t="n">
-        <v>700760000000</v>
+        <v>700764000000</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -3886,16 +3886,16 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>703334000000</v>
+        <v>703331000000</v>
       </c>
       <c r="D138" t="n">
-        <v>703334000000</v>
+        <v>703331000000</v>
       </c>
       <c r="E138" t="n">
-        <v>703334000000</v>
+        <v>703331000000</v>
       </c>
       <c r="F138" t="n">
-        <v>703334000000</v>
+        <v>703331000000</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -3911,16 +3911,16 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>706460000000</v>
+        <v>706471000000</v>
       </c>
       <c r="D139" t="n">
-        <v>706460000000</v>
+        <v>706471000000</v>
       </c>
       <c r="E139" t="n">
-        <v>706460000000</v>
+        <v>706471000000</v>
       </c>
       <c r="F139" t="n">
-        <v>706460000000</v>
+        <v>706471000000</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -3936,16 +3936,16 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>708285000000</v>
+        <v>708289000000</v>
       </c>
       <c r="D140" t="n">
-        <v>708285000000</v>
+        <v>708289000000</v>
       </c>
       <c r="E140" t="n">
-        <v>708285000000</v>
+        <v>708289000000</v>
       </c>
       <c r="F140" t="n">
-        <v>708285000000</v>
+        <v>708289000000</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -3961,16 +3961,16 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>713910000000</v>
+        <v>713922000000</v>
       </c>
       <c r="D141" t="n">
-        <v>713910000000</v>
+        <v>713922000000</v>
       </c>
       <c r="E141" t="n">
-        <v>713910000000</v>
+        <v>713922000000</v>
       </c>
       <c r="F141" t="n">
-        <v>713910000000</v>
+        <v>713922000000</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -3986,16 +3986,16 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>716631000000</v>
+        <v>716632000000</v>
       </c>
       <c r="D142" t="n">
-        <v>716631000000</v>
+        <v>716632000000</v>
       </c>
       <c r="E142" t="n">
-        <v>716631000000</v>
+        <v>716632000000</v>
       </c>
       <c r="F142" t="n">
-        <v>716631000000</v>
+        <v>716632000000</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -4011,16 +4011,16 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>722282000000</v>
+        <v>722274000000</v>
       </c>
       <c r="D143" t="n">
-        <v>722282000000</v>
+        <v>722274000000</v>
       </c>
       <c r="E143" t="n">
-        <v>722282000000</v>
+        <v>722274000000</v>
       </c>
       <c r="F143" t="n">
-        <v>722282000000</v>
+        <v>722274000000</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>726110000000</v>
+        <v>726106000000</v>
       </c>
       <c r="D144" t="n">
-        <v>726110000000</v>
+        <v>726106000000</v>
       </c>
       <c r="E144" t="n">
-        <v>726110000000</v>
+        <v>726106000000</v>
       </c>
       <c r="F144" t="n">
-        <v>726110000000</v>
+        <v>726106000000</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -4061,16 +4061,16 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>729033000000</v>
+        <v>729029000000</v>
       </c>
       <c r="D145" t="n">
-        <v>729033000000</v>
+        <v>729029000000</v>
       </c>
       <c r="E145" t="n">
-        <v>729033000000</v>
+        <v>729029000000</v>
       </c>
       <c r="F145" t="n">
-        <v>729033000000</v>
+        <v>729029000000</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -4086,16 +4086,16 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>732269000000</v>
+        <v>732268000000</v>
       </c>
       <c r="D146" t="n">
-        <v>732269000000</v>
+        <v>732268000000</v>
       </c>
       <c r="E146" t="n">
-        <v>732269000000</v>
+        <v>732268000000</v>
       </c>
       <c r="F146" t="n">
-        <v>732269000000</v>
+        <v>732268000000</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -4111,16 +4111,16 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>728216000000</v>
+        <v>728217000000</v>
       </c>
       <c r="D147" t="n">
-        <v>728216000000</v>
+        <v>728217000000</v>
       </c>
       <c r="E147" t="n">
-        <v>728216000000</v>
+        <v>728217000000</v>
       </c>
       <c r="F147" t="n">
-        <v>728216000000</v>
+        <v>728217000000</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
@@ -4136,16 +4136,16 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>730714000000</v>
+        <v>730712000000</v>
       </c>
       <c r="D148" t="n">
-        <v>730714000000</v>
+        <v>730712000000</v>
       </c>
       <c r="E148" t="n">
-        <v>730714000000</v>
+        <v>730712000000</v>
       </c>
       <c r="F148" t="n">
-        <v>730714000000</v>
+        <v>730712000000</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -4161,16 +4161,16 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>728468000000</v>
+        <v>728454000000</v>
       </c>
       <c r="D149" t="n">
-        <v>728468000000</v>
+        <v>728454000000</v>
       </c>
       <c r="E149" t="n">
-        <v>728468000000</v>
+        <v>728454000000</v>
       </c>
       <c r="F149" t="n">
-        <v>728468000000</v>
+        <v>728454000000</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -4186,16 +4186,16 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>734284000000</v>
+        <v>734294000000</v>
       </c>
       <c r="D150" t="n">
-        <v>734284000000</v>
+        <v>734294000000</v>
       </c>
       <c r="E150" t="n">
-        <v>734284000000</v>
+        <v>734294000000</v>
       </c>
       <c r="F150" t="n">
-        <v>734284000000</v>
+        <v>734294000000</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -4211,16 +4211,16 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>738281000000</v>
+        <v>738292000000</v>
       </c>
       <c r="D151" t="n">
-        <v>738281000000</v>
+        <v>738292000000</v>
       </c>
       <c r="E151" t="n">
-        <v>738281000000</v>
+        <v>738292000000</v>
       </c>
       <c r="F151" t="n">
-        <v>738281000000</v>
+        <v>738292000000</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -4236,16 +4236,16 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>742206000000</v>
+        <v>742193000000</v>
       </c>
       <c r="D152" t="n">
-        <v>742206000000</v>
+        <v>742193000000</v>
       </c>
       <c r="E152" t="n">
-        <v>742206000000</v>
+        <v>742193000000</v>
       </c>
       <c r="F152" t="n">
-        <v>742206000000</v>
+        <v>742193000000</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -4261,16 +4261,16 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>742956000000</v>
+        <v>742954000000</v>
       </c>
       <c r="D153" t="n">
-        <v>742956000000</v>
+        <v>742954000000</v>
       </c>
       <c r="E153" t="n">
-        <v>742956000000</v>
+        <v>742954000000</v>
       </c>
       <c r="F153" t="n">
-        <v>742956000000</v>
+        <v>742954000000</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -4286,16 +4286,16 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>743936000000</v>
+        <v>743940000000</v>
       </c>
       <c r="D154" t="n">
-        <v>743936000000</v>
+        <v>743940000000</v>
       </c>
       <c r="E154" t="n">
-        <v>743936000000</v>
+        <v>743940000000</v>
       </c>
       <c r="F154" t="n">
-        <v>743936000000</v>
+        <v>743940000000</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -4311,16 +4311,16 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>738153000000</v>
+        <v>738154000000</v>
       </c>
       <c r="D155" t="n">
-        <v>738153000000</v>
+        <v>738154000000</v>
       </c>
       <c r="E155" t="n">
-        <v>738153000000</v>
+        <v>738154000000</v>
       </c>
       <c r="F155" t="n">
-        <v>738153000000</v>
+        <v>738154000000</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -4336,16 +4336,16 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>741867000000</v>
+        <v>741868000000</v>
       </c>
       <c r="D156" t="n">
-        <v>741867000000</v>
+        <v>741868000000</v>
       </c>
       <c r="E156" t="n">
-        <v>741867000000</v>
+        <v>741868000000</v>
       </c>
       <c r="F156" t="n">
-        <v>741867000000</v>
+        <v>741868000000</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -4361,16 +4361,16 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>748108000000</v>
+        <v>748110000000</v>
       </c>
       <c r="D157" t="n">
-        <v>748108000000</v>
+        <v>748110000000</v>
       </c>
       <c r="E157" t="n">
-        <v>748108000000</v>
+        <v>748110000000</v>
       </c>
       <c r="F157" t="n">
-        <v>748108000000</v>
+        <v>748110000000</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -4386,16 +4386,16 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>754881000000</v>
+        <v>754894000000</v>
       </c>
       <c r="D158" t="n">
-        <v>754881000000</v>
+        <v>754894000000</v>
       </c>
       <c r="E158" t="n">
-        <v>754881000000</v>
+        <v>754894000000</v>
       </c>
       <c r="F158" t="n">
-        <v>754881000000</v>
+        <v>754894000000</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -4411,16 +4411,16 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>754976000000</v>
+        <v>754973000000</v>
       </c>
       <c r="D159" t="n">
-        <v>754976000000</v>
+        <v>754973000000</v>
       </c>
       <c r="E159" t="n">
-        <v>754976000000</v>
+        <v>754973000000</v>
       </c>
       <c r="F159" t="n">
-        <v>754976000000</v>
+        <v>754973000000</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -4436,16 +4436,16 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>762560000000</v>
+        <v>762561000000</v>
       </c>
       <c r="D160" t="n">
-        <v>762560000000</v>
+        <v>762561000000</v>
       </c>
       <c r="E160" t="n">
-        <v>762560000000</v>
+        <v>762561000000</v>
       </c>
       <c r="F160" t="n">
-        <v>762560000000</v>
+        <v>762561000000</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>765278000000</v>
+        <v>765290000000</v>
       </c>
       <c r="D161" t="n">
-        <v>765278000000</v>
+        <v>765290000000</v>
       </c>
       <c r="E161" t="n">
-        <v>765278000000</v>
+        <v>765290000000</v>
       </c>
       <c r="F161" t="n">
-        <v>765278000000</v>
+        <v>765290000000</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -4486,16 +4486,16 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>775478000000</v>
+        <v>775477000000</v>
       </c>
       <c r="D162" t="n">
-        <v>775478000000</v>
+        <v>775477000000</v>
       </c>
       <c r="E162" t="n">
-        <v>775478000000</v>
+        <v>775477000000</v>
       </c>
       <c r="F162" t="n">
-        <v>775478000000</v>
+        <v>775477000000</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -4511,16 +4511,16 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>786464000000</v>
+        <v>786459000000</v>
       </c>
       <c r="D163" t="n">
-        <v>786464000000</v>
+        <v>786459000000</v>
       </c>
       <c r="E163" t="n">
-        <v>786464000000</v>
+        <v>786459000000</v>
       </c>
       <c r="F163" t="n">
-        <v>786464000000</v>
+        <v>786459000000</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -4536,16 +4536,16 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>792285000000</v>
+        <v>792298000000</v>
       </c>
       <c r="D164" t="n">
-        <v>792285000000</v>
+        <v>792298000000</v>
       </c>
       <c r="E164" t="n">
-        <v>792285000000</v>
+        <v>792298000000</v>
       </c>
       <c r="F164" t="n">
-        <v>792285000000</v>
+        <v>792298000000</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -4561,16 +4561,16 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>793560000000</v>
+        <v>793562000000</v>
       </c>
       <c r="D165" t="n">
-        <v>793560000000</v>
+        <v>793562000000</v>
       </c>
       <c r="E165" t="n">
-        <v>793560000000</v>
+        <v>793562000000</v>
       </c>
       <c r="F165" t="n">
-        <v>793560000000</v>
+        <v>793562000000</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -4586,16 +4586,16 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>801124000000</v>
+        <v>801121000000</v>
       </c>
       <c r="D166" t="n">
-        <v>801124000000</v>
+        <v>801121000000</v>
       </c>
       <c r="E166" t="n">
-        <v>801124000000</v>
+        <v>801121000000</v>
       </c>
       <c r="F166" t="n">
-        <v>801124000000</v>
+        <v>801121000000</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -4611,16 +4611,16 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>804801000000</v>
+        <v>804800000000</v>
       </c>
       <c r="D167" t="n">
-        <v>804801000000</v>
+        <v>804800000000</v>
       </c>
       <c r="E167" t="n">
-        <v>804801000000</v>
+        <v>804800000000</v>
       </c>
       <c r="F167" t="n">
-        <v>804801000000</v>
+        <v>804800000000</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -4636,16 +4636,16 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>812457000000</v>
+        <v>812462000000</v>
       </c>
       <c r="D168" t="n">
-        <v>812457000000</v>
+        <v>812462000000</v>
       </c>
       <c r="E168" t="n">
-        <v>812457000000</v>
+        <v>812462000000</v>
       </c>
       <c r="F168" t="n">
-        <v>812457000000</v>
+        <v>812462000000</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
@@ -4661,16 +4661,16 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>816938000000</v>
+        <v>816932000000</v>
       </c>
       <c r="D169" t="n">
-        <v>816938000000</v>
+        <v>816932000000</v>
       </c>
       <c r="E169" t="n">
-        <v>816938000000</v>
+        <v>816932000000</v>
       </c>
       <c r="F169" t="n">
-        <v>816938000000</v>
+        <v>816932000000</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -4686,16 +4686,16 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>825923000000</v>
+        <v>825924000000</v>
       </c>
       <c r="D170" t="n">
-        <v>825923000000</v>
+        <v>825924000000</v>
       </c>
       <c r="E170" t="n">
-        <v>825923000000</v>
+        <v>825924000000</v>
       </c>
       <c r="F170" t="n">
-        <v>825923000000</v>
+        <v>825924000000</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -4711,16 +4711,16 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>834764000000</v>
+        <v>834749000000</v>
       </c>
       <c r="D171" t="n">
-        <v>834764000000</v>
+        <v>834749000000</v>
       </c>
       <c r="E171" t="n">
-        <v>834764000000</v>
+        <v>834749000000</v>
       </c>
       <c r="F171" t="n">
-        <v>834764000000</v>
+        <v>834749000000</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -4736,16 +4736,16 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>833802000000</v>
+        <v>833780000000</v>
       </c>
       <c r="D172" t="n">
-        <v>833802000000</v>
+        <v>833780000000</v>
       </c>
       <c r="E172" t="n">
-        <v>833802000000</v>
+        <v>833780000000</v>
       </c>
       <c r="F172" t="n">
-        <v>833802000000</v>
+        <v>833780000000</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -4761,16 +4761,16 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>848447000000</v>
+        <v>848444000000</v>
       </c>
       <c r="D173" t="n">
-        <v>848447000000</v>
+        <v>848444000000</v>
       </c>
       <c r="E173" t="n">
-        <v>848447000000</v>
+        <v>848444000000</v>
       </c>
       <c r="F173" t="n">
-        <v>848447000000</v>
+        <v>848444000000</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -4786,16 +4786,16 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>849640000000</v>
+        <v>849637000000</v>
       </c>
       <c r="D174" t="n">
-        <v>849640000000</v>
+        <v>849637000000</v>
       </c>
       <c r="E174" t="n">
-        <v>849640000000</v>
+        <v>849637000000</v>
       </c>
       <c r="F174" t="n">
-        <v>849640000000</v>
+        <v>849637000000</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -4811,16 +4811,16 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>850900000000</v>
+        <v>850902000000</v>
       </c>
       <c r="D175" t="n">
-        <v>850900000000</v>
+        <v>850902000000</v>
       </c>
       <c r="E175" t="n">
-        <v>850900000000</v>
+        <v>850902000000</v>
       </c>
       <c r="F175" t="n">
-        <v>850900000000</v>
+        <v>850902000000</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>852964000000</v>
+        <v>852962000000</v>
       </c>
       <c r="D176" t="n">
-        <v>852964000000</v>
+        <v>852962000000</v>
       </c>
       <c r="E176" t="n">
-        <v>852964000000</v>
+        <v>852962000000</v>
       </c>
       <c r="F176" t="n">
-        <v>852964000000</v>
+        <v>852962000000</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -4861,16 +4861,16 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>865098000000</v>
+        <v>865112000000</v>
       </c>
       <c r="D177" t="n">
-        <v>865098000000</v>
+        <v>865112000000</v>
       </c>
       <c r="E177" t="n">
-        <v>865098000000</v>
+        <v>865112000000</v>
       </c>
       <c r="F177" t="n">
-        <v>865098000000</v>
+        <v>865112000000</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -4886,16 +4886,16 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>867380000000</v>
+        <v>867394000000</v>
       </c>
       <c r="D178" t="n">
-        <v>867380000000</v>
+        <v>867394000000</v>
       </c>
       <c r="E178" t="n">
-        <v>867380000000</v>
+        <v>867394000000</v>
       </c>
       <c r="F178" t="n">
-        <v>867380000000</v>
+        <v>867394000000</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
@@ -4911,16 +4911,16 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>879928000000</v>
+        <v>879930000000</v>
       </c>
       <c r="D179" t="n">
-        <v>879928000000</v>
+        <v>879930000000</v>
       </c>
       <c r="E179" t="n">
-        <v>879928000000</v>
+        <v>879930000000</v>
       </c>
       <c r="F179" t="n">
-        <v>879928000000</v>
+        <v>879930000000</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>886058000000</v>
+        <v>886043000000</v>
       </c>
       <c r="D180" t="n">
-        <v>886058000000</v>
+        <v>886043000000</v>
       </c>
       <c r="E180" t="n">
-        <v>886058000000</v>
+        <v>886043000000</v>
       </c>
       <c r="F180" t="n">
-        <v>886058000000</v>
+        <v>886043000000</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -4961,16 +4961,16 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>887299000000</v>
+        <v>887309000000</v>
       </c>
       <c r="D181" t="n">
-        <v>887299000000</v>
+        <v>887309000000</v>
       </c>
       <c r="E181" t="n">
-        <v>887299000000</v>
+        <v>887309000000</v>
       </c>
       <c r="F181" t="n">
-        <v>887299000000</v>
+        <v>887309000000</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -4986,16 +4986,16 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>892092000000</v>
+        <v>892090000000</v>
       </c>
       <c r="D182" t="n">
-        <v>892092000000</v>
+        <v>892090000000</v>
       </c>
       <c r="E182" t="n">
-        <v>892092000000</v>
+        <v>892090000000</v>
       </c>
       <c r="F182" t="n">
-        <v>892092000000</v>
+        <v>892090000000</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -5011,16 +5011,16 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>885660000000</v>
+        <v>885655000000</v>
       </c>
       <c r="D183" t="n">
-        <v>885660000000</v>
+        <v>885655000000</v>
       </c>
       <c r="E183" t="n">
-        <v>885660000000</v>
+        <v>885655000000</v>
       </c>
       <c r="F183" t="n">
-        <v>885660000000</v>
+        <v>885655000000</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -5036,16 +5036,16 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>887715000000</v>
+        <v>887706000000</v>
       </c>
       <c r="D184" t="n">
-        <v>887715000000</v>
+        <v>887706000000</v>
       </c>
       <c r="E184" t="n">
-        <v>887715000000</v>
+        <v>887706000000</v>
       </c>
       <c r="F184" t="n">
-        <v>887715000000</v>
+        <v>887706000000</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -5061,16 +5061,16 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>892250000000</v>
+        <v>892254000000</v>
       </c>
       <c r="D185" t="n">
-        <v>892250000000</v>
+        <v>892254000000</v>
       </c>
       <c r="E185" t="n">
-        <v>892250000000</v>
+        <v>892254000000</v>
       </c>
       <c r="F185" t="n">
-        <v>892250000000</v>
+        <v>892254000000</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
@@ -5086,16 +5086,16 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>894430000000</v>
+        <v>894439000000</v>
       </c>
       <c r="D186" t="n">
-        <v>894430000000</v>
+        <v>894439000000</v>
       </c>
       <c r="E186" t="n">
-        <v>894430000000</v>
+        <v>894439000000</v>
       </c>
       <c r="F186" t="n">
-        <v>894430000000</v>
+        <v>894439000000</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
@@ -5111,16 +5111,16 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>899945000000</v>
+        <v>899955000000</v>
       </c>
       <c r="D187" t="n">
-        <v>899945000000</v>
+        <v>899955000000</v>
       </c>
       <c r="E187" t="n">
-        <v>899945000000</v>
+        <v>899955000000</v>
       </c>
       <c r="F187" t="n">
-        <v>899945000000</v>
+        <v>899955000000</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>903077000000</v>
+        <v>903085000000</v>
       </c>
       <c r="D188" t="n">
-        <v>903077000000</v>
+        <v>903085000000</v>
       </c>
       <c r="E188" t="n">
-        <v>903077000000</v>
+        <v>903085000000</v>
       </c>
       <c r="F188" t="n">
-        <v>903077000000</v>
+        <v>903085000000</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
@@ -5161,16 +5161,16 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>909219000000</v>
+        <v>909212000000</v>
       </c>
       <c r="D189" t="n">
-        <v>909219000000</v>
+        <v>909212000000</v>
       </c>
       <c r="E189" t="n">
-        <v>909219000000</v>
+        <v>909212000000</v>
       </c>
       <c r="F189" t="n">
-        <v>909219000000</v>
+        <v>909212000000</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
@@ -5186,16 +5186,16 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>917594000000</v>
+        <v>917589000000</v>
       </c>
       <c r="D190" t="n">
-        <v>917594000000</v>
+        <v>917589000000</v>
       </c>
       <c r="E190" t="n">
-        <v>917594000000</v>
+        <v>917589000000</v>
       </c>
       <c r="F190" t="n">
-        <v>917594000000</v>
+        <v>917589000000</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
@@ -5211,16 +5211,16 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>917418000000</v>
+        <v>917413000000</v>
       </c>
       <c r="D191" t="n">
-        <v>917418000000</v>
+        <v>917413000000</v>
       </c>
       <c r="E191" t="n">
-        <v>917418000000</v>
+        <v>917413000000</v>
       </c>
       <c r="F191" t="n">
-        <v>917418000000</v>
+        <v>917413000000</v>
       </c>
       <c r="G191" t="n">
         <v>0</v>
@@ -5236,16 +5236,16 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>927127000000</v>
+        <v>927123000000</v>
       </c>
       <c r="D192" t="n">
-        <v>927127000000</v>
+        <v>927123000000</v>
       </c>
       <c r="E192" t="n">
-        <v>927127000000</v>
+        <v>927123000000</v>
       </c>
       <c r="F192" t="n">
-        <v>927127000000</v>
+        <v>927123000000</v>
       </c>
       <c r="G192" t="n">
         <v>0</v>
@@ -5261,16 +5261,16 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>930599000000</v>
+        <v>930592000000</v>
       </c>
       <c r="D193" t="n">
-        <v>930599000000</v>
+        <v>930592000000</v>
       </c>
       <c r="E193" t="n">
-        <v>930599000000</v>
+        <v>930592000000</v>
       </c>
       <c r="F193" t="n">
-        <v>930599000000</v>
+        <v>930592000000</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -5286,16 +5286,16 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>932613000000</v>
+        <v>932620000000</v>
       </c>
       <c r="D194" t="n">
-        <v>932613000000</v>
+        <v>932620000000</v>
       </c>
       <c r="E194" t="n">
-        <v>932613000000</v>
+        <v>932620000000</v>
       </c>
       <c r="F194" t="n">
-        <v>932613000000</v>
+        <v>932620000000</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
@@ -5311,16 +5311,16 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>931975000000</v>
+        <v>931987000000</v>
       </c>
       <c r="D195" t="n">
-        <v>931975000000</v>
+        <v>931987000000</v>
       </c>
       <c r="E195" t="n">
-        <v>931975000000</v>
+        <v>931987000000</v>
       </c>
       <c r="F195" t="n">
-        <v>931975000000</v>
+        <v>931987000000</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
@@ -5336,16 +5336,16 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>943601000000</v>
+        <v>943611000000</v>
       </c>
       <c r="D196" t="n">
-        <v>943601000000</v>
+        <v>943611000000</v>
       </c>
       <c r="E196" t="n">
-        <v>943601000000</v>
+        <v>943611000000</v>
       </c>
       <c r="F196" t="n">
-        <v>943601000000</v>
+        <v>943611000000</v>
       </c>
       <c r="G196" t="n">
         <v>0</v>
@@ -5361,16 +5361,16 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>940321000000</v>
+        <v>940322000000</v>
       </c>
       <c r="D197" t="n">
-        <v>940321000000</v>
+        <v>940322000000</v>
       </c>
       <c r="E197" t="n">
-        <v>940321000000</v>
+        <v>940322000000</v>
       </c>
       <c r="F197" t="n">
-        <v>940321000000</v>
+        <v>940322000000</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
@@ -5386,16 +5386,16 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>947364000000</v>
+        <v>947353000000</v>
       </c>
       <c r="D198" t="n">
-        <v>947364000000</v>
+        <v>947353000000</v>
       </c>
       <c r="E198" t="n">
-        <v>947364000000</v>
+        <v>947353000000</v>
       </c>
       <c r="F198" t="n">
-        <v>947364000000</v>
+        <v>947353000000</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
@@ -5411,16 +5411,16 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>950862000000</v>
+        <v>950857000000</v>
       </c>
       <c r="D199" t="n">
-        <v>950862000000</v>
+        <v>950857000000</v>
       </c>
       <c r="E199" t="n">
-        <v>950862000000</v>
+        <v>950857000000</v>
       </c>
       <c r="F199" t="n">
-        <v>950862000000</v>
+        <v>950857000000</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
@@ -5436,16 +5436,16 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>958829000000</v>
+        <v>958832000000</v>
       </c>
       <c r="D200" t="n">
-        <v>958829000000</v>
+        <v>958832000000</v>
       </c>
       <c r="E200" t="n">
-        <v>958829000000</v>
+        <v>958832000000</v>
       </c>
       <c r="F200" t="n">
-        <v>958829000000</v>
+        <v>958832000000</v>
       </c>
       <c r="G200" t="n">
         <v>0</v>
@@ -5461,16 +5461,16 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>963655000000</v>
+        <v>963658000000</v>
       </c>
       <c r="D201" t="n">
-        <v>963655000000</v>
+        <v>963658000000</v>
       </c>
       <c r="E201" t="n">
-        <v>963655000000</v>
+        <v>963658000000</v>
       </c>
       <c r="F201" t="n">
-        <v>963655000000</v>
+        <v>963658000000</v>
       </c>
       <c r="G201" t="n">
         <v>0</v>
@@ -5511,16 +5511,16 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>971827000000</v>
+        <v>971829000000</v>
       </c>
       <c r="D203" t="n">
-        <v>971827000000</v>
+        <v>971829000000</v>
       </c>
       <c r="E203" t="n">
-        <v>971827000000</v>
+        <v>971829000000</v>
       </c>
       <c r="F203" t="n">
-        <v>971827000000</v>
+        <v>971829000000</v>
       </c>
       <c r="G203" t="n">
         <v>0</v>
@@ -5536,16 +5536,16 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>978301000000</v>
+        <v>978314000000</v>
       </c>
       <c r="D204" t="n">
-        <v>978301000000</v>
+        <v>978314000000</v>
       </c>
       <c r="E204" t="n">
-        <v>978301000000</v>
+        <v>978314000000</v>
       </c>
       <c r="F204" t="n">
-        <v>978301000000</v>
+        <v>978314000000</v>
       </c>
       <c r="G204" t="n">
         <v>0</v>
@@ -5586,16 +5586,16 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>997851000000</v>
+        <v>997834000000</v>
       </c>
       <c r="D206" t="n">
-        <v>997851000000</v>
+        <v>997834000000</v>
       </c>
       <c r="E206" t="n">
-        <v>997851000000</v>
+        <v>997834000000</v>
       </c>
       <c r="F206" t="n">
-        <v>997851000000</v>
+        <v>997834000000</v>
       </c>
       <c r="G206" t="n">
         <v>0</v>
@@ -5611,16 +5611,16 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1006978000000</v>
+        <v>1006973000000</v>
       </c>
       <c r="D207" t="n">
-        <v>1006978000000</v>
+        <v>1006973000000</v>
       </c>
       <c r="E207" t="n">
-        <v>1006978000000</v>
+        <v>1006973000000</v>
       </c>
       <c r="F207" t="n">
-        <v>1006978000000</v>
+        <v>1006973000000</v>
       </c>
       <c r="G207" t="n">
         <v>0</v>
@@ -5636,16 +5636,16 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1014085000000</v>
+        <v>1014084000000</v>
       </c>
       <c r="D208" t="n">
-        <v>1014085000000</v>
+        <v>1014084000000</v>
       </c>
       <c r="E208" t="n">
-        <v>1014085000000</v>
+        <v>1014084000000</v>
       </c>
       <c r="F208" t="n">
-        <v>1014085000000</v>
+        <v>1014084000000</v>
       </c>
       <c r="G208" t="n">
         <v>0</v>
@@ -5661,16 +5661,16 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1019859000000</v>
+        <v>1019846000000</v>
       </c>
       <c r="D209" t="n">
-        <v>1019859000000</v>
+        <v>1019846000000</v>
       </c>
       <c r="E209" t="n">
-        <v>1019859000000</v>
+        <v>1019846000000</v>
       </c>
       <c r="F209" t="n">
-        <v>1019859000000</v>
+        <v>1019846000000</v>
       </c>
       <c r="G209" t="n">
         <v>0</v>
@@ -5686,16 +5686,16 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1029044000000</v>
+        <v>1029067000000</v>
       </c>
       <c r="D210" t="n">
-        <v>1029044000000</v>
+        <v>1029067000000</v>
       </c>
       <c r="E210" t="n">
-        <v>1029044000000</v>
+        <v>1029067000000</v>
       </c>
       <c r="F210" t="n">
-        <v>1029044000000</v>
+        <v>1029067000000</v>
       </c>
       <c r="G210" t="n">
         <v>0</v>
@@ -5711,16 +5711,16 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1032543000000</v>
+        <v>1032545000000</v>
       </c>
       <c r="D211" t="n">
-        <v>1032543000000</v>
+        <v>1032545000000</v>
       </c>
       <c r="E211" t="n">
-        <v>1032543000000</v>
+        <v>1032545000000</v>
       </c>
       <c r="F211" t="n">
-        <v>1032543000000</v>
+        <v>1032545000000</v>
       </c>
       <c r="G211" t="n">
         <v>0</v>
@@ -5736,16 +5736,16 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1047513000000</v>
+        <v>1047502000000</v>
       </c>
       <c r="D212" t="n">
-        <v>1047513000000</v>
+        <v>1047502000000</v>
       </c>
       <c r="E212" t="n">
-        <v>1047513000000</v>
+        <v>1047502000000</v>
       </c>
       <c r="F212" t="n">
-        <v>1047513000000</v>
+        <v>1047502000000</v>
       </c>
       <c r="G212" t="n">
         <v>0</v>
@@ -5761,16 +5761,16 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1052837000000</v>
+        <v>1052836000000</v>
       </c>
       <c r="D213" t="n">
-        <v>1052837000000</v>
+        <v>1052836000000</v>
       </c>
       <c r="E213" t="n">
-        <v>1052837000000</v>
+        <v>1052836000000</v>
       </c>
       <c r="F213" t="n">
-        <v>1052837000000</v>
+        <v>1052836000000</v>
       </c>
       <c r="G213" t="n">
         <v>0</v>
@@ -5786,16 +5786,16 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1065074000000</v>
+        <v>1065079000000</v>
       </c>
       <c r="D214" t="n">
-        <v>1065074000000</v>
+        <v>1065079000000</v>
       </c>
       <c r="E214" t="n">
-        <v>1065074000000</v>
+        <v>1065079000000</v>
       </c>
       <c r="F214" t="n">
-        <v>1065074000000</v>
+        <v>1065079000000</v>
       </c>
       <c r="G214" t="n">
         <v>0</v>
@@ -5811,16 +5811,16 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1073345000000</v>
+        <v>1073336000000</v>
       </c>
       <c r="D215" t="n">
-        <v>1073345000000</v>
+        <v>1073336000000</v>
       </c>
       <c r="E215" t="n">
-        <v>1073345000000</v>
+        <v>1073336000000</v>
       </c>
       <c r="F215" t="n">
-        <v>1073345000000</v>
+        <v>1073336000000</v>
       </c>
       <c r="G215" t="n">
         <v>0</v>
@@ -5836,16 +5836,16 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1081834000000</v>
+        <v>1081830000000</v>
       </c>
       <c r="D216" t="n">
-        <v>1081834000000</v>
+        <v>1081830000000</v>
       </c>
       <c r="E216" t="n">
-        <v>1081834000000</v>
+        <v>1081830000000</v>
       </c>
       <c r="F216" t="n">
-        <v>1081834000000</v>
+        <v>1081830000000</v>
       </c>
       <c r="G216" t="n">
         <v>0</v>
@@ -5861,16 +5861,16 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>1093089000000</v>
+        <v>1093097000000</v>
       </c>
       <c r="D217" t="n">
-        <v>1093089000000</v>
+        <v>1093097000000</v>
       </c>
       <c r="E217" t="n">
-        <v>1093089000000</v>
+        <v>1093097000000</v>
       </c>
       <c r="F217" t="n">
-        <v>1093089000000</v>
+        <v>1093097000000</v>
       </c>
       <c r="G217" t="n">
         <v>0</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1097970000000</v>
+        <v>1097986000000</v>
       </c>
       <c r="D218" t="n">
-        <v>1097970000000</v>
+        <v>1097986000000</v>
       </c>
       <c r="E218" t="n">
-        <v>1097970000000</v>
+        <v>1097986000000</v>
       </c>
       <c r="F218" t="n">
-        <v>1097970000000</v>
+        <v>1097986000000</v>
       </c>
       <c r="G218" t="n">
         <v>0</v>
@@ -5911,16 +5911,16 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1109901000000</v>
+        <v>1109899000000</v>
       </c>
       <c r="D219" t="n">
-        <v>1109901000000</v>
+        <v>1109899000000</v>
       </c>
       <c r="E219" t="n">
-        <v>1109901000000</v>
+        <v>1109899000000</v>
       </c>
       <c r="F219" t="n">
-        <v>1109901000000</v>
+        <v>1109899000000</v>
       </c>
       <c r="G219" t="n">
         <v>0</v>
@@ -5936,16 +5936,16 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1114245000000</v>
+        <v>1114240000000</v>
       </c>
       <c r="D220" t="n">
-        <v>1114245000000</v>
+        <v>1114240000000</v>
       </c>
       <c r="E220" t="n">
-        <v>1114245000000</v>
+        <v>1114240000000</v>
       </c>
       <c r="F220" t="n">
-        <v>1114245000000</v>
+        <v>1114240000000</v>
       </c>
       <c r="G220" t="n">
         <v>0</v>
@@ -5986,16 +5986,16 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1140999000000</v>
+        <v>1141002000000</v>
       </c>
       <c r="D222" t="n">
-        <v>1140999000000</v>
+        <v>1141002000000</v>
       </c>
       <c r="E222" t="n">
-        <v>1140999000000</v>
+        <v>1141002000000</v>
       </c>
       <c r="F222" t="n">
-        <v>1140999000000</v>
+        <v>1141002000000</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
@@ -6011,16 +6011,16 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>1156686000000</v>
+        <v>1156696000000</v>
       </c>
       <c r="D223" t="n">
-        <v>1156686000000</v>
+        <v>1156696000000</v>
       </c>
       <c r="E223" t="n">
-        <v>1156686000000</v>
+        <v>1156696000000</v>
       </c>
       <c r="F223" t="n">
-        <v>1156686000000</v>
+        <v>1156696000000</v>
       </c>
       <c r="G223" t="n">
         <v>0</v>
@@ -6036,16 +6036,16 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>1163944000000</v>
+        <v>1163947000000</v>
       </c>
       <c r="D224" t="n">
-        <v>1163944000000</v>
+        <v>1163947000000</v>
       </c>
       <c r="E224" t="n">
-        <v>1163944000000</v>
+        <v>1163947000000</v>
       </c>
       <c r="F224" t="n">
-        <v>1163944000000</v>
+        <v>1163947000000</v>
       </c>
       <c r="G224" t="n">
         <v>0</v>
@@ -6061,16 +6061,16 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1176813000000</v>
+        <v>1176816000000</v>
       </c>
       <c r="D225" t="n">
-        <v>1176813000000</v>
+        <v>1176816000000</v>
       </c>
       <c r="E225" t="n">
-        <v>1176813000000</v>
+        <v>1176816000000</v>
       </c>
       <c r="F225" t="n">
-        <v>1176813000000</v>
+        <v>1176816000000</v>
       </c>
       <c r="G225" t="n">
         <v>0</v>
@@ -6086,16 +6086,16 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>1173350000000</v>
+        <v>1173328000000</v>
       </c>
       <c r="D226" t="n">
-        <v>1173350000000</v>
+        <v>1173328000000</v>
       </c>
       <c r="E226" t="n">
-        <v>1173350000000</v>
+        <v>1173328000000</v>
       </c>
       <c r="F226" t="n">
-        <v>1173350000000</v>
+        <v>1173328000000</v>
       </c>
       <c r="G226" t="n">
         <v>0</v>
@@ -6111,16 +6111,16 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1192996000000</v>
+        <v>1193005000000</v>
       </c>
       <c r="D227" t="n">
-        <v>1192996000000</v>
+        <v>1193005000000</v>
       </c>
       <c r="E227" t="n">
-        <v>1192996000000</v>
+        <v>1193005000000</v>
       </c>
       <c r="F227" t="n">
-        <v>1192996000000</v>
+        <v>1193005000000</v>
       </c>
       <c r="G227" t="n">
         <v>0</v>
@@ -6136,16 +6136,16 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1202450000000</v>
+        <v>1202441000000</v>
       </c>
       <c r="D228" t="n">
-        <v>1202450000000</v>
+        <v>1202441000000</v>
       </c>
       <c r="E228" t="n">
-        <v>1202450000000</v>
+        <v>1202441000000</v>
       </c>
       <c r="F228" t="n">
-        <v>1202450000000</v>
+        <v>1202441000000</v>
       </c>
       <c r="G228" t="n">
         <v>0</v>
@@ -6161,16 +6161,16 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>1212721000000</v>
+        <v>1212700000000</v>
       </c>
       <c r="D229" t="n">
-        <v>1212721000000</v>
+        <v>1212700000000</v>
       </c>
       <c r="E229" t="n">
-        <v>1212721000000</v>
+        <v>1212700000000</v>
       </c>
       <c r="F229" t="n">
-        <v>1212721000000</v>
+        <v>1212700000000</v>
       </c>
       <c r="G229" t="n">
         <v>0</v>
@@ -6186,16 +6186,16 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>1226957000000</v>
+        <v>1226950000000</v>
       </c>
       <c r="D230" t="n">
-        <v>1226957000000</v>
+        <v>1226950000000</v>
       </c>
       <c r="E230" t="n">
-        <v>1226957000000</v>
+        <v>1226950000000</v>
       </c>
       <c r="F230" t="n">
-        <v>1226957000000</v>
+        <v>1226950000000</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
@@ -6211,16 +6211,16 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>1233048000000</v>
+        <v>1233062000000</v>
       </c>
       <c r="D231" t="n">
-        <v>1233048000000</v>
+        <v>1233062000000</v>
       </c>
       <c r="E231" t="n">
-        <v>1233048000000</v>
+        <v>1233062000000</v>
       </c>
       <c r="F231" t="n">
-        <v>1233048000000</v>
+        <v>1233062000000</v>
       </c>
       <c r="G231" t="n">
         <v>0</v>
@@ -6236,16 +6236,16 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1252304000000</v>
+        <v>1252313000000</v>
       </c>
       <c r="D232" t="n">
-        <v>1252304000000</v>
+        <v>1252313000000</v>
       </c>
       <c r="E232" t="n">
-        <v>1252304000000</v>
+        <v>1252313000000</v>
       </c>
       <c r="F232" t="n">
-        <v>1252304000000</v>
+        <v>1252313000000</v>
       </c>
       <c r="G232" t="n">
         <v>0</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1261536000000</v>
+        <v>1261558000000</v>
       </c>
       <c r="D233" t="n">
-        <v>1261536000000</v>
+        <v>1261558000000</v>
       </c>
       <c r="E233" t="n">
-        <v>1261536000000</v>
+        <v>1261558000000</v>
       </c>
       <c r="F233" t="n">
-        <v>1261536000000</v>
+        <v>1261558000000</v>
       </c>
       <c r="G233" t="n">
         <v>0</v>
@@ -6286,16 +6286,16 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1275554000000</v>
+        <v>1275564000000</v>
       </c>
       <c r="D234" t="n">
-        <v>1275554000000</v>
+        <v>1275564000000</v>
       </c>
       <c r="E234" t="n">
-        <v>1275554000000</v>
+        <v>1275564000000</v>
       </c>
       <c r="F234" t="n">
-        <v>1275554000000</v>
+        <v>1275564000000</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -6311,16 +6311,16 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1279377000000</v>
+        <v>1279359000000</v>
       </c>
       <c r="D235" t="n">
-        <v>1279377000000</v>
+        <v>1279359000000</v>
       </c>
       <c r="E235" t="n">
-        <v>1279377000000</v>
+        <v>1279359000000</v>
       </c>
       <c r="F235" t="n">
-        <v>1279377000000</v>
+        <v>1279359000000</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -6336,16 +6336,16 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1297903000000</v>
+        <v>1297929000000</v>
       </c>
       <c r="D236" t="n">
-        <v>1297903000000</v>
+        <v>1297929000000</v>
       </c>
       <c r="E236" t="n">
-        <v>1297903000000</v>
+        <v>1297929000000</v>
       </c>
       <c r="F236" t="n">
-        <v>1297903000000</v>
+        <v>1297929000000</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -6361,16 +6361,16 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1310728000000</v>
+        <v>1310723000000</v>
       </c>
       <c r="D237" t="n">
-        <v>1310728000000</v>
+        <v>1310723000000</v>
       </c>
       <c r="E237" t="n">
-        <v>1310728000000</v>
+        <v>1310723000000</v>
       </c>
       <c r="F237" t="n">
-        <v>1310728000000</v>
+        <v>1310723000000</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -6386,16 +6386,16 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1321901000000</v>
+        <v>1321893000000</v>
       </c>
       <c r="D238" t="n">
-        <v>1321901000000</v>
+        <v>1321893000000</v>
       </c>
       <c r="E238" t="n">
-        <v>1321901000000</v>
+        <v>1321893000000</v>
       </c>
       <c r="F238" t="n">
-        <v>1321901000000</v>
+        <v>1321893000000</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -6411,16 +6411,16 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>1340630000000</v>
+        <v>1340612000000</v>
       </c>
       <c r="D239" t="n">
-        <v>1340630000000</v>
+        <v>1340612000000</v>
       </c>
       <c r="E239" t="n">
-        <v>1340630000000</v>
+        <v>1340612000000</v>
       </c>
       <c r="F239" t="n">
-        <v>1340630000000</v>
+        <v>1340612000000</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -6436,16 +6436,16 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1362172000000</v>
+        <v>1362179000000</v>
       </c>
       <c r="D240" t="n">
-        <v>1362172000000</v>
+        <v>1362179000000</v>
       </c>
       <c r="E240" t="n">
-        <v>1362172000000</v>
+        <v>1362179000000</v>
       </c>
       <c r="F240" t="n">
-        <v>1362172000000</v>
+        <v>1362179000000</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -6461,16 +6461,16 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1373474000000</v>
+        <v>1373469000000</v>
       </c>
       <c r="D241" t="n">
-        <v>1373474000000</v>
+        <v>1373469000000</v>
       </c>
       <c r="E241" t="n">
-        <v>1373474000000</v>
+        <v>1373469000000</v>
       </c>
       <c r="F241" t="n">
-        <v>1373474000000</v>
+        <v>1373469000000</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
@@ -6511,16 +6511,16 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1400702000000</v>
+        <v>1400685000000</v>
       </c>
       <c r="D243" t="n">
-        <v>1400702000000</v>
+        <v>1400685000000</v>
       </c>
       <c r="E243" t="n">
-        <v>1400702000000</v>
+        <v>1400685000000</v>
       </c>
       <c r="F243" t="n">
-        <v>1400702000000</v>
+        <v>1400685000000</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -6536,16 +6536,16 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>1419772000000</v>
+        <v>1419749000000</v>
       </c>
       <c r="D244" t="n">
-        <v>1419772000000</v>
+        <v>1419749000000</v>
       </c>
       <c r="E244" t="n">
-        <v>1419772000000</v>
+        <v>1419749000000</v>
       </c>
       <c r="F244" t="n">
-        <v>1419772000000</v>
+        <v>1419749000000</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -6561,16 +6561,16 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1441541000000</v>
+        <v>1441536000000</v>
       </c>
       <c r="D245" t="n">
-        <v>1441541000000</v>
+        <v>1441536000000</v>
       </c>
       <c r="E245" t="n">
-        <v>1441541000000</v>
+        <v>1441536000000</v>
       </c>
       <c r="F245" t="n">
-        <v>1441541000000</v>
+        <v>1441536000000</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -6586,16 +6586,16 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1458997000000</v>
+        <v>1459002000000</v>
       </c>
       <c r="D246" t="n">
-        <v>1458997000000</v>
+        <v>1459002000000</v>
       </c>
       <c r="E246" t="n">
-        <v>1458997000000</v>
+        <v>1459002000000</v>
       </c>
       <c r="F246" t="n">
-        <v>1458997000000</v>
+        <v>1459002000000</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
@@ -6611,16 +6611,16 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1480565000000</v>
+        <v>1480566000000</v>
       </c>
       <c r="D247" t="n">
-        <v>1480565000000</v>
+        <v>1480566000000</v>
       </c>
       <c r="E247" t="n">
-        <v>1480565000000</v>
+        <v>1480566000000</v>
       </c>
       <c r="F247" t="n">
-        <v>1480565000000</v>
+        <v>1480566000000</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -6636,16 +6636,16 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1498321000000</v>
+        <v>1498320000000</v>
       </c>
       <c r="D248" t="n">
-        <v>1498321000000</v>
+        <v>1498320000000</v>
       </c>
       <c r="E248" t="n">
-        <v>1498321000000</v>
+        <v>1498320000000</v>
       </c>
       <c r="F248" t="n">
-        <v>1498321000000</v>
+        <v>1498320000000</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
@@ -6661,16 +6661,16 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>1512968000000</v>
+        <v>1512976000000</v>
       </c>
       <c r="D249" t="n">
-        <v>1512968000000</v>
+        <v>1512976000000</v>
       </c>
       <c r="E249" t="n">
-        <v>1512968000000</v>
+        <v>1512976000000</v>
       </c>
       <c r="F249" t="n">
-        <v>1512968000000</v>
+        <v>1512976000000</v>
       </c>
       <c r="G249" t="n">
         <v>0</v>
@@ -6686,16 +6686,16 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>1538846000000</v>
+        <v>1538862000000</v>
       </c>
       <c r="D250" t="n">
-        <v>1538846000000</v>
+        <v>1538862000000</v>
       </c>
       <c r="E250" t="n">
-        <v>1538846000000</v>
+        <v>1538862000000</v>
       </c>
       <c r="F250" t="n">
-        <v>1538846000000</v>
+        <v>1538862000000</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
@@ -6711,16 +6711,16 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>1538697000000</v>
+        <v>1538690000000</v>
       </c>
       <c r="D251" t="n">
-        <v>1538697000000</v>
+        <v>1538690000000</v>
       </c>
       <c r="E251" t="n">
-        <v>1538697000000</v>
+        <v>1538690000000</v>
       </c>
       <c r="F251" t="n">
-        <v>1538697000000</v>
+        <v>1538690000000</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -6736,16 +6736,16 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1529352000000</v>
+        <v>1529328000000</v>
       </c>
       <c r="D252" t="n">
-        <v>1529352000000</v>
+        <v>1529328000000</v>
       </c>
       <c r="E252" t="n">
-        <v>1529352000000</v>
+        <v>1529328000000</v>
       </c>
       <c r="F252" t="n">
-        <v>1529352000000</v>
+        <v>1529328000000</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
@@ -6761,16 +6761,16 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>1539713000000</v>
+        <v>1539735000000</v>
       </c>
       <c r="D253" t="n">
-        <v>1539713000000</v>
+        <v>1539735000000</v>
       </c>
       <c r="E253" t="n">
-        <v>1539713000000</v>
+        <v>1539735000000</v>
       </c>
       <c r="F253" t="n">
-        <v>1539713000000</v>
+        <v>1539735000000</v>
       </c>
       <c r="G253" t="n">
         <v>0</v>
@@ -6786,16 +6786,16 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1552882000000</v>
+        <v>1552875000000</v>
       </c>
       <c r="D254" t="n">
-        <v>1552882000000</v>
+        <v>1552875000000</v>
       </c>
       <c r="E254" t="n">
-        <v>1552882000000</v>
+        <v>1552875000000</v>
       </c>
       <c r="F254" t="n">
-        <v>1552882000000</v>
+        <v>1552875000000</v>
       </c>
       <c r="G254" t="n">
         <v>0</v>
@@ -6811,16 +6811,16 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1614640000000</v>
+        <v>1614644000000</v>
       </c>
       <c r="D255" t="n">
-        <v>1614640000000</v>
+        <v>1614644000000</v>
       </c>
       <c r="E255" t="n">
-        <v>1614640000000</v>
+        <v>1614644000000</v>
       </c>
       <c r="F255" t="n">
-        <v>1614640000000</v>
+        <v>1614644000000</v>
       </c>
       <c r="G255" t="n">
         <v>0</v>
@@ -6836,16 +6836,16 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1619403000000</v>
+        <v>1619432000000</v>
       </c>
       <c r="D256" t="n">
-        <v>1619403000000</v>
+        <v>1619432000000</v>
       </c>
       <c r="E256" t="n">
-        <v>1619403000000</v>
+        <v>1619432000000</v>
       </c>
       <c r="F256" t="n">
-        <v>1619403000000</v>
+        <v>1619432000000</v>
       </c>
       <c r="G256" t="n">
         <v>0</v>
@@ -6861,16 +6861,16 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1642425000000</v>
+        <v>1642420000000</v>
       </c>
       <c r="D257" t="n">
-        <v>1642425000000</v>
+        <v>1642420000000</v>
       </c>
       <c r="E257" t="n">
-        <v>1642425000000</v>
+        <v>1642420000000</v>
       </c>
       <c r="F257" t="n">
-        <v>1642425000000</v>
+        <v>1642420000000</v>
       </c>
       <c r="G257" t="n">
         <v>0</v>
@@ -6886,16 +6886,16 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>1653904000000</v>
+        <v>1653886000000</v>
       </c>
       <c r="D258" t="n">
-        <v>1653904000000</v>
+        <v>1653886000000</v>
       </c>
       <c r="E258" t="n">
-        <v>1653904000000</v>
+        <v>1653886000000</v>
       </c>
       <c r="F258" t="n">
-        <v>1653904000000</v>
+        <v>1653886000000</v>
       </c>
       <c r="G258" t="n">
         <v>0</v>
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1659319000000</v>
+        <v>1659316000000</v>
       </c>
       <c r="D259" t="n">
-        <v>1659319000000</v>
+        <v>1659316000000</v>
       </c>
       <c r="E259" t="n">
-        <v>1659319000000</v>
+        <v>1659316000000</v>
       </c>
       <c r="F259" t="n">
-        <v>1659319000000</v>
+        <v>1659316000000</v>
       </c>
       <c r="G259" t="n">
         <v>0</v>
@@ -6936,16 +6936,16 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>1671092000000</v>
+        <v>1671091000000</v>
       </c>
       <c r="D260" t="n">
-        <v>1671092000000</v>
+        <v>1671091000000</v>
       </c>
       <c r="E260" t="n">
-        <v>1671092000000</v>
+        <v>1671091000000</v>
       </c>
       <c r="F260" t="n">
-        <v>1671092000000</v>
+        <v>1671091000000</v>
       </c>
       <c r="G260" t="n">
         <v>0</v>
@@ -6961,16 +6961,16 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>1673932000000</v>
+        <v>1673925000000</v>
       </c>
       <c r="D261" t="n">
-        <v>1673932000000</v>
+        <v>1673925000000</v>
       </c>
       <c r="E261" t="n">
-        <v>1673932000000</v>
+        <v>1673925000000</v>
       </c>
       <c r="F261" t="n">
-        <v>1673932000000</v>
+        <v>1673925000000</v>
       </c>
       <c r="G261" t="n">
         <v>0</v>
@@ -6986,16 +6986,16 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>1680693000000</v>
+        <v>1680684000000</v>
       </c>
       <c r="D262" t="n">
-        <v>1680693000000</v>
+        <v>1680684000000</v>
       </c>
       <c r="E262" t="n">
-        <v>1680693000000</v>
+        <v>1680684000000</v>
       </c>
       <c r="F262" t="n">
-        <v>1680693000000</v>
+        <v>1680684000000</v>
       </c>
       <c r="G262" t="n">
         <v>0</v>
@@ -7011,16 +7011,16 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1687890000000</v>
+        <v>1687895000000</v>
       </c>
       <c r="D263" t="n">
-        <v>1687890000000</v>
+        <v>1687895000000</v>
       </c>
       <c r="E263" t="n">
-        <v>1687890000000</v>
+        <v>1687895000000</v>
       </c>
       <c r="F263" t="n">
-        <v>1687890000000</v>
+        <v>1687895000000</v>
       </c>
       <c r="G263" t="n">
         <v>0</v>
@@ -7036,16 +7036,16 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1743225000000</v>
+        <v>1743259000000</v>
       </c>
       <c r="D264" t="n">
-        <v>1743225000000</v>
+        <v>1743259000000</v>
       </c>
       <c r="E264" t="n">
-        <v>1743225000000</v>
+        <v>1743259000000</v>
       </c>
       <c r="F264" t="n">
-        <v>1743225000000</v>
+        <v>1743259000000</v>
       </c>
       <c r="G264" t="n">
         <v>0</v>
@@ -7061,16 +7061,16 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1793355000000</v>
+        <v>1793354000000</v>
       </c>
       <c r="D265" t="n">
-        <v>1793355000000</v>
+        <v>1793354000000</v>
       </c>
       <c r="E265" t="n">
-        <v>1793355000000</v>
+        <v>1793354000000</v>
       </c>
       <c r="F265" t="n">
-        <v>1793355000000</v>
+        <v>1793354000000</v>
       </c>
       <c r="G265" t="n">
         <v>0</v>
@@ -7086,16 +7086,16 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1838199000000</v>
+        <v>1838164000000</v>
       </c>
       <c r="D266" t="n">
-        <v>1838199000000</v>
+        <v>1838164000000</v>
       </c>
       <c r="E266" t="n">
-        <v>1838199000000</v>
+        <v>1838164000000</v>
       </c>
       <c r="F266" t="n">
-        <v>1838199000000</v>
+        <v>1838164000000</v>
       </c>
       <c r="G266" t="n">
         <v>0</v>
@@ -7111,16 +7111,16 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1847617000000</v>
+        <v>1847619000000</v>
       </c>
       <c r="D267" t="n">
-        <v>1847617000000</v>
+        <v>1847619000000</v>
       </c>
       <c r="E267" t="n">
-        <v>1847617000000</v>
+        <v>1847619000000</v>
       </c>
       <c r="F267" t="n">
-        <v>1847617000000</v>
+        <v>1847619000000</v>
       </c>
       <c r="G267" t="n">
         <v>0</v>
@@ -7136,16 +7136,16 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>1839006000000</v>
+        <v>1839000000000</v>
       </c>
       <c r="D268" t="n">
-        <v>1839006000000</v>
+        <v>1839000000000</v>
       </c>
       <c r="E268" t="n">
-        <v>1839006000000</v>
+        <v>1839000000000</v>
       </c>
       <c r="F268" t="n">
-        <v>1839006000000</v>
+        <v>1839000000000</v>
       </c>
       <c r="G268" t="n">
         <v>0</v>
@@ -7161,16 +7161,16 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>1852086000000</v>
+        <v>1852102000000</v>
       </c>
       <c r="D269" t="n">
-        <v>1852086000000</v>
+        <v>1852102000000</v>
       </c>
       <c r="E269" t="n">
-        <v>1852086000000</v>
+        <v>1852102000000</v>
       </c>
       <c r="F269" t="n">
-        <v>1852086000000</v>
+        <v>1852102000000</v>
       </c>
       <c r="G269" t="n">
         <v>0</v>
@@ -7186,16 +7186,16 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1828295000000</v>
+        <v>1828305000000</v>
       </c>
       <c r="D270" t="n">
-        <v>1828295000000</v>
+        <v>1828305000000</v>
       </c>
       <c r="E270" t="n">
-        <v>1828295000000</v>
+        <v>1828305000000</v>
       </c>
       <c r="F270" t="n">
-        <v>1828295000000</v>
+        <v>1828305000000</v>
       </c>
       <c r="G270" t="n">
         <v>0</v>
@@ -7211,16 +7211,16 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>1821502000000</v>
+        <v>1821504000000</v>
       </c>
       <c r="D271" t="n">
-        <v>1821502000000</v>
+        <v>1821504000000</v>
       </c>
       <c r="E271" t="n">
-        <v>1821502000000</v>
+        <v>1821504000000</v>
       </c>
       <c r="F271" t="n">
-        <v>1821502000000</v>
+        <v>1821504000000</v>
       </c>
       <c r="G271" t="n">
         <v>0</v>
@@ -7236,16 +7236,16 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1813613000000</v>
+        <v>1813632000000</v>
       </c>
       <c r="D272" t="n">
-        <v>1813613000000</v>
+        <v>1813632000000</v>
       </c>
       <c r="E272" t="n">
-        <v>1813613000000</v>
+        <v>1813632000000</v>
       </c>
       <c r="F272" t="n">
-        <v>1813613000000</v>
+        <v>1813632000000</v>
       </c>
       <c r="G272" t="n">
         <v>0</v>
@@ -7261,16 +7261,16 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>1825805000000</v>
+        <v>1825833000000</v>
       </c>
       <c r="D273" t="n">
-        <v>1825805000000</v>
+        <v>1825833000000</v>
       </c>
       <c r="E273" t="n">
-        <v>1825805000000</v>
+        <v>1825833000000</v>
       </c>
       <c r="F273" t="n">
-        <v>1825805000000</v>
+        <v>1825833000000</v>
       </c>
       <c r="G273" t="n">
         <v>0</v>
@@ -7286,16 +7286,16 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>1837996000000</v>
+        <v>1837989000000</v>
       </c>
       <c r="D274" t="n">
-        <v>1837996000000</v>
+        <v>1837989000000</v>
       </c>
       <c r="E274" t="n">
-        <v>1837996000000</v>
+        <v>1837989000000</v>
       </c>
       <c r="F274" t="n">
-        <v>1837996000000</v>
+        <v>1837989000000</v>
       </c>
       <c r="G274" t="n">
         <v>0</v>
@@ -7311,16 +7311,16 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>1860489000000</v>
+        <v>1860450000000</v>
       </c>
       <c r="D275" t="n">
-        <v>1860489000000</v>
+        <v>1860450000000</v>
       </c>
       <c r="E275" t="n">
-        <v>1860489000000</v>
+        <v>1860450000000</v>
       </c>
       <c r="F275" t="n">
-        <v>1860489000000</v>
+        <v>1860450000000</v>
       </c>
       <c r="G275" t="n">
         <v>0</v>
@@ -7336,16 +7336,16 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>1897866000000</v>
+        <v>1897862000000</v>
       </c>
       <c r="D276" t="n">
-        <v>1897866000000</v>
+        <v>1897862000000</v>
       </c>
       <c r="E276" t="n">
-        <v>1897866000000</v>
+        <v>1897862000000</v>
       </c>
       <c r="F276" t="n">
-        <v>1897866000000</v>
+        <v>1897862000000</v>
       </c>
       <c r="G276" t="n">
         <v>0</v>
@@ -7361,16 +7361,16 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>1898769000000</v>
+        <v>1898759000000</v>
       </c>
       <c r="D277" t="n">
-        <v>1898769000000</v>
+        <v>1898759000000</v>
       </c>
       <c r="E277" t="n">
-        <v>1898769000000</v>
+        <v>1898759000000</v>
       </c>
       <c r="F277" t="n">
-        <v>1898769000000</v>
+        <v>1898759000000</v>
       </c>
       <c r="G277" t="n">
         <v>0</v>
@@ -7386,16 +7386,16 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>1900621000000</v>
+        <v>1900611000000</v>
       </c>
       <c r="D278" t="n">
-        <v>1900621000000</v>
+        <v>1900611000000</v>
       </c>
       <c r="E278" t="n">
-        <v>1900621000000</v>
+        <v>1900611000000</v>
       </c>
       <c r="F278" t="n">
-        <v>1900621000000</v>
+        <v>1900611000000</v>
       </c>
       <c r="G278" t="n">
         <v>0</v>
@@ -7411,16 +7411,16 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>2092454000000</v>
+        <v>2092468000000</v>
       </c>
       <c r="D279" t="n">
-        <v>2092454000000</v>
+        <v>2092468000000</v>
       </c>
       <c r="E279" t="n">
-        <v>2092454000000</v>
+        <v>2092468000000</v>
       </c>
       <c r="F279" t="n">
-        <v>2092454000000</v>
+        <v>2092468000000</v>
       </c>
       <c r="G279" t="n">
         <v>0</v>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>2120088000000</v>
+        <v>2120092000000</v>
       </c>
       <c r="D280" t="n">
-        <v>2120088000000</v>
+        <v>2120092000000</v>
       </c>
       <c r="E280" t="n">
-        <v>2120088000000</v>
+        <v>2120092000000</v>
       </c>
       <c r="F280" t="n">
-        <v>2120088000000</v>
+        <v>2120092000000</v>
       </c>
       <c r="G280" t="n">
         <v>0</v>
@@ -7461,16 +7461,16 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>2103917000000</v>
+        <v>2103885000000</v>
       </c>
       <c r="D281" t="n">
-        <v>2103917000000</v>
+        <v>2103885000000</v>
       </c>
       <c r="E281" t="n">
-        <v>2103917000000</v>
+        <v>2103885000000</v>
       </c>
       <c r="F281" t="n">
-        <v>2103917000000</v>
+        <v>2103885000000</v>
       </c>
       <c r="G281" t="n">
         <v>0</v>
@@ -7486,16 +7486,16 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>2075206000000</v>
+        <v>2075259000000</v>
       </c>
       <c r="D282" t="n">
-        <v>2075206000000</v>
+        <v>2075259000000</v>
       </c>
       <c r="E282" t="n">
-        <v>2075206000000</v>
+        <v>2075259000000</v>
       </c>
       <c r="F282" t="n">
-        <v>2075206000000</v>
+        <v>2075259000000</v>
       </c>
       <c r="G282" t="n">
         <v>0</v>
@@ -7511,16 +7511,16 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>2090963000000</v>
+        <v>2090960000000</v>
       </c>
       <c r="D283" t="n">
-        <v>2090963000000</v>
+        <v>2090960000000</v>
       </c>
       <c r="E283" t="n">
-        <v>2090963000000</v>
+        <v>2090960000000</v>
       </c>
       <c r="F283" t="n">
-        <v>2090963000000</v>
+        <v>2090960000000</v>
       </c>
       <c r="G283" t="n">
         <v>0</v>
@@ -7536,16 +7536,16 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>2092986000000</v>
+        <v>2092957000000</v>
       </c>
       <c r="D284" t="n">
-        <v>2092986000000</v>
+        <v>2092957000000</v>
       </c>
       <c r="E284" t="n">
-        <v>2092986000000</v>
+        <v>2092957000000</v>
       </c>
       <c r="F284" t="n">
-        <v>2092986000000</v>
+        <v>2092957000000</v>
       </c>
       <c r="G284" t="n">
         <v>0</v>
@@ -7561,16 +7561,16 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>2089620000000</v>
+        <v>2089612000000</v>
       </c>
       <c r="D285" t="n">
-        <v>2089620000000</v>
+        <v>2089612000000</v>
       </c>
       <c r="E285" t="n">
-        <v>2089620000000</v>
+        <v>2089612000000</v>
       </c>
       <c r="F285" t="n">
-        <v>2089620000000</v>
+        <v>2089612000000</v>
       </c>
       <c r="G285" t="n">
         <v>0</v>
@@ -7586,16 +7586,16 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>2080822000000</v>
+        <v>2080823000000</v>
       </c>
       <c r="D286" t="n">
-        <v>2080822000000</v>
+        <v>2080823000000</v>
       </c>
       <c r="E286" t="n">
-        <v>2080822000000</v>
+        <v>2080823000000</v>
       </c>
       <c r="F286" t="n">
-        <v>2080822000000</v>
+        <v>2080823000000</v>
       </c>
       <c r="G286" t="n">
         <v>0</v>
@@ -7611,16 +7611,16 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>2081684000000</v>
+        <v>2081669000000</v>
       </c>
       <c r="D287" t="n">
-        <v>2081684000000</v>
+        <v>2081669000000</v>
       </c>
       <c r="E287" t="n">
-        <v>2081684000000</v>
+        <v>2081669000000</v>
       </c>
       <c r="F287" t="n">
-        <v>2081684000000</v>
+        <v>2081669000000</v>
       </c>
       <c r="G287" t="n">
         <v>0</v>
@@ -7636,16 +7636,16 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>2093123000000</v>
+        <v>2093135000000</v>
       </c>
       <c r="D288" t="n">
-        <v>2093123000000</v>
+        <v>2093135000000</v>
       </c>
       <c r="E288" t="n">
-        <v>2093123000000</v>
+        <v>2093135000000</v>
       </c>
       <c r="F288" t="n">
-        <v>2093123000000</v>
+        <v>2093135000000</v>
       </c>
       <c r="G288" t="n">
         <v>0</v>
@@ -7661,16 +7661,16 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>2083491000000</v>
+        <v>2083505000000</v>
       </c>
       <c r="D289" t="n">
-        <v>2083491000000</v>
+        <v>2083505000000</v>
       </c>
       <c r="E289" t="n">
-        <v>2083491000000</v>
+        <v>2083505000000</v>
       </c>
       <c r="F289" t="n">
-        <v>2083491000000</v>
+        <v>2083505000000</v>
       </c>
       <c r="G289" t="n">
         <v>0</v>
@@ -7686,16 +7686,16 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>2079505000000</v>
+        <v>2079532000000</v>
       </c>
       <c r="D290" t="n">
-        <v>2079505000000</v>
+        <v>2079532000000</v>
       </c>
       <c r="E290" t="n">
-        <v>2079505000000</v>
+        <v>2079532000000</v>
       </c>
       <c r="F290" t="n">
-        <v>2079505000000</v>
+        <v>2079532000000</v>
       </c>
       <c r="G290" t="n">
         <v>0</v>
@@ -7711,16 +7711,16 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>2065671000000</v>
+        <v>2065670000000</v>
       </c>
       <c r="D291" t="n">
-        <v>2065671000000</v>
+        <v>2065670000000</v>
       </c>
       <c r="E291" t="n">
-        <v>2065671000000</v>
+        <v>2065670000000</v>
       </c>
       <c r="F291" t="n">
-        <v>2065671000000</v>
+        <v>2065670000000</v>
       </c>
       <c r="G291" t="n">
         <v>0</v>
@@ -7736,16 +7736,16 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>2059742000000</v>
+        <v>2059734000000</v>
       </c>
       <c r="D292" t="n">
-        <v>2059742000000</v>
+        <v>2059734000000</v>
       </c>
       <c r="E292" t="n">
-        <v>2059742000000</v>
+        <v>2059734000000</v>
       </c>
       <c r="F292" t="n">
-        <v>2059742000000</v>
+        <v>2059734000000</v>
       </c>
       <c r="G292" t="n">
         <v>0</v>
@@ -7761,16 +7761,16 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>2083321000000</v>
+        <v>2083323000000</v>
       </c>
       <c r="D293" t="n">
-        <v>2083321000000</v>
+        <v>2083323000000</v>
       </c>
       <c r="E293" t="n">
-        <v>2083321000000</v>
+        <v>2083323000000</v>
       </c>
       <c r="F293" t="n">
-        <v>2083321000000</v>
+        <v>2083323000000</v>
       </c>
       <c r="G293" t="n">
         <v>0</v>
@@ -7786,16 +7786,16 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>2083903000000</v>
+        <v>2083914000000</v>
       </c>
       <c r="D294" t="n">
-        <v>2083903000000</v>
+        <v>2083914000000</v>
       </c>
       <c r="E294" t="n">
-        <v>2083903000000</v>
+        <v>2083914000000</v>
       </c>
       <c r="F294" t="n">
-        <v>2083903000000</v>
+        <v>2083914000000</v>
       </c>
       <c r="G294" t="n">
         <v>0</v>
@@ -7811,16 +7811,16 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>2085957000000</v>
+        <v>2085955000000</v>
       </c>
       <c r="D295" t="n">
-        <v>2085957000000</v>
+        <v>2085955000000</v>
       </c>
       <c r="E295" t="n">
-        <v>2085957000000</v>
+        <v>2085955000000</v>
       </c>
       <c r="F295" t="n">
-        <v>2085957000000</v>
+        <v>2085955000000</v>
       </c>
       <c r="G295" t="n">
         <v>0</v>
@@ -7836,16 +7836,16 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>2083059000000</v>
+        <v>2083062000000</v>
       </c>
       <c r="D296" t="n">
-        <v>2083059000000</v>
+        <v>2083062000000</v>
       </c>
       <c r="E296" t="n">
-        <v>2083059000000</v>
+        <v>2083062000000</v>
       </c>
       <c r="F296" t="n">
-        <v>2083059000000</v>
+        <v>2083062000000</v>
       </c>
       <c r="G296" t="n">
         <v>0</v>
@@ -7861,16 +7861,16 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>2079175000000</v>
+        <v>2079183000000</v>
       </c>
       <c r="D297" t="n">
-        <v>2079175000000</v>
+        <v>2079183000000</v>
       </c>
       <c r="E297" t="n">
-        <v>2079175000000</v>
+        <v>2079183000000</v>
       </c>
       <c r="F297" t="n">
-        <v>2079175000000</v>
+        <v>2079183000000</v>
       </c>
       <c r="G297" t="n">
         <v>0</v>
@@ -7886,16 +7886,16 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>2090266000000</v>
+        <v>2090215000000</v>
       </c>
       <c r="D298" t="n">
-        <v>2090266000000</v>
+        <v>2090215000000</v>
       </c>
       <c r="E298" t="n">
-        <v>2090266000000</v>
+        <v>2090215000000</v>
       </c>
       <c r="F298" t="n">
-        <v>2090266000000</v>
+        <v>2090215000000</v>
       </c>
       <c r="G298" t="n">
         <v>0</v>
@@ -7911,16 +7911,16 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>2090956000000</v>
+        <v>2090984000000</v>
       </c>
       <c r="D299" t="n">
-        <v>2090956000000</v>
+        <v>2090984000000</v>
       </c>
       <c r="E299" t="n">
-        <v>2090956000000</v>
+        <v>2090984000000</v>
       </c>
       <c r="F299" t="n">
-        <v>2090956000000</v>
+        <v>2090984000000</v>
       </c>
       <c r="G299" t="n">
         <v>0</v>
@@ -7936,16 +7936,16 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>2069753000000</v>
+        <v>2069754000000</v>
       </c>
       <c r="D300" t="n">
-        <v>2069753000000</v>
+        <v>2069754000000</v>
       </c>
       <c r="E300" t="n">
-        <v>2069753000000</v>
+        <v>2069754000000</v>
       </c>
       <c r="F300" t="n">
-        <v>2069753000000</v>
+        <v>2069754000000</v>
       </c>
       <c r="G300" t="n">
         <v>0</v>
@@ -7961,16 +7961,16 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>2075063000000</v>
+        <v>2075028000000</v>
       </c>
       <c r="D301" t="n">
-        <v>2075063000000</v>
+        <v>2075028000000</v>
       </c>
       <c r="E301" t="n">
-        <v>2075063000000</v>
+        <v>2075028000000</v>
       </c>
       <c r="F301" t="n">
-        <v>2075063000000</v>
+        <v>2075028000000</v>
       </c>
       <c r="G301" t="n">
         <v>0</v>
@@ -7986,16 +7986,16 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>2034653000000</v>
+        <v>2034632000000</v>
       </c>
       <c r="D302" t="n">
-        <v>2034653000000</v>
+        <v>2034632000000</v>
       </c>
       <c r="E302" t="n">
-        <v>2034653000000</v>
+        <v>2034632000000</v>
       </c>
       <c r="F302" t="n">
-        <v>2034653000000</v>
+        <v>2034632000000</v>
       </c>
       <c r="G302" t="n">
         <v>0</v>
@@ -8011,16 +8011,16 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>2049488000000</v>
+        <v>2049504000000</v>
       </c>
       <c r="D303" t="n">
-        <v>2049488000000</v>
+        <v>2049504000000</v>
       </c>
       <c r="E303" t="n">
-        <v>2049488000000</v>
+        <v>2049504000000</v>
       </c>
       <c r="F303" t="n">
-        <v>2049488000000</v>
+        <v>2049504000000</v>
       </c>
       <c r="G303" t="n">
         <v>0</v>
@@ -8036,16 +8036,16 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>2016287000000</v>
+        <v>2016250000000</v>
       </c>
       <c r="D304" t="n">
-        <v>2016287000000</v>
+        <v>2016250000000</v>
       </c>
       <c r="E304" t="n">
-        <v>2016287000000</v>
+        <v>2016250000000</v>
       </c>
       <c r="F304" t="n">
-        <v>2016287000000</v>
+        <v>2016250000000</v>
       </c>
       <c r="G304" t="n">
         <v>0</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>2022805000000</v>
+        <v>2022808000000</v>
       </c>
       <c r="D305" t="n">
-        <v>2022805000000</v>
+        <v>2022808000000</v>
       </c>
       <c r="E305" t="n">
-        <v>2022805000000</v>
+        <v>2022808000000</v>
       </c>
       <c r="F305" t="n">
-        <v>2022805000000</v>
+        <v>2022808000000</v>
       </c>
       <c r="G305" t="n">
         <v>0</v>
@@ -8086,16 +8086,16 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>2032819000000</v>
+        <v>2032829000000</v>
       </c>
       <c r="D306" t="n">
-        <v>2032819000000</v>
+        <v>2032829000000</v>
       </c>
       <c r="E306" t="n">
-        <v>2032819000000</v>
+        <v>2032829000000</v>
       </c>
       <c r="F306" t="n">
-        <v>2032819000000</v>
+        <v>2032829000000</v>
       </c>
       <c r="G306" t="n">
         <v>0</v>
@@ -8111,16 +8111,16 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>2036780000000</v>
+        <v>2036778000000</v>
       </c>
       <c r="D307" t="n">
-        <v>2036780000000</v>
+        <v>2036778000000</v>
       </c>
       <c r="E307" t="n">
-        <v>2036780000000</v>
+        <v>2036778000000</v>
       </c>
       <c r="F307" t="n">
-        <v>2036780000000</v>
+        <v>2036778000000</v>
       </c>
       <c r="G307" t="n">
         <v>0</v>
@@ -8136,16 +8136,16 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>2028086000000</v>
+        <v>2028076000000</v>
       </c>
       <c r="D308" t="n">
-        <v>2028086000000</v>
+        <v>2028076000000</v>
       </c>
       <c r="E308" t="n">
-        <v>2028086000000</v>
+        <v>2028076000000</v>
       </c>
       <c r="F308" t="n">
-        <v>2028086000000</v>
+        <v>2028076000000</v>
       </c>
       <c r="G308" t="n">
         <v>0</v>
@@ -8161,16 +8161,16 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2029012000000</v>
+        <v>2029029000000</v>
       </c>
       <c r="D309" t="n">
-        <v>2029012000000</v>
+        <v>2029029000000</v>
       </c>
       <c r="E309" t="n">
-        <v>2029012000000</v>
+        <v>2029029000000</v>
       </c>
       <c r="F309" t="n">
-        <v>2029012000000</v>
+        <v>2029029000000</v>
       </c>
       <c r="G309" t="n">
         <v>0</v>
@@ -8186,16 +8186,16 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>2024836000000</v>
+        <v>2024862000000</v>
       </c>
       <c r="D310" t="n">
-        <v>2024836000000</v>
+        <v>2024862000000</v>
       </c>
       <c r="E310" t="n">
-        <v>2024836000000</v>
+        <v>2024862000000</v>
       </c>
       <c r="F310" t="n">
-        <v>2024836000000</v>
+        <v>2024862000000</v>
       </c>
       <c r="G310" t="n">
         <v>0</v>
@@ -8211,16 +8211,16 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>2023351000000</v>
+        <v>2023352000000</v>
       </c>
       <c r="D311" t="n">
-        <v>2023351000000</v>
+        <v>2023352000000</v>
       </c>
       <c r="E311" t="n">
-        <v>2023351000000</v>
+        <v>2023352000000</v>
       </c>
       <c r="F311" t="n">
-        <v>2023351000000</v>
+        <v>2023352000000</v>
       </c>
       <c r="G311" t="n">
         <v>0</v>
@@ -8236,16 +8236,16 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>2021667000000</v>
+        <v>2021639000000</v>
       </c>
       <c r="D312" t="n">
-        <v>2021667000000</v>
+        <v>2021639000000</v>
       </c>
       <c r="E312" t="n">
-        <v>2021667000000</v>
+        <v>2021639000000</v>
       </c>
       <c r="F312" t="n">
-        <v>2021667000000</v>
+        <v>2021639000000</v>
       </c>
       <c r="G312" t="n">
         <v>0</v>
@@ -8261,16 +8261,16 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>2019753000000</v>
+        <v>2019792000000</v>
       </c>
       <c r="D313" t="n">
-        <v>2019753000000</v>
+        <v>2019792000000</v>
       </c>
       <c r="E313" t="n">
-        <v>2019753000000</v>
+        <v>2019792000000</v>
       </c>
       <c r="F313" t="n">
-        <v>2019753000000</v>
+        <v>2019792000000</v>
       </c>
       <c r="G313" t="n">
         <v>0</v>
@@ -8286,16 +8286,16 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>2043190000000</v>
+        <v>2043169000000</v>
       </c>
       <c r="D314" t="n">
-        <v>2043190000000</v>
+        <v>2043169000000</v>
       </c>
       <c r="E314" t="n">
-        <v>2043190000000</v>
+        <v>2043169000000</v>
       </c>
       <c r="F314" t="n">
-        <v>2043190000000</v>
+        <v>2043169000000</v>
       </c>
       <c r="G314" t="n">
         <v>0</v>
@@ -8311,16 +8311,16 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2056215000000</v>
+        <v>2056209000000</v>
       </c>
       <c r="D315" t="n">
-        <v>2056215000000</v>
+        <v>2056209000000</v>
       </c>
       <c r="E315" t="n">
-        <v>2056215000000</v>
+        <v>2056209000000</v>
       </c>
       <c r="F315" t="n">
-        <v>2056215000000</v>
+        <v>2056209000000</v>
       </c>
       <c r="G315" t="n">
         <v>0</v>
@@ -8336,16 +8336,16 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>2075694000000</v>
+        <v>2075688000000</v>
       </c>
       <c r="D316" t="n">
-        <v>2075694000000</v>
+        <v>2075688000000</v>
       </c>
       <c r="E316" t="n">
-        <v>2075694000000</v>
+        <v>2075688000000</v>
       </c>
       <c r="F316" t="n">
-        <v>2075694000000</v>
+        <v>2075688000000</v>
       </c>
       <c r="G316" t="n">
         <v>0</v>
@@ -8361,16 +8361,16 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>2074495000000</v>
+        <v>2074510000000</v>
       </c>
       <c r="D317" t="n">
-        <v>2074495000000</v>
+        <v>2074510000000</v>
       </c>
       <c r="E317" t="n">
-        <v>2074495000000</v>
+        <v>2074510000000</v>
       </c>
       <c r="F317" t="n">
-        <v>2074495000000</v>
+        <v>2074510000000</v>
       </c>
       <c r="G317" t="n">
         <v>0</v>
@@ -8386,16 +8386,16 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>2079926000000</v>
+        <v>2079958000000</v>
       </c>
       <c r="D318" t="n">
-        <v>2079926000000</v>
+        <v>2079958000000</v>
       </c>
       <c r="E318" t="n">
-        <v>2079926000000</v>
+        <v>2079958000000</v>
       </c>
       <c r="F318" t="n">
-        <v>2079926000000</v>
+        <v>2079958000000</v>
       </c>
       <c r="G318" t="n">
         <v>0</v>
@@ -8411,16 +8411,16 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2081316000000</v>
+        <v>2081336000000</v>
       </c>
       <c r="D319" t="n">
-        <v>2081316000000</v>
+        <v>2081336000000</v>
       </c>
       <c r="E319" t="n">
-        <v>2081316000000</v>
+        <v>2081336000000</v>
       </c>
       <c r="F319" t="n">
-        <v>2081316000000</v>
+        <v>2081336000000</v>
       </c>
       <c r="G319" t="n">
         <v>0</v>
@@ -8436,16 +8436,16 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>2086478000000</v>
+        <v>2086483000000</v>
       </c>
       <c r="D320" t="n">
-        <v>2086478000000</v>
+        <v>2086483000000</v>
       </c>
       <c r="E320" t="n">
-        <v>2086478000000</v>
+        <v>2086483000000</v>
       </c>
       <c r="F320" t="n">
-        <v>2086478000000</v>
+        <v>2086483000000</v>
       </c>
       <c r="G320" t="n">
         <v>0</v>
@@ -8461,16 +8461,16 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2099995000000</v>
+        <v>2099960000000</v>
       </c>
       <c r="D321" t="n">
-        <v>2099995000000</v>
+        <v>2099960000000</v>
       </c>
       <c r="E321" t="n">
-        <v>2099995000000</v>
+        <v>2099960000000</v>
       </c>
       <c r="F321" t="n">
-        <v>2099995000000</v>
+        <v>2099960000000</v>
       </c>
       <c r="G321" t="n">
         <v>0</v>
@@ -8486,16 +8486,16 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>2105700000000</v>
+        <v>2105687000000</v>
       </c>
       <c r="D322" t="n">
-        <v>2105700000000</v>
+        <v>2105687000000</v>
       </c>
       <c r="E322" t="n">
-        <v>2105700000000</v>
+        <v>2105687000000</v>
       </c>
       <c r="F322" t="n">
-        <v>2105700000000</v>
+        <v>2105687000000</v>
       </c>
       <c r="G322" t="n">
         <v>0</v>
@@ -8511,16 +8511,16 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>2089626000000</v>
+        <v>2089621000000</v>
       </c>
       <c r="D323" t="n">
-        <v>2089626000000</v>
+        <v>2089621000000</v>
       </c>
       <c r="E323" t="n">
-        <v>2089626000000</v>
+        <v>2089621000000</v>
       </c>
       <c r="F323" t="n">
-        <v>2089626000000</v>
+        <v>2089621000000</v>
       </c>
       <c r="G323" t="n">
         <v>0</v>
@@ -8536,16 +8536,16 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>2104155000000</v>
+        <v>2104154000000</v>
       </c>
       <c r="D324" t="n">
-        <v>2104155000000</v>
+        <v>2104154000000</v>
       </c>
       <c r="E324" t="n">
-        <v>2104155000000</v>
+        <v>2104154000000</v>
       </c>
       <c r="F324" t="n">
-        <v>2104155000000</v>
+        <v>2104154000000</v>
       </c>
       <c r="G324" t="n">
         <v>0</v>
@@ -8586,16 +8586,16 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>2078311000000</v>
+        <v>2078312000000</v>
       </c>
       <c r="D326" t="n">
-        <v>2078311000000</v>
+        <v>2078312000000</v>
       </c>
       <c r="E326" t="n">
-        <v>2078311000000</v>
+        <v>2078312000000</v>
       </c>
       <c r="F326" t="n">
-        <v>2078311000000</v>
+        <v>2078312000000</v>
       </c>
       <c r="G326" t="n">
         <v>0</v>
@@ -8611,16 +8611,16 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>2091895000000</v>
+        <v>2091926000000</v>
       </c>
       <c r="D327" t="n">
-        <v>2091895000000</v>
+        <v>2091926000000</v>
       </c>
       <c r="E327" t="n">
-        <v>2091895000000</v>
+        <v>2091926000000</v>
       </c>
       <c r="F327" t="n">
-        <v>2091895000000</v>
+        <v>2091926000000</v>
       </c>
       <c r="G327" t="n">
         <v>0</v>
@@ -8636,16 +8636,16 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>2110365000000</v>
+        <v>2110400000000</v>
       </c>
       <c r="D328" t="n">
-        <v>2110365000000</v>
+        <v>2110400000000</v>
       </c>
       <c r="E328" t="n">
-        <v>2110365000000</v>
+        <v>2110400000000</v>
       </c>
       <c r="F328" t="n">
-        <v>2110365000000</v>
+        <v>2110400000000</v>
       </c>
       <c r="G328" t="n">
         <v>0</v>
@@ -8661,16 +8661,16 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>2083972000000</v>
+        <v>2083975000000</v>
       </c>
       <c r="D329" t="n">
-        <v>2083972000000</v>
+        <v>2083975000000</v>
       </c>
       <c r="E329" t="n">
-        <v>2083972000000</v>
+        <v>2083975000000</v>
       </c>
       <c r="F329" t="n">
-        <v>2083972000000</v>
+        <v>2083975000000</v>
       </c>
       <c r="G329" t="n">
         <v>0</v>
@@ -8686,16 +8686,16 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>2077754000000</v>
+        <v>2077730000000</v>
       </c>
       <c r="D330" t="n">
-        <v>2077754000000</v>
+        <v>2077730000000</v>
       </c>
       <c r="E330" t="n">
-        <v>2077754000000</v>
+        <v>2077730000000</v>
       </c>
       <c r="F330" t="n">
-        <v>2077754000000</v>
+        <v>2077730000000</v>
       </c>
       <c r="G330" t="n">
         <v>0</v>
@@ -8711,16 +8711,16 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>2072526000000</v>
+        <v>2072517000000</v>
       </c>
       <c r="D331" t="n">
-        <v>2072526000000</v>
+        <v>2072517000000</v>
       </c>
       <c r="E331" t="n">
-        <v>2072526000000</v>
+        <v>2072517000000</v>
       </c>
       <c r="F331" t="n">
-        <v>2072526000000</v>
+        <v>2072517000000</v>
       </c>
       <c r="G331" t="n">
         <v>0</v>
@@ -8736,16 +8736,16 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>2063778000000</v>
+        <v>2063761000000</v>
       </c>
       <c r="D332" t="n">
-        <v>2063778000000</v>
+        <v>2063761000000</v>
       </c>
       <c r="E332" t="n">
-        <v>2063778000000</v>
+        <v>2063761000000</v>
       </c>
       <c r="F332" t="n">
-        <v>2063778000000</v>
+        <v>2063761000000</v>
       </c>
       <c r="G332" t="n">
         <v>0</v>
@@ -8761,16 +8761,16 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>2065115000000</v>
+        <v>2065111000000</v>
       </c>
       <c r="D333" t="n">
-        <v>2065115000000</v>
+        <v>2065111000000</v>
       </c>
       <c r="E333" t="n">
-        <v>2065115000000</v>
+        <v>2065111000000</v>
       </c>
       <c r="F333" t="n">
-        <v>2065115000000</v>
+        <v>2065111000000</v>
       </c>
       <c r="G333" t="n">
         <v>0</v>
@@ -8786,16 +8786,16 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>2065974000000</v>
+        <v>2065981000000</v>
       </c>
       <c r="D334" t="n">
-        <v>2065974000000</v>
+        <v>2065981000000</v>
       </c>
       <c r="E334" t="n">
-        <v>2065974000000</v>
+        <v>2065981000000</v>
       </c>
       <c r="F334" t="n">
-        <v>2065974000000</v>
+        <v>2065981000000</v>
       </c>
       <c r="G334" t="n">
         <v>0</v>
@@ -8811,16 +8811,16 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>2073256000000</v>
+        <v>2073272000000</v>
       </c>
       <c r="D335" t="n">
-        <v>2073256000000</v>
+        <v>2073272000000</v>
       </c>
       <c r="E335" t="n">
-        <v>2073256000000</v>
+        <v>2073272000000</v>
       </c>
       <c r="F335" t="n">
-        <v>2073256000000</v>
+        <v>2073272000000</v>
       </c>
       <c r="G335" t="n">
         <v>0</v>
@@ -8836,16 +8836,16 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>2061155000000</v>
+        <v>2061189000000</v>
       </c>
       <c r="D336" t="n">
-        <v>2061155000000</v>
+        <v>2061189000000</v>
       </c>
       <c r="E336" t="n">
-        <v>2061155000000</v>
+        <v>2061189000000</v>
       </c>
       <c r="F336" t="n">
-        <v>2061155000000</v>
+        <v>2061189000000</v>
       </c>
       <c r="G336" t="n">
         <v>0</v>
@@ -8861,16 +8861,16 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>2068525000000</v>
+        <v>2068537000000</v>
       </c>
       <c r="D337" t="n">
-        <v>2068525000000</v>
+        <v>2068537000000</v>
       </c>
       <c r="E337" t="n">
-        <v>2068525000000</v>
+        <v>2068537000000</v>
       </c>
       <c r="F337" t="n">
-        <v>2068525000000</v>
+        <v>2068537000000</v>
       </c>
       <c r="G337" t="n">
         <v>0</v>
@@ -8886,16 +8886,16 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>2080376000000</v>
+        <v>2080329000000</v>
       </c>
       <c r="D338" t="n">
-        <v>2080376000000</v>
+        <v>2080329000000</v>
       </c>
       <c r="E338" t="n">
-        <v>2080376000000</v>
+        <v>2080329000000</v>
       </c>
       <c r="F338" t="n">
-        <v>2080376000000</v>
+        <v>2080329000000</v>
       </c>
       <c r="G338" t="n">
         <v>0</v>
@@ -8911,16 +8911,16 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>2073821000000</v>
+        <v>2073808000000</v>
       </c>
       <c r="D339" t="n">
-        <v>2073821000000</v>
+        <v>2073808000000</v>
       </c>
       <c r="E339" t="n">
-        <v>2073821000000</v>
+        <v>2073808000000</v>
       </c>
       <c r="F339" t="n">
-        <v>2073821000000</v>
+        <v>2073808000000</v>
       </c>
       <c r="G339" t="n">
         <v>0</v>
@@ -8936,16 +8936,16 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>2070266000000</v>
+        <v>2070258000000</v>
       </c>
       <c r="D340" t="n">
-        <v>2070266000000</v>
+        <v>2070258000000</v>
       </c>
       <c r="E340" t="n">
-        <v>2070266000000</v>
+        <v>2070258000000</v>
       </c>
       <c r="F340" t="n">
-        <v>2070266000000</v>
+        <v>2070258000000</v>
       </c>
       <c r="G340" t="n">
         <v>0</v>
@@ -8961,16 +8961,16 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>2088245000000</v>
+        <v>2088266000000</v>
       </c>
       <c r="D341" t="n">
-        <v>2088245000000</v>
+        <v>2088266000000</v>
       </c>
       <c r="E341" t="n">
-        <v>2088245000000</v>
+        <v>2088266000000</v>
       </c>
       <c r="F341" t="n">
-        <v>2088245000000</v>
+        <v>2088266000000</v>
       </c>
       <c r="G341" t="n">
         <v>0</v>
@@ -8986,16 +8986,16 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>2093869000000</v>
+        <v>2093872000000</v>
       </c>
       <c r="D342" t="n">
-        <v>2093869000000</v>
+        <v>2093872000000</v>
       </c>
       <c r="E342" t="n">
-        <v>2093869000000</v>
+        <v>2093872000000</v>
       </c>
       <c r="F342" t="n">
-        <v>2093869000000</v>
+        <v>2093872000000</v>
       </c>
       <c r="G342" t="n">
         <v>0</v>
@@ -9011,16 +9011,16 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>2090426000000</v>
+        <v>2090446000000</v>
       </c>
       <c r="D343" t="n">
-        <v>2090426000000</v>
+        <v>2090446000000</v>
       </c>
       <c r="E343" t="n">
-        <v>2090426000000</v>
+        <v>2090446000000</v>
       </c>
       <c r="F343" t="n">
-        <v>2090426000000</v>
+        <v>2090446000000</v>
       </c>
       <c r="G343" t="n">
         <v>0</v>
@@ -9036,16 +9036,16 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>2088212000000</v>
+        <v>2088205000000</v>
       </c>
       <c r="D344" t="n">
-        <v>2088212000000</v>
+        <v>2088205000000</v>
       </c>
       <c r="E344" t="n">
-        <v>2088212000000</v>
+        <v>2088205000000</v>
       </c>
       <c r="F344" t="n">
-        <v>2088212000000</v>
+        <v>2088205000000</v>
       </c>
       <c r="G344" t="n">
         <v>0</v>
@@ -9061,16 +9061,16 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>2102039000000</v>
+        <v>2102076000000</v>
       </c>
       <c r="D345" t="n">
-        <v>2102039000000</v>
+        <v>2102076000000</v>
       </c>
       <c r="E345" t="n">
-        <v>2102039000000</v>
+        <v>2102076000000</v>
       </c>
       <c r="F345" t="n">
-        <v>2102039000000</v>
+        <v>2102076000000</v>
       </c>
       <c r="G345" t="n">
         <v>0</v>
@@ -9086,16 +9086,16 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>2103149000000</v>
+        <v>2103164000000</v>
       </c>
       <c r="D346" t="n">
-        <v>2103149000000</v>
+        <v>2103164000000</v>
       </c>
       <c r="E346" t="n">
-        <v>2103149000000</v>
+        <v>2103164000000</v>
       </c>
       <c r="F346" t="n">
-        <v>2103149000000</v>
+        <v>2103164000000</v>
       </c>
       <c r="G346" t="n">
         <v>0</v>
@@ -9111,16 +9111,16 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>2112023000000</v>
+        <v>2111984000000</v>
       </c>
       <c r="D347" t="n">
-        <v>2112023000000</v>
+        <v>2111984000000</v>
       </c>
       <c r="E347" t="n">
-        <v>2112023000000</v>
+        <v>2111984000000</v>
       </c>
       <c r="F347" t="n">
-        <v>2112023000000</v>
+        <v>2111984000000</v>
       </c>
       <c r="G347" t="n">
         <v>0</v>
@@ -9136,16 +9136,16 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>2124276000000</v>
+        <v>2124264000000</v>
       </c>
       <c r="D348" t="n">
-        <v>2124276000000</v>
+        <v>2124264000000</v>
       </c>
       <c r="E348" t="n">
-        <v>2124276000000</v>
+        <v>2124264000000</v>
       </c>
       <c r="F348" t="n">
-        <v>2124276000000</v>
+        <v>2124264000000</v>
       </c>
       <c r="G348" t="n">
         <v>0</v>
@@ -9161,16 +9161,16 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>2120902000000</v>
+        <v>2120899000000</v>
       </c>
       <c r="D349" t="n">
-        <v>2120902000000</v>
+        <v>2120899000000</v>
       </c>
       <c r="E349" t="n">
-        <v>2120902000000</v>
+        <v>2120899000000</v>
       </c>
       <c r="F349" t="n">
-        <v>2120902000000</v>
+        <v>2120899000000</v>
       </c>
       <c r="G349" t="n">
         <v>0</v>
@@ -9186,16 +9186,16 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>2132966000000</v>
+        <v>2132947000000</v>
       </c>
       <c r="D350" t="n">
-        <v>2132966000000</v>
+        <v>2132947000000</v>
       </c>
       <c r="E350" t="n">
-        <v>2132966000000</v>
+        <v>2132947000000</v>
       </c>
       <c r="F350" t="n">
-        <v>2132966000000</v>
+        <v>2132947000000</v>
       </c>
       <c r="G350" t="n">
         <v>0</v>
@@ -9211,16 +9211,16 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>2159029000000</v>
+        <v>2159028000000</v>
       </c>
       <c r="D351" t="n">
-        <v>2159029000000</v>
+        <v>2159028000000</v>
       </c>
       <c r="E351" t="n">
-        <v>2159029000000</v>
+        <v>2159028000000</v>
       </c>
       <c r="F351" t="n">
-        <v>2159029000000</v>
+        <v>2159028000000</v>
       </c>
       <c r="G351" t="n">
         <v>0</v>
@@ -9236,16 +9236,16 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2181985000000</v>
+        <v>2181982000000</v>
       </c>
       <c r="D352" t="n">
-        <v>2181985000000</v>
+        <v>2181982000000</v>
       </c>
       <c r="E352" t="n">
-        <v>2181985000000</v>
+        <v>2181982000000</v>
       </c>
       <c r="F352" t="n">
-        <v>2181985000000</v>
+        <v>2181982000000</v>
       </c>
       <c r="G352" t="n">
         <v>0</v>
@@ -9261,16 +9261,16 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>2183306000000</v>
+        <v>2183304000000</v>
       </c>
       <c r="D353" t="n">
-        <v>2183306000000</v>
+        <v>2183304000000</v>
       </c>
       <c r="E353" t="n">
-        <v>2183306000000</v>
+        <v>2183304000000</v>
       </c>
       <c r="F353" t="n">
-        <v>2183306000000</v>
+        <v>2183304000000</v>
       </c>
       <c r="G353" t="n">
         <v>0</v>
@@ -9286,16 +9286,16 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>2177774000000</v>
+        <v>2177769000000</v>
       </c>
       <c r="D354" t="n">
-        <v>2177774000000</v>
+        <v>2177769000000</v>
       </c>
       <c r="E354" t="n">
-        <v>2177774000000</v>
+        <v>2177769000000</v>
       </c>
       <c r="F354" t="n">
-        <v>2177774000000</v>
+        <v>2177769000000</v>
       </c>
       <c r="G354" t="n">
         <v>0</v>
@@ -9311,16 +9311,16 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2179951000000</v>
+        <v>2179996000000</v>
       </c>
       <c r="D355" t="n">
-        <v>2179951000000</v>
+        <v>2179996000000</v>
       </c>
       <c r="E355" t="n">
-        <v>2179951000000</v>
+        <v>2179996000000</v>
       </c>
       <c r="F355" t="n">
-        <v>2179951000000</v>
+        <v>2179996000000</v>
       </c>
       <c r="G355" t="n">
         <v>0</v>
@@ -9336,16 +9336,16 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>2245947000000</v>
+        <v>2245921000000</v>
       </c>
       <c r="D356" t="n">
-        <v>2245947000000</v>
+        <v>2245921000000</v>
       </c>
       <c r="E356" t="n">
-        <v>2245947000000</v>
+        <v>2245921000000</v>
       </c>
       <c r="F356" t="n">
-        <v>2245947000000</v>
+        <v>2245921000000</v>
       </c>
       <c r="G356" t="n">
         <v>0</v>
@@ -9361,16 +9361,16 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>2255327000000</v>
+        <v>2255333000000</v>
       </c>
       <c r="D357" t="n">
-        <v>2255327000000</v>
+        <v>2255333000000</v>
       </c>
       <c r="E357" t="n">
-        <v>2255327000000</v>
+        <v>2255333000000</v>
       </c>
       <c r="F357" t="n">
-        <v>2255327000000</v>
+        <v>2255333000000</v>
       </c>
       <c r="G357" t="n">
         <v>0</v>
@@ -9386,16 +9386,16 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>2269315000000</v>
+        <v>2269290000000</v>
       </c>
       <c r="D358" t="n">
-        <v>2269315000000</v>
+        <v>2269290000000</v>
       </c>
       <c r="E358" t="n">
-        <v>2269315000000</v>
+        <v>2269290000000</v>
       </c>
       <c r="F358" t="n">
-        <v>2269315000000</v>
+        <v>2269290000000</v>
       </c>
       <c r="G358" t="n">
         <v>0</v>
@@ -9411,16 +9411,16 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>2275788000000</v>
+        <v>2275824000000</v>
       </c>
       <c r="D359" t="n">
-        <v>2275788000000</v>
+        <v>2275824000000</v>
       </c>
       <c r="E359" t="n">
-        <v>2275788000000</v>
+        <v>2275824000000</v>
       </c>
       <c r="F359" t="n">
-        <v>2275788000000</v>
+        <v>2275824000000</v>
       </c>
       <c r="G359" t="n">
         <v>0</v>
@@ -9436,16 +9436,16 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>2290212000000</v>
+        <v>2290205000000</v>
       </c>
       <c r="D360" t="n">
-        <v>2290212000000</v>
+        <v>2290205000000</v>
       </c>
       <c r="E360" t="n">
-        <v>2290212000000</v>
+        <v>2290205000000</v>
       </c>
       <c r="F360" t="n">
-        <v>2290212000000</v>
+        <v>2290205000000</v>
       </c>
       <c r="G360" t="n">
         <v>0</v>
@@ -9461,16 +9461,16 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>2277591000000</v>
+        <v>2277516000000</v>
       </c>
       <c r="D361" t="n">
-        <v>2277591000000</v>
+        <v>2277516000000</v>
       </c>
       <c r="E361" t="n">
-        <v>2277591000000</v>
+        <v>2277516000000</v>
       </c>
       <c r="F361" t="n">
-        <v>2277591000000</v>
+        <v>2277516000000</v>
       </c>
       <c r="G361" t="n">
         <v>0</v>
@@ -9486,16 +9486,16 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>2280441000000</v>
+        <v>2280428000000</v>
       </c>
       <c r="D362" t="n">
-        <v>2280441000000</v>
+        <v>2280428000000</v>
       </c>
       <c r="E362" t="n">
-        <v>2280441000000</v>
+        <v>2280428000000</v>
       </c>
       <c r="F362" t="n">
-        <v>2280441000000</v>
+        <v>2280428000000</v>
       </c>
       <c r="G362" t="n">
         <v>0</v>
@@ -9511,16 +9511,16 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>2281069000000</v>
+        <v>2281087000000</v>
       </c>
       <c r="D363" t="n">
-        <v>2281069000000</v>
+        <v>2281087000000</v>
       </c>
       <c r="E363" t="n">
-        <v>2281069000000</v>
+        <v>2281087000000</v>
       </c>
       <c r="F363" t="n">
-        <v>2281069000000</v>
+        <v>2281087000000</v>
       </c>
       <c r="G363" t="n">
         <v>0</v>
@@ -9536,16 +9536,16 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>2287213000000</v>
+        <v>2287240000000</v>
       </c>
       <c r="D364" t="n">
-        <v>2287213000000</v>
+        <v>2287240000000</v>
       </c>
       <c r="E364" t="n">
-        <v>2287213000000</v>
+        <v>2287240000000</v>
       </c>
       <c r="F364" t="n">
-        <v>2287213000000</v>
+        <v>2287240000000</v>
       </c>
       <c r="G364" t="n">
         <v>0</v>
@@ -9561,16 +9561,16 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>2294876000000</v>
+        <v>2294915000000</v>
       </c>
       <c r="D365" t="n">
-        <v>2294876000000</v>
+        <v>2294915000000</v>
       </c>
       <c r="E365" t="n">
-        <v>2294876000000</v>
+        <v>2294915000000</v>
       </c>
       <c r="F365" t="n">
-        <v>2294876000000</v>
+        <v>2294915000000</v>
       </c>
       <c r="G365" t="n">
         <v>0</v>
@@ -9586,16 +9586,16 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>2302031000000</v>
+        <v>2302035000000</v>
       </c>
       <c r="D366" t="n">
-        <v>2302031000000</v>
+        <v>2302035000000</v>
       </c>
       <c r="E366" t="n">
-        <v>2302031000000</v>
+        <v>2302035000000</v>
       </c>
       <c r="F366" t="n">
-        <v>2302031000000</v>
+        <v>2302035000000</v>
       </c>
       <c r="G366" t="n">
         <v>0</v>
@@ -9611,16 +9611,16 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>2309314000000</v>
+        <v>2309303000000</v>
       </c>
       <c r="D367" t="n">
-        <v>2309314000000</v>
+        <v>2309303000000</v>
       </c>
       <c r="E367" t="n">
-        <v>2309314000000</v>
+        <v>2309303000000</v>
       </c>
       <c r="F367" t="n">
-        <v>2309314000000</v>
+        <v>2309303000000</v>
       </c>
       <c r="G367" t="n">
         <v>0</v>
@@ -9636,16 +9636,16 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>2315432000000</v>
+        <v>2315462000000</v>
       </c>
       <c r="D368" t="n">
-        <v>2315432000000</v>
+        <v>2315462000000</v>
       </c>
       <c r="E368" t="n">
-        <v>2315432000000</v>
+        <v>2315462000000</v>
       </c>
       <c r="F368" t="n">
-        <v>2315432000000</v>
+        <v>2315462000000</v>
       </c>
       <c r="G368" t="n">
         <v>0</v>
@@ -9661,16 +9661,16 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>2310115000000</v>
+        <v>2310118000000</v>
       </c>
       <c r="D369" t="n">
-        <v>2310115000000</v>
+        <v>2310118000000</v>
       </c>
       <c r="E369" t="n">
-        <v>2310115000000</v>
+        <v>2310118000000</v>
       </c>
       <c r="F369" t="n">
-        <v>2310115000000</v>
+        <v>2310118000000</v>
       </c>
       <c r="G369" t="n">
         <v>0</v>
@@ -9686,16 +9686,16 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>2332390000000</v>
+        <v>2332401000000</v>
       </c>
       <c r="D370" t="n">
-        <v>2332390000000</v>
+        <v>2332401000000</v>
       </c>
       <c r="E370" t="n">
-        <v>2332390000000</v>
+        <v>2332401000000</v>
       </c>
       <c r="F370" t="n">
-        <v>2332390000000</v>
+        <v>2332401000000</v>
       </c>
       <c r="G370" t="n">
         <v>0</v>
@@ -9711,16 +9711,16 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>2338250000000</v>
+        <v>2338246000000</v>
       </c>
       <c r="D371" t="n">
-        <v>2338250000000</v>
+        <v>2338246000000</v>
       </c>
       <c r="E371" t="n">
-        <v>2338250000000</v>
+        <v>2338246000000</v>
       </c>
       <c r="F371" t="n">
-        <v>2338250000000</v>
+        <v>2338246000000</v>
       </c>
       <c r="G371" t="n">
         <v>0</v>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>2340053000000</v>
+        <v>2340072000000</v>
       </c>
       <c r="D372" t="n">
-        <v>2340053000000</v>
+        <v>2340072000000</v>
       </c>
       <c r="E372" t="n">
-        <v>2340053000000</v>
+        <v>2340072000000</v>
       </c>
       <c r="F372" t="n">
-        <v>2340053000000</v>
+        <v>2340072000000</v>
       </c>
       <c r="G372" t="n">
         <v>0</v>
@@ -9761,16 +9761,16 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>2344861000000</v>
+        <v>2344772000000</v>
       </c>
       <c r="D373" t="n">
-        <v>2344861000000</v>
+        <v>2344772000000</v>
       </c>
       <c r="E373" t="n">
-        <v>2344861000000</v>
+        <v>2344772000000</v>
       </c>
       <c r="F373" t="n">
-        <v>2344861000000</v>
+        <v>2344772000000</v>
       </c>
       <c r="G373" t="n">
         <v>0</v>
@@ -9786,16 +9786,16 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>2346041000000</v>
+        <v>2346035000000</v>
       </c>
       <c r="D374" t="n">
-        <v>2346041000000</v>
+        <v>2346035000000</v>
       </c>
       <c r="E374" t="n">
-        <v>2346041000000</v>
+        <v>2346035000000</v>
       </c>
       <c r="F374" t="n">
-        <v>2346041000000</v>
+        <v>2346035000000</v>
       </c>
       <c r="G374" t="n">
         <v>0</v>
@@ -9811,16 +9811,16 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>2357338000000</v>
+        <v>2357302000000</v>
       </c>
       <c r="D375" t="n">
-        <v>2357338000000</v>
+        <v>2357302000000</v>
       </c>
       <c r="E375" t="n">
-        <v>2357338000000</v>
+        <v>2357302000000</v>
       </c>
       <c r="F375" t="n">
-        <v>2357338000000</v>
+        <v>2357302000000</v>
       </c>
       <c r="G375" t="n">
         <v>0</v>
@@ -9836,16 +9836,16 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>2359089000000</v>
+        <v>2359071000000</v>
       </c>
       <c r="D376" t="n">
-        <v>2359089000000</v>
+        <v>2359071000000</v>
       </c>
       <c r="E376" t="n">
-        <v>2359089000000</v>
+        <v>2359071000000</v>
       </c>
       <c r="F376" t="n">
-        <v>2359089000000</v>
+        <v>2359071000000</v>
       </c>
       <c r="G376" t="n">
         <v>0</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>2347301000000</v>
+        <v>2347292000000</v>
       </c>
       <c r="D377" t="n">
-        <v>2347301000000</v>
+        <v>2347292000000</v>
       </c>
       <c r="E377" t="n">
-        <v>2347301000000</v>
+        <v>2347292000000</v>
       </c>
       <c r="F377" t="n">
-        <v>2347301000000</v>
+        <v>2347292000000</v>
       </c>
       <c r="G377" t="n">
         <v>0</v>
@@ -9886,16 +9886,16 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>2351933000000</v>
+        <v>2351932000000</v>
       </c>
       <c r="D378" t="n">
-        <v>2351933000000</v>
+        <v>2351932000000</v>
       </c>
       <c r="E378" t="n">
-        <v>2351933000000</v>
+        <v>2351932000000</v>
       </c>
       <c r="F378" t="n">
-        <v>2351933000000</v>
+        <v>2351932000000</v>
       </c>
       <c r="G378" t="n">
         <v>0</v>
@@ -9911,16 +9911,16 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2372057000000</v>
+        <v>2372075000000</v>
       </c>
       <c r="D379" t="n">
-        <v>2372057000000</v>
+        <v>2372075000000</v>
       </c>
       <c r="E379" t="n">
-        <v>2372057000000</v>
+        <v>2372075000000</v>
       </c>
       <c r="F379" t="n">
-        <v>2372057000000</v>
+        <v>2372075000000</v>
       </c>
       <c r="G379" t="n">
         <v>0</v>
@@ -9936,16 +9936,16 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>2371724000000</v>
+        <v>2371730000000</v>
       </c>
       <c r="D380" t="n">
-        <v>2371724000000</v>
+        <v>2371730000000</v>
       </c>
       <c r="E380" t="n">
-        <v>2371724000000</v>
+        <v>2371730000000</v>
       </c>
       <c r="F380" t="n">
-        <v>2371724000000</v>
+        <v>2371730000000</v>
       </c>
       <c r="G380" t="n">
         <v>0</v>
@@ -9961,16 +9961,16 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>2371462000000</v>
+        <v>2371507000000</v>
       </c>
       <c r="D381" t="n">
-        <v>2371462000000</v>
+        <v>2371507000000</v>
       </c>
       <c r="E381" t="n">
-        <v>2371462000000</v>
+        <v>2371507000000</v>
       </c>
       <c r="F381" t="n">
-        <v>2371462000000</v>
+        <v>2371507000000</v>
       </c>
       <c r="G381" t="n">
         <v>0</v>
@@ -9986,16 +9986,16 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>2374948000000</v>
+        <v>2375015000000</v>
       </c>
       <c r="D382" t="n">
-        <v>2374948000000</v>
+        <v>2375015000000</v>
       </c>
       <c r="E382" t="n">
-        <v>2374948000000</v>
+        <v>2375015000000</v>
       </c>
       <c r="F382" t="n">
-        <v>2374948000000</v>
+        <v>2375015000000</v>
       </c>
       <c r="G382" t="n">
         <v>0</v>
@@ -10011,16 +10011,16 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>2388943000000</v>
+        <v>2388940000000</v>
       </c>
       <c r="D383" t="n">
-        <v>2388943000000</v>
+        <v>2388940000000</v>
       </c>
       <c r="E383" t="n">
-        <v>2388943000000</v>
+        <v>2388940000000</v>
       </c>
       <c r="F383" t="n">
-        <v>2388943000000</v>
+        <v>2388940000000</v>
       </c>
       <c r="G383" t="n">
         <v>0</v>
@@ -10036,16 +10036,16 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>2416346000000</v>
+        <v>2416323000000</v>
       </c>
       <c r="D384" t="n">
-        <v>2416346000000</v>
+        <v>2416323000000</v>
       </c>
       <c r="E384" t="n">
-        <v>2416346000000</v>
+        <v>2416323000000</v>
       </c>
       <c r="F384" t="n">
-        <v>2416346000000</v>
+        <v>2416323000000</v>
       </c>
       <c r="G384" t="n">
         <v>0</v>
@@ -10061,16 +10061,16 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>2414578000000</v>
+        <v>2414471000000</v>
       </c>
       <c r="D385" t="n">
-        <v>2414578000000</v>
+        <v>2414471000000</v>
       </c>
       <c r="E385" t="n">
-        <v>2414578000000</v>
+        <v>2414471000000</v>
       </c>
       <c r="F385" t="n">
-        <v>2414578000000</v>
+        <v>2414471000000</v>
       </c>
       <c r="G385" t="n">
         <v>0</v>
@@ -10086,16 +10086,16 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>2414732000000</v>
+        <v>2414673000000</v>
       </c>
       <c r="D386" t="n">
-        <v>2414732000000</v>
+        <v>2414673000000</v>
       </c>
       <c r="E386" t="n">
-        <v>2414732000000</v>
+        <v>2414673000000</v>
       </c>
       <c r="F386" t="n">
-        <v>2414732000000</v>
+        <v>2414673000000</v>
       </c>
       <c r="G386" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>2407117000000</v>
+        <v>2407134000000</v>
       </c>
       <c r="D387" t="n">
-        <v>2407117000000</v>
+        <v>2407134000000</v>
       </c>
       <c r="E387" t="n">
-        <v>2407117000000</v>
+        <v>2407134000000</v>
       </c>
       <c r="F387" t="n">
-        <v>2407117000000</v>
+        <v>2407134000000</v>
       </c>
       <c r="G387" t="n">
         <v>0</v>
@@ -10136,16 +10136,16 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2403420000000</v>
+        <v>2403459000000</v>
       </c>
       <c r="D388" t="n">
-        <v>2403420000000</v>
+        <v>2403459000000</v>
       </c>
       <c r="E388" t="n">
-        <v>2403420000000</v>
+        <v>2403459000000</v>
       </c>
       <c r="F388" t="n">
-        <v>2403420000000</v>
+        <v>2403459000000</v>
       </c>
       <c r="G388" t="n">
         <v>0</v>
@@ -10161,16 +10161,16 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>2415213000000</v>
+        <v>2415238000000</v>
       </c>
       <c r="D389" t="n">
-        <v>2415213000000</v>
+        <v>2415238000000</v>
       </c>
       <c r="E389" t="n">
-        <v>2415213000000</v>
+        <v>2415238000000</v>
       </c>
       <c r="F389" t="n">
-        <v>2415213000000</v>
+        <v>2415238000000</v>
       </c>
       <c r="G389" t="n">
         <v>0</v>
@@ -10186,16 +10186,16 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>2415116000000</v>
+        <v>2415149000000</v>
       </c>
       <c r="D390" t="n">
-        <v>2415116000000</v>
+        <v>2415149000000</v>
       </c>
       <c r="E390" t="n">
-        <v>2415116000000</v>
+        <v>2415149000000</v>
       </c>
       <c r="F390" t="n">
-        <v>2415116000000</v>
+        <v>2415149000000</v>
       </c>
       <c r="G390" t="n">
         <v>0</v>
@@ -10211,16 +10211,16 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>2405874000000</v>
+        <v>2405921000000</v>
       </c>
       <c r="D391" t="n">
-        <v>2405874000000</v>
+        <v>2405921000000</v>
       </c>
       <c r="E391" t="n">
-        <v>2405874000000</v>
+        <v>2405921000000</v>
       </c>
       <c r="F391" t="n">
-        <v>2405874000000</v>
+        <v>2405921000000</v>
       </c>
       <c r="G391" t="n">
         <v>0</v>
@@ -10236,16 +10236,16 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>2415734000000</v>
+        <v>2415770000000</v>
       </c>
       <c r="D392" t="n">
-        <v>2415734000000</v>
+        <v>2415770000000</v>
       </c>
       <c r="E392" t="n">
-        <v>2415734000000</v>
+        <v>2415770000000</v>
       </c>
       <c r="F392" t="n">
-        <v>2415734000000</v>
+        <v>2415770000000</v>
       </c>
       <c r="G392" t="n">
         <v>0</v>
@@ -10261,16 +10261,16 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>2417935000000</v>
+        <v>2417956000000</v>
       </c>
       <c r="D393" t="n">
-        <v>2417935000000</v>
+        <v>2417956000000</v>
       </c>
       <c r="E393" t="n">
-        <v>2417935000000</v>
+        <v>2417956000000</v>
       </c>
       <c r="F393" t="n">
-        <v>2417935000000</v>
+        <v>2417956000000</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10286,16 +10286,16 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>2429454000000</v>
+        <v>2429486000000</v>
       </c>
       <c r="D394" t="n">
-        <v>2429454000000</v>
+        <v>2429486000000</v>
       </c>
       <c r="E394" t="n">
-        <v>2429454000000</v>
+        <v>2429486000000</v>
       </c>
       <c r="F394" t="n">
-        <v>2429454000000</v>
+        <v>2429486000000</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10311,16 +10311,16 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>2429425000000</v>
+        <v>2429391000000</v>
       </c>
       <c r="D395" t="n">
-        <v>2429425000000</v>
+        <v>2429391000000</v>
       </c>
       <c r="E395" t="n">
-        <v>2429425000000</v>
+        <v>2429391000000</v>
       </c>
       <c r="F395" t="n">
-        <v>2429425000000</v>
+        <v>2429391000000</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10336,16 +10336,16 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>2419686000000</v>
+        <v>2419713000000</v>
       </c>
       <c r="D396" t="n">
-        <v>2419686000000</v>
+        <v>2419713000000</v>
       </c>
       <c r="E396" t="n">
-        <v>2419686000000</v>
+        <v>2419713000000</v>
       </c>
       <c r="F396" t="n">
-        <v>2419686000000</v>
+        <v>2419713000000</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>2430588000000</v>
+        <v>2430432000000</v>
       </c>
       <c r="D397" t="n">
-        <v>2430588000000</v>
+        <v>2430432000000</v>
       </c>
       <c r="E397" t="n">
-        <v>2430588000000</v>
+        <v>2430432000000</v>
       </c>
       <c r="F397" t="n">
-        <v>2430588000000</v>
+        <v>2430432000000</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>2446771000000</v>
+        <v>2446557000000</v>
       </c>
       <c r="D398" t="n">
-        <v>2446771000000</v>
+        <v>2446557000000</v>
       </c>
       <c r="E398" t="n">
-        <v>2446771000000</v>
+        <v>2446557000000</v>
       </c>
       <c r="F398" t="n">
-        <v>2446771000000</v>
+        <v>2446557000000</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10411,16 +10411,16 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>2456253000000</v>
+        <v>2456339000000</v>
       </c>
       <c r="D399" t="n">
-        <v>2456253000000</v>
+        <v>2456339000000</v>
       </c>
       <c r="E399" t="n">
-        <v>2456253000000</v>
+        <v>2456339000000</v>
       </c>
       <c r="F399" t="n">
-        <v>2456253000000</v>
+        <v>2456339000000</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10436,16 +10436,16 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>2481573000000</v>
+        <v>2481709000000</v>
       </c>
       <c r="D400" t="n">
-        <v>2481573000000</v>
+        <v>2481709000000</v>
       </c>
       <c r="E400" t="n">
-        <v>2481573000000</v>
+        <v>2481709000000</v>
       </c>
       <c r="F400" t="n">
-        <v>2481573000000</v>
+        <v>2481709000000</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10461,16 +10461,16 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>2603729000000</v>
+        <v>2603794000000</v>
       </c>
       <c r="D401" t="n">
-        <v>2603729000000</v>
+        <v>2603794000000</v>
       </c>
       <c r="E401" t="n">
-        <v>2603729000000</v>
+        <v>2603794000000</v>
       </c>
       <c r="F401" t="n">
-        <v>2603729000000</v>
+        <v>2603794000000</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10486,16 +10486,16 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>2639671000000</v>
+        <v>2639714000000</v>
       </c>
       <c r="D402" t="n">
-        <v>2639671000000</v>
+        <v>2639714000000</v>
       </c>
       <c r="E402" t="n">
-        <v>2639671000000</v>
+        <v>2639714000000</v>
       </c>
       <c r="F402" t="n">
-        <v>2639671000000</v>
+        <v>2639714000000</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10511,16 +10511,16 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>2682569000000</v>
+        <v>2682519000000</v>
       </c>
       <c r="D403" t="n">
-        <v>2682569000000</v>
+        <v>2682519000000</v>
       </c>
       <c r="E403" t="n">
-        <v>2682569000000</v>
+        <v>2682519000000</v>
       </c>
       <c r="F403" t="n">
-        <v>2682569000000</v>
+        <v>2682519000000</v>
       </c>
       <c r="G403" t="n">
         <v>0</v>
@@ -10536,16 +10536,16 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>2700238000000</v>
+        <v>2700321000000</v>
       </c>
       <c r="D404" t="n">
-        <v>2700238000000</v>
+        <v>2700321000000</v>
       </c>
       <c r="E404" t="n">
-        <v>2700238000000</v>
+        <v>2700321000000</v>
       </c>
       <c r="F404" t="n">
-        <v>2700238000000</v>
+        <v>2700321000000</v>
       </c>
       <c r="G404" t="n">
         <v>0</v>
@@ -10561,16 +10561,16 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>2715572000000</v>
+        <v>2715730000000</v>
       </c>
       <c r="D405" t="n">
-        <v>2715572000000</v>
+        <v>2715730000000</v>
       </c>
       <c r="E405" t="n">
-        <v>2715572000000</v>
+        <v>2715730000000</v>
       </c>
       <c r="F405" t="n">
-        <v>2715572000000</v>
+        <v>2715730000000</v>
       </c>
       <c r="G405" t="n">
         <v>0</v>
@@ -10586,16 +10586,16 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>2719296000000</v>
+        <v>2719354000000</v>
       </c>
       <c r="D406" t="n">
-        <v>2719296000000</v>
+        <v>2719354000000</v>
       </c>
       <c r="E406" t="n">
-        <v>2719296000000</v>
+        <v>2719354000000</v>
       </c>
       <c r="F406" t="n">
-        <v>2719296000000</v>
+        <v>2719354000000</v>
       </c>
       <c r="G406" t="n">
         <v>0</v>
@@ -10611,16 +10611,16 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>2729471000000</v>
+        <v>2729336000000</v>
       </c>
       <c r="D407" t="n">
-        <v>2729471000000</v>
+        <v>2729336000000</v>
       </c>
       <c r="E407" t="n">
-        <v>2729471000000</v>
+        <v>2729336000000</v>
       </c>
       <c r="F407" t="n">
-        <v>2729471000000</v>
+        <v>2729336000000</v>
       </c>
       <c r="G407" t="n">
         <v>0</v>
@@ -10636,16 +10636,16 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>2757371000000</v>
+        <v>2757401000000</v>
       </c>
       <c r="D408" t="n">
-        <v>2757371000000</v>
+        <v>2757401000000</v>
       </c>
       <c r="E408" t="n">
-        <v>2757371000000</v>
+        <v>2757401000000</v>
       </c>
       <c r="F408" t="n">
-        <v>2757371000000</v>
+        <v>2757401000000</v>
       </c>
       <c r="G408" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>2769783000000</v>
+        <v>2769646000000</v>
       </c>
       <c r="D409" t="n">
-        <v>2769783000000</v>
+        <v>2769646000000</v>
       </c>
       <c r="E409" t="n">
-        <v>2769783000000</v>
+        <v>2769646000000</v>
       </c>
       <c r="F409" t="n">
-        <v>2769783000000</v>
+        <v>2769646000000</v>
       </c>
       <c r="G409" t="n">
         <v>0</v>
@@ -10686,16 +10686,16 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>2811114000000</v>
+        <v>2810605000000</v>
       </c>
       <c r="D410" t="n">
-        <v>2811114000000</v>
+        <v>2810605000000</v>
       </c>
       <c r="E410" t="n">
-        <v>2811114000000</v>
+        <v>2810605000000</v>
       </c>
       <c r="F410" t="n">
-        <v>2811114000000</v>
+        <v>2810605000000</v>
       </c>
       <c r="G410" t="n">
         <v>0</v>
@@ -10711,16 +10711,16 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>2821294000000</v>
+        <v>2821228000000</v>
       </c>
       <c r="D411" t="n">
-        <v>2821294000000</v>
+        <v>2821228000000</v>
       </c>
       <c r="E411" t="n">
-        <v>2821294000000</v>
+        <v>2821228000000</v>
       </c>
       <c r="F411" t="n">
-        <v>2821294000000</v>
+        <v>2821228000000</v>
       </c>
       <c r="G411" t="n">
         <v>0</v>
@@ -10736,16 +10736,16 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>2842039000000</v>
+        <v>2842868000000</v>
       </c>
       <c r="D412" t="n">
-        <v>2842039000000</v>
+        <v>2842868000000</v>
       </c>
       <c r="E412" t="n">
-        <v>2842039000000</v>
+        <v>2842868000000</v>
       </c>
       <c r="F412" t="n">
-        <v>2842039000000</v>
+        <v>2842868000000</v>
       </c>
       <c r="G412" t="n">
         <v>0</v>
@@ -10761,16 +10761,16 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>2858641000000</v>
+        <v>2858521000000</v>
       </c>
       <c r="D413" t="n">
-        <v>2858641000000</v>
+        <v>2858521000000</v>
       </c>
       <c r="E413" t="n">
-        <v>2858641000000</v>
+        <v>2858521000000</v>
       </c>
       <c r="F413" t="n">
-        <v>2858641000000</v>
+        <v>2858521000000</v>
       </c>
       <c r="G413" t="n">
         <v>0</v>
@@ -10786,16 +10786,16 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>2875661000000</v>
+        <v>2875638000000</v>
       </c>
       <c r="D414" t="n">
-        <v>2875661000000</v>
+        <v>2875638000000</v>
       </c>
       <c r="E414" t="n">
-        <v>2875661000000</v>
+        <v>2875638000000</v>
       </c>
       <c r="F414" t="n">
-        <v>2875661000000</v>
+        <v>2875638000000</v>
       </c>
       <c r="G414" t="n">
         <v>0</v>
@@ -10811,16 +10811,16 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>2871100000000</v>
+        <v>2870729000000</v>
       </c>
       <c r="D415" t="n">
-        <v>2871100000000</v>
+        <v>2870729000000</v>
       </c>
       <c r="E415" t="n">
-        <v>2871100000000</v>
+        <v>2870729000000</v>
       </c>
       <c r="F415" t="n">
-        <v>2871100000000</v>
+        <v>2870729000000</v>
       </c>
       <c r="G415" t="n">
         <v>0</v>
@@ -10836,16 +10836,16 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>2887669000000</v>
+        <v>2887930000000</v>
       </c>
       <c r="D416" t="n">
-        <v>2887669000000</v>
+        <v>2887930000000</v>
       </c>
       <c r="E416" t="n">
-        <v>2887669000000</v>
+        <v>2887930000000</v>
       </c>
       <c r="F416" t="n">
-        <v>2887669000000</v>
+        <v>2887930000000</v>
       </c>
       <c r="G416" t="n">
         <v>0</v>
@@ -10861,16 +10861,16 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>2891958000000</v>
+        <v>2892060000000</v>
       </c>
       <c r="D417" t="n">
-        <v>2891958000000</v>
+        <v>2892060000000</v>
       </c>
       <c r="E417" t="n">
-        <v>2891958000000</v>
+        <v>2892060000000</v>
       </c>
       <c r="F417" t="n">
-        <v>2891958000000</v>
+        <v>2892060000000</v>
       </c>
       <c r="G417" t="n">
         <v>0</v>
@@ -10886,16 +10886,16 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>2890725000000</v>
+        <v>2890721000000</v>
       </c>
       <c r="D418" t="n">
-        <v>2890725000000</v>
+        <v>2890721000000</v>
       </c>
       <c r="E418" t="n">
-        <v>2890725000000</v>
+        <v>2890721000000</v>
       </c>
       <c r="F418" t="n">
-        <v>2890725000000</v>
+        <v>2890721000000</v>
       </c>
       <c r="G418" t="n">
         <v>0</v>
@@ -10911,16 +10911,16 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>2933914000000</v>
+        <v>2933670000000</v>
       </c>
       <c r="D419" t="n">
-        <v>2933914000000</v>
+        <v>2933670000000</v>
       </c>
       <c r="E419" t="n">
-        <v>2933914000000</v>
+        <v>2933670000000</v>
       </c>
       <c r="F419" t="n">
-        <v>2933914000000</v>
+        <v>2933670000000</v>
       </c>
       <c r="G419" t="n">
         <v>0</v>
@@ -10936,16 +10936,16 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>2946119000000</v>
+        <v>2946167000000</v>
       </c>
       <c r="D420" t="n">
-        <v>2946119000000</v>
+        <v>2946167000000</v>
       </c>
       <c r="E420" t="n">
-        <v>2946119000000</v>
+        <v>2946167000000</v>
       </c>
       <c r="F420" t="n">
-        <v>2946119000000</v>
+        <v>2946167000000</v>
       </c>
       <c r="G420" t="n">
         <v>0</v>
@@ -10961,16 +10961,16 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>2967796000000</v>
+        <v>2968038000000</v>
       </c>
       <c r="D421" t="n">
-        <v>2967796000000</v>
+        <v>2968038000000</v>
       </c>
       <c r="E421" t="n">
-        <v>2967796000000</v>
+        <v>2968038000000</v>
       </c>
       <c r="F421" t="n">
-        <v>2967796000000</v>
+        <v>2968038000000</v>
       </c>
       <c r="G421" t="n">
         <v>0</v>
@@ -10986,16 +10986,16 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2979644000000</v>
+        <v>2978879000000</v>
       </c>
       <c r="D422" t="n">
-        <v>2979644000000</v>
+        <v>2978879000000</v>
       </c>
       <c r="E422" t="n">
-        <v>2979644000000</v>
+        <v>2978879000000</v>
       </c>
       <c r="F422" t="n">
-        <v>2979644000000</v>
+        <v>2978879000000</v>
       </c>
       <c r="G422" t="n">
         <v>0</v>
@@ -11011,16 +11011,16 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>2970964000000</v>
+        <v>2970952000000</v>
       </c>
       <c r="D423" t="n">
-        <v>2970964000000</v>
+        <v>2970952000000</v>
       </c>
       <c r="E423" t="n">
-        <v>2970964000000</v>
+        <v>2970952000000</v>
       </c>
       <c r="F423" t="n">
-        <v>2970964000000</v>
+        <v>2970952000000</v>
       </c>
       <c r="G423" t="n">
         <v>0</v>
@@ -11036,16 +11036,16 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>2986940000000</v>
+        <v>2988480000000</v>
       </c>
       <c r="D424" t="n">
-        <v>2986940000000</v>
+        <v>2988480000000</v>
       </c>
       <c r="E424" t="n">
-        <v>2986940000000</v>
+        <v>2988480000000</v>
       </c>
       <c r="F424" t="n">
-        <v>2986940000000</v>
+        <v>2988480000000</v>
       </c>
       <c r="G424" t="n">
         <v>0</v>
@@ -11061,16 +11061,16 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>3032968000000</v>
+        <v>3032901000000</v>
       </c>
       <c r="D425" t="n">
-        <v>3032968000000</v>
+        <v>3032901000000</v>
       </c>
       <c r="E425" t="n">
-        <v>3032968000000</v>
+        <v>3032901000000</v>
       </c>
       <c r="F425" t="n">
-        <v>3032968000000</v>
+        <v>3032901000000</v>
       </c>
       <c r="G425" t="n">
         <v>0</v>
@@ -11086,16 +11086,16 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>3040741000000</v>
+        <v>3040249000000</v>
       </c>
       <c r="D426" t="n">
-        <v>3040741000000</v>
+        <v>3040249000000</v>
       </c>
       <c r="E426" t="n">
-        <v>3040741000000</v>
+        <v>3040249000000</v>
       </c>
       <c r="F426" t="n">
-        <v>3040741000000</v>
+        <v>3040249000000</v>
       </c>
       <c r="G426" t="n">
         <v>0</v>
@@ -11111,16 +11111,16 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>3041169000000</v>
+        <v>3040088000000</v>
       </c>
       <c r="D427" t="n">
-        <v>3041169000000</v>
+        <v>3040088000000</v>
       </c>
       <c r="E427" t="n">
-        <v>3041169000000</v>
+        <v>3040088000000</v>
       </c>
       <c r="F427" t="n">
-        <v>3041169000000</v>
+        <v>3040088000000</v>
       </c>
       <c r="G427" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>3068315000000</v>
+        <v>3068538000000</v>
       </c>
       <c r="D428" t="n">
-        <v>3068315000000</v>
+        <v>3068538000000</v>
       </c>
       <c r="E428" t="n">
-        <v>3068315000000</v>
+        <v>3068538000000</v>
       </c>
       <c r="F428" t="n">
-        <v>3068315000000</v>
+        <v>3068538000000</v>
       </c>
       <c r="G428" t="n">
         <v>0</v>
@@ -11161,16 +11161,16 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>3076270000000</v>
+        <v>3076742000000</v>
       </c>
       <c r="D429" t="n">
-        <v>3076270000000</v>
+        <v>3076742000000</v>
       </c>
       <c r="E429" t="n">
-        <v>3076270000000</v>
+        <v>3076742000000</v>
       </c>
       <c r="F429" t="n">
-        <v>3076270000000</v>
+        <v>3076742000000</v>
       </c>
       <c r="G429" t="n">
         <v>0</v>
@@ -11186,16 +11186,16 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>3105687000000</v>
+        <v>3105571000000</v>
       </c>
       <c r="D430" t="n">
-        <v>3105687000000</v>
+        <v>3105571000000</v>
       </c>
       <c r="E430" t="n">
-        <v>3105687000000</v>
+        <v>3105571000000</v>
       </c>
       <c r="F430" t="n">
-        <v>3105687000000</v>
+        <v>3105571000000</v>
       </c>
       <c r="G430" t="n">
         <v>0</v>
@@ -11211,16 +11211,16 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>3218141000000</v>
+        <v>3217985000000</v>
       </c>
       <c r="D431" t="n">
-        <v>3218141000000</v>
+        <v>3217985000000</v>
       </c>
       <c r="E431" t="n">
-        <v>3218141000000</v>
+        <v>3217985000000</v>
       </c>
       <c r="F431" t="n">
-        <v>3218141000000</v>
+        <v>3217985000000</v>
       </c>
       <c r="G431" t="n">
         <v>0</v>
@@ -11236,16 +11236,16 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>3099604000000</v>
+        <v>3099642000000</v>
       </c>
       <c r="D432" t="n">
-        <v>3099604000000</v>
+        <v>3099642000000</v>
       </c>
       <c r="E432" t="n">
-        <v>3099604000000</v>
+        <v>3099642000000</v>
       </c>
       <c r="F432" t="n">
-        <v>3099604000000</v>
+        <v>3099642000000</v>
       </c>
       <c r="G432" t="n">
         <v>0</v>
@@ -11261,16 +11261,16 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>3096278000000</v>
+        <v>3096180000000</v>
       </c>
       <c r="D433" t="n">
-        <v>3096278000000</v>
+        <v>3096180000000</v>
       </c>
       <c r="E433" t="n">
-        <v>3096278000000</v>
+        <v>3096180000000</v>
       </c>
       <c r="F433" t="n">
-        <v>3096278000000</v>
+        <v>3096180000000</v>
       </c>
       <c r="G433" t="n">
         <v>0</v>
@@ -11286,16 +11286,16 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>3068065000000</v>
+        <v>3067035000000</v>
       </c>
       <c r="D434" t="n">
-        <v>3068065000000</v>
+        <v>3067035000000</v>
       </c>
       <c r="E434" t="n">
-        <v>3068065000000</v>
+        <v>3067035000000</v>
       </c>
       <c r="F434" t="n">
-        <v>3068065000000</v>
+        <v>3067035000000</v>
       </c>
       <c r="G434" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>3095353000000</v>
+        <v>3094336000000</v>
       </c>
       <c r="D435" t="n">
-        <v>3095353000000</v>
+        <v>3094336000000</v>
       </c>
       <c r="E435" t="n">
-        <v>3095353000000</v>
+        <v>3094336000000</v>
       </c>
       <c r="F435" t="n">
-        <v>3095353000000</v>
+        <v>3094336000000</v>
       </c>
       <c r="G435" t="n">
         <v>0</v>
@@ -11336,16 +11336,16 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>3096698000000</v>
+        <v>3097533000000</v>
       </c>
       <c r="D436" t="n">
-        <v>3096698000000</v>
+        <v>3097533000000</v>
       </c>
       <c r="E436" t="n">
-        <v>3096698000000</v>
+        <v>3097533000000</v>
       </c>
       <c r="F436" t="n">
-        <v>3096698000000</v>
+        <v>3097533000000</v>
       </c>
       <c r="G436" t="n">
         <v>0</v>
@@ -11361,16 +11361,16 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>3071723000000</v>
+        <v>3069687000000</v>
       </c>
       <c r="D437" t="n">
-        <v>3071723000000</v>
+        <v>3069687000000</v>
       </c>
       <c r="E437" t="n">
-        <v>3071723000000</v>
+        <v>3069687000000</v>
       </c>
       <c r="F437" t="n">
-        <v>3071723000000</v>
+        <v>3069687000000</v>
       </c>
       <c r="G437" t="n">
         <v>0</v>
@@ -11386,16 +11386,16 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>3060169000000</v>
+        <v>3057863000000</v>
       </c>
       <c r="D438" t="n">
-        <v>3060169000000</v>
+        <v>3057863000000</v>
       </c>
       <c r="E438" t="n">
-        <v>3060169000000</v>
+        <v>3057863000000</v>
       </c>
       <c r="F438" t="n">
-        <v>3060169000000</v>
+        <v>3057863000000</v>
       </c>
       <c r="G438" t="n">
         <v>0</v>
@@ -11411,16 +11411,16 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>3058913000000</v>
+        <v>3058434000000</v>
       </c>
       <c r="D439" t="n">
-        <v>3058913000000</v>
+        <v>3058434000000</v>
       </c>
       <c r="E439" t="n">
-        <v>3058913000000</v>
+        <v>3058434000000</v>
       </c>
       <c r="F439" t="n">
-        <v>3058913000000</v>
+        <v>3058434000000</v>
       </c>
       <c r="G439" t="n">
         <v>0</v>
@@ -11436,18 +11436,93 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>3045763000000</v>
+        <v>3044958000000</v>
       </c>
       <c r="D440" t="n">
-        <v>3045763000000</v>
+        <v>3044958000000</v>
       </c>
       <c r="E440" t="n">
-        <v>3045763000000</v>
+        <v>3044958000000</v>
       </c>
       <c r="F440" t="n">
-        <v>3045763000000</v>
+        <v>3044958000000</v>
       </c>
       <c r="G440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>ECONOMICS:GBM2</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>3014302000000</v>
+      </c>
+      <c r="D441" t="n">
+        <v>3014302000000</v>
+      </c>
+      <c r="E441" t="n">
+        <v>3014302000000</v>
+      </c>
+      <c r="F441" t="n">
+        <v>3014302000000</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>ECONOMICS:GBM2</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>3032224000000</v>
+      </c>
+      <c r="D442" t="n">
+        <v>3032224000000</v>
+      </c>
+      <c r="E442" t="n">
+        <v>3032224000000</v>
+      </c>
+      <c r="F442" t="n">
+        <v>3032224000000</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>ECONOMICS:GBM2</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>3031917000000</v>
+      </c>
+      <c r="D443" t="n">
+        <v>3031917000000</v>
+      </c>
+      <c r="E443" t="n">
+        <v>3031917000000</v>
+      </c>
+      <c r="F443" t="n">
+        <v>3031917000000</v>
+      </c>
+      <c r="G443" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/United Kingdom_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/United Kingdom_M2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G443"/>
+  <dimension ref="A1:G444"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10581,18 +10581,41 @@
         <v>7</v>
       </c>
       <c r="C443">
-        <v>3031917000000</v>
+        <v>3032024000000</v>
       </c>
       <c r="D443">
-        <v>3031917000000</v>
+        <v>3032024000000</v>
       </c>
       <c r="E443">
-        <v>3031917000000</v>
+        <v>3032024000000</v>
       </c>
       <c r="F443">
-        <v>3031917000000</v>
+        <v>3032024000000</v>
       </c>
       <c r="G443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7">
+      <c r="A444" s="2">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="B444" t="s">
+        <v>7</v>
+      </c>
+      <c r="C444">
+        <v>2982934000000</v>
+      </c>
+      <c r="D444">
+        <v>2982934000000</v>
+      </c>
+      <c r="E444">
+        <v>2982934000000</v>
+      </c>
+      <c r="F444">
+        <v>2982934000000</v>
+      </c>
+      <c r="G444">
         <v>0</v>
       </c>
     </row>
